--- a/Tailwind Dark Color Palette.xlsx
+++ b/Tailwind Dark Color Palette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb090\source\repos\blatomic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602A1D1-6B8B-4128-9C34-9457B59F533F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2075D23-862C-49C5-88C7-526069E6F342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DBD885D-8CF0-4120-A804-B96791312B72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DBD885D-8CF0-4120-A804-B96791312B72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,13 +543,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9F5697-170D-4519-AC36-D44B87767140}">
   <dimension ref="A1:S178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="95.42578125" customWidth="1"/>
+    <col min="2" max="8" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
@@ -585,36 +586,36 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>_xlfn.CONCAT("public static ColorPair ",PROPER(L3),"_",PROPER($K3)," { get; set; } = new(""b-",L3,"-",$K3,""",""dark:b-",L3,"-",$J3,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Text_Black { get; set; } = new("b-text-black","dark:b-text-white"); </v>
+        <f>_xlfn.CONCAT("public static ColorPair ",PROPER(L3),"_",PROPER($K3)," { get; set; } = new(""",L3,"-",$K3,""",""dark:",L3,"-",$J3,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Text_Black { get; set; } = new("text-black","dark:text-white"); </v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:H3" si="0">_xlfn.CONCAT("public static ColorPair ",PROPER(M3),"_",PROPER($K3)," { get; set; } = new(""b-",M3,"-",$K3,""",""dark:b-",M3,"-",$J3,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Bg_Black { get; set; } = new("b-bg-black","dark:b-bg-white"); </v>
+        <f t="shared" ref="B3:H3" si="0">_xlfn.CONCAT("public static ColorPair ",PROPER(M3),"_",PROPER($K3)," { get; set; } = new(""",M3,"-",$K3,""",""dark:",M3,"-",$J3,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Bg_Black { get; set; } = new("bg-black","dark:bg-white"); </v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">public static ColorPair Border_Black { get; set; } = new("b-border-black","dark:b-border-white"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Black { get; set; } = new("border-black","dark:border-white"); </v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">public static ColorPair Divide_Black { get; set; } = new("b-divide-black","dark:b-divide-white"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Black { get; set; } = new("divide-black","dark:divide-white"); </v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">public static ColorPair Outline_Black { get; set; } = new("b-outline-black","dark:b-outline-white"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Black { get; set; } = new("outline-black","dark:outline-white"); </v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">public static ColorPair Ring_Black { get; set; } = new("b-ring-black","dark:b-ring-white"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Black { get; set; } = new("ring-black","dark:ring-white"); </v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">public static ColorPair Accent_Black { get; set; } = new("b-accent-black","dark:b-accent-white"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Black { get; set; } = new("accent-black","dark:accent-white"); </v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">public static ColorPair Caret_Black { get; set; } = new("b-caret-black","dark:b-caret-white"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Black { get; set; } = new("caret-black","dark:caret-white"); </v>
       </c>
       <c r="I3" s="3" t="s">
         <v>30</v>
@@ -652,36 +653,36 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT("public static ColorPair ",PROPER(L4),"_",PROPER($K4)," { get; set; } = new(""b-",L4,"-",$K4,""",""dark:b-",L4,"-",$J4,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Text_White { get; set; } = new("b-text-white","dark:b-text-black"); </v>
+        <f>_xlfn.CONCAT("public static ColorPair ",PROPER(L4),"_",PROPER($K4)," { get; set; } = new(""",L4,"-",$K4,""",""dark:",L4,"-",$J4,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Text_White { get; set; } = new("text-white","dark:text-black"); </v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4" si="1">_xlfn.CONCAT("public static ColorPair ",PROPER(M4),"_",PROPER($K4)," { get; set; } = new(""b-",M4,"-",$K4,""",""dark:b-",M4,"-",$J4,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Bg_White { get; set; } = new("b-bg-white","dark:b-bg-black"); </v>
+        <f t="shared" ref="B4" si="1">_xlfn.CONCAT("public static ColorPair ",PROPER(M4),"_",PROPER($K4)," { get; set; } = new(""",M4,"-",$K4,""",""dark:",M4,"-",$J4,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Bg_White { get; set; } = new("bg-white","dark:bg-black"); </v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4" si="2">_xlfn.CONCAT("public static ColorPair ",PROPER(N4),"_",PROPER($K4)," { get; set; } = new(""b-",N4,"-",$K4,""",""dark:b-",N4,"-",$J4,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Border_White { get; set; } = new("b-border-white","dark:b-border-black"); </v>
+        <f t="shared" ref="C4" si="2">_xlfn.CONCAT("public static ColorPair ",PROPER(N4),"_",PROPER($K4)," { get; set; } = new(""",N4,"-",$K4,""",""dark:",N4,"-",$J4,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Border_White { get; set; } = new("border-white","dark:border-black"); </v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4" si="3">_xlfn.CONCAT("public static ColorPair ",PROPER(O4),"_",PROPER($K4)," { get; set; } = new(""b-",O4,"-",$K4,""",""dark:b-",O4,"-",$J4,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Divide_White { get; set; } = new("b-divide-white","dark:b-divide-black"); </v>
+        <f t="shared" ref="D4" si="3">_xlfn.CONCAT("public static ColorPair ",PROPER(O4),"_",PROPER($K4)," { get; set; } = new(""",O4,"-",$K4,""",""dark:",O4,"-",$J4,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Divide_White { get; set; } = new("divide-white","dark:divide-black"); </v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4" si="4">_xlfn.CONCAT("public static ColorPair ",PROPER(P4),"_",PROPER($K4)," { get; set; } = new(""b-",P4,"-",$K4,""",""dark:b-",P4,"-",$J4,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Outline_White { get; set; } = new("b-outline-white","dark:b-outline-black"); </v>
+        <f t="shared" ref="E4" si="4">_xlfn.CONCAT("public static ColorPair ",PROPER(P4),"_",PROPER($K4)," { get; set; } = new(""",P4,"-",$K4,""",""dark:",P4,"-",$J4,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Outline_White { get; set; } = new("outline-white","dark:outline-black"); </v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4" si="5">_xlfn.CONCAT("public static ColorPair ",PROPER(Q4),"_",PROPER($K4)," { get; set; } = new(""b-",Q4,"-",$K4,""",""dark:b-",Q4,"-",$J4,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Ring_White { get; set; } = new("b-ring-white","dark:b-ring-black"); </v>
+        <f t="shared" ref="F4" si="5">_xlfn.CONCAT("public static ColorPair ",PROPER(Q4),"_",PROPER($K4)," { get; set; } = new(""",Q4,"-",$K4,""",""dark:",Q4,"-",$J4,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Ring_White { get; set; } = new("ring-white","dark:ring-black"); </v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4" si="6">_xlfn.CONCAT("public static ColorPair ",PROPER(R4),"_",PROPER($K4)," { get; set; } = new(""b-",R4,"-",$K4,""",""dark:b-",R4,"-",$J4,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Accent_White { get; set; } = new("b-accent-white","dark:b-accent-black"); </v>
+        <f t="shared" ref="G4" si="6">_xlfn.CONCAT("public static ColorPair ",PROPER(R4),"_",PROPER($K4)," { get; set; } = new(""",R4,"-",$K4,""",""dark:",R4,"-",$J4,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Accent_White { get; set; } = new("accent-white","dark:accent-black"); </v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4" si="7">_xlfn.CONCAT("public static ColorPair ",PROPER(S4),"_",PROPER($K4)," { get; set; } = new(""b-",S4,"-",$K4,""",""dark:b-",S4,"-",$J4,,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Caret_White { get; set; } = new("b-caret-white","dark:b-caret-black"); </v>
+        <f t="shared" ref="H4" si="7">_xlfn.CONCAT("public static ColorPair ",PROPER(S4),"_",PROPER($K4)," { get; set; } = new(""",S4,"-",$K4,""",""dark:",S4,"-",$J4,,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Caret_White { get; set; } = new("caret-white","dark:caret-black"); </v>
       </c>
       <c r="I4" s="3" t="s">
         <v>30</v>
@@ -731,36 +732,36 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT("public static ColorPair ",PROPER(L8),"_",PROPER($K8),"_",$I8," { get; set; } = new(""b-",L8,"-",$K8,"-",$I8,""",""dark:b-",L8,"-",$K8,"-",$J8,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Text_Gray_100 { get; set; } = new("b-text-gray-100","dark:b-text-gray-900"); </v>
+        <f>_xlfn.CONCAT("public static ColorPair ",PROPER(L8),"_",PROPER($K8),"_",$I8," { get; set; } = new(""",L8,"-",$K8,"-",$I8,""",""dark:",L8,"-",$K8,"-",$J8,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Text_Gray_100 { get; set; } = new("text-gray-100","dark:text-gray-900"); </v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" ref="B8:H8" si="8">_xlfn.CONCAT("public static ColorPair ",PROPER(M8),"_",PROPER($K8),"_",$I8," { get; set; } = new(""b-",M8,"-",$K8,"-",$I8,""",""dark:b-",M8,"-",$K8,"-",$J8,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_100 { get; set; } = new("b-bg-gray-100","dark:b-bg-gray-900"); </v>
+        <f t="shared" ref="B8:H8" si="8">_xlfn.CONCAT("public static ColorPair ",PROPER(M8),"_",PROPER($K8),"_",$I8," { get; set; } = new(""",M8,"-",$K8,"-",$I8,""",""dark:",M8,"-",$K8,"-",$J8,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_100 { get; set; } = new("bg-gray-100","dark:bg-gray-900"); </v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">public static ColorPair Border_Gray_100 { get; set; } = new("b-border-gray-100","dark:b-border-gray-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Gray_100 { get; set; } = new("border-gray-100","dark:border-gray-900"); </v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_100 { get; set; } = new("b-divide-gray-100","dark:b-divide-gray-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_100 { get; set; } = new("divide-gray-100","dark:divide-gray-900"); </v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_100 { get; set; } = new("b-outline-gray-100","dark:b-outline-gray-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_100 { get; set; } = new("outline-gray-100","dark:outline-gray-900"); </v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_100 { get; set; } = new("b-ring-gray-100","dark:b-ring-gray-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_100 { get; set; } = new("ring-gray-100","dark:ring-gray-900"); </v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_100 { get; set; } = new("b-accent-gray-100","dark:b-accent-gray-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_100 { get; set; } = new("accent-gray-100","dark:accent-gray-900"); </v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_100 { get; set; } = new("b-caret-gray-100","dark:b-caret-gray-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_100 { get; set; } = new("caret-gray-100","dark:caret-gray-900"); </v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -798,36 +799,36 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f t="shared" ref="A9:A72" si="9">_xlfn.CONCAT("public static ColorPair ",PROPER(L9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""b-",L9,"-",$K9,"-",$I9,""",""dark:b-",L9,"-",$K9,"-",$J9,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Text_Gray_200 { get; set; } = new("b-text-gray-200","dark:b-text-gray-800"); </v>
+        <f t="shared" ref="A9:A72" si="9">_xlfn.CONCAT("public static ColorPair ",PROPER(L9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""",L9,"-",$K9,"-",$I9,""",""dark:",L9,"-",$K9,"-",$J9,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Text_Gray_200 { get; set; } = new("text-gray-200","dark:text-gray-800"); </v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" ref="B9:B72" si="10">_xlfn.CONCAT("public static ColorPair ",PROPER(M9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""b-",M9,"-",$K9,"-",$I9,""",""dark:b-",M9,"-",$K9,"-",$J9,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_200 { get; set; } = new("b-bg-gray-200","dark:b-bg-gray-800"); </v>
+        <f t="shared" ref="B9:B72" si="10">_xlfn.CONCAT("public static ColorPair ",PROPER(M9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""",M9,"-",$K9,"-",$I9,""",""dark:",M9,"-",$K9,"-",$J9,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_200 { get; set; } = new("bg-gray-200","dark:bg-gray-800"); </v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9:C72" si="11">_xlfn.CONCAT("public static ColorPair ",PROPER(N9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""b-",N9,"-",$K9,"-",$I9,""",""dark:b-",N9,"-",$K9,"-",$J9,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Border_Gray_200 { get; set; } = new("b-border-gray-200","dark:b-border-gray-800"); </v>
+        <f t="shared" ref="C9:C72" si="11">_xlfn.CONCAT("public static ColorPair ",PROPER(N9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""",N9,"-",$K9,"-",$I9,""",""dark:",N9,"-",$K9,"-",$J9,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Border_Gray_200 { get; set; } = new("border-gray-200","dark:border-gray-800"); </v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D72" si="12">_xlfn.CONCAT("public static ColorPair ",PROPER(O9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""b-",O9,"-",$K9,"-",$I9,""",""dark:b-",O9,"-",$K9,"-",$J9,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_200 { get; set; } = new("b-divide-gray-200","dark:b-divide-gray-800"); </v>
+        <f t="shared" ref="D9:D72" si="12">_xlfn.CONCAT("public static ColorPair ",PROPER(O9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""",O9,"-",$K9,"-",$I9,""",""dark:",O9,"-",$K9,"-",$J9,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_200 { get; set; } = new("divide-gray-200","dark:divide-gray-800"); </v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ref="E9:E72" si="13">_xlfn.CONCAT("public static ColorPair ",PROPER(P9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""b-",P9,"-",$K9,"-",$I9,""",""dark:b-",P9,"-",$K9,"-",$J9,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_200 { get; set; } = new("b-outline-gray-200","dark:b-outline-gray-800"); </v>
+        <f t="shared" ref="E9:E72" si="13">_xlfn.CONCAT("public static ColorPair ",PROPER(P9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""",P9,"-",$K9,"-",$I9,""",""dark:",P9,"-",$K9,"-",$J9,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_200 { get; set; } = new("outline-gray-200","dark:outline-gray-800"); </v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ref="F9:F72" si="14">_xlfn.CONCAT("public static ColorPair ",PROPER(Q9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""b-",Q9,"-",$K9,"-",$I9,""",""dark:b-",Q9,"-",$K9,"-",$J9,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_200 { get; set; } = new("b-ring-gray-200","dark:b-ring-gray-800"); </v>
+        <f t="shared" ref="F9:F72" si="14">_xlfn.CONCAT("public static ColorPair ",PROPER(Q9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""",Q9,"-",$K9,"-",$I9,""",""dark:",Q9,"-",$K9,"-",$J9,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_200 { get; set; } = new("ring-gray-200","dark:ring-gray-800"); </v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="G9:G72" si="15">_xlfn.CONCAT("public static ColorPair ",PROPER(R9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""b-",R9,"-",$K9,"-",$I9,""",""dark:b-",R9,"-",$K9,"-",$J9,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_200 { get; set; } = new("b-accent-gray-200","dark:b-accent-gray-800"); </v>
+        <f t="shared" ref="G9:G72" si="15">_xlfn.CONCAT("public static ColorPair ",PROPER(R9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""",R9,"-",$K9,"-",$I9,""",""dark:",R9,"-",$K9,"-",$J9,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_200 { get; set; } = new("accent-gray-200","dark:accent-gray-800"); </v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ref="H9:H72" si="16">_xlfn.CONCAT("public static ColorPair ",PROPER(S9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""b-",S9,"-",$K9,"-",$I9,""",""dark:b-",S9,"-",$K9,"-",$J9,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_200 { get; set; } = new("b-caret-gray-200","dark:b-caret-gray-800"); </v>
+        <f t="shared" ref="H9:H72" si="16">_xlfn.CONCAT("public static ColorPair ",PROPER(S9),"_",PROPER($K9),"_",$I9," { get; set; } = new(""",S9,"-",$K9,"-",$I9,""",""dark:",S9,"-",$K9,"-",$J9,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_200 { get; set; } = new("caret-gray-200","dark:caret-gray-800"); </v>
       </c>
       <c r="I9">
         <f>I8+100</f>
@@ -868,35 +869,35 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Gray_300 { get; set; } = new("b-text-gray-300","dark:b-text-gray-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Gray_300 { get; set; } = new("text-gray-300","dark:text-gray-700"); </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_300 { get; set; } = new("b-bg-gray-300","dark:b-bg-gray-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_300 { get; set; } = new("bg-gray-300","dark:bg-gray-700"); </v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Gray_300 { get; set; } = new("b-border-gray-300","dark:b-border-gray-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Gray_300 { get; set; } = new("border-gray-300","dark:border-gray-700"); </v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_300 { get; set; } = new("b-divide-gray-300","dark:b-divide-gray-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_300 { get; set; } = new("divide-gray-300","dark:divide-gray-700"); </v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_300 { get; set; } = new("b-outline-gray-300","dark:b-outline-gray-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_300 { get; set; } = new("outline-gray-300","dark:outline-gray-700"); </v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_300 { get; set; } = new("b-ring-gray-300","dark:b-ring-gray-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_300 { get; set; } = new("ring-gray-300","dark:ring-gray-700"); </v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_300 { get; set; } = new("b-accent-gray-300","dark:b-accent-gray-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_300 { get; set; } = new("accent-gray-300","dark:accent-gray-700"); </v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_300 { get; set; } = new("b-caret-gray-300","dark:b-caret-gray-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_300 { get; set; } = new("caret-gray-300","dark:caret-gray-700"); </v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I15" si="17">I9+100</f>
@@ -937,35 +938,35 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Gray_400 { get; set; } = new("b-text-gray-400","dark:b-text-gray-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Gray_400 { get; set; } = new("text-gray-400","dark:text-gray-600"); </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_400 { get; set; } = new("b-bg-gray-400","dark:b-bg-gray-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_400 { get; set; } = new("bg-gray-400","dark:bg-gray-600"); </v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Gray_400 { get; set; } = new("b-border-gray-400","dark:b-border-gray-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Gray_400 { get; set; } = new("border-gray-400","dark:border-gray-600"); </v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_400 { get; set; } = new("b-divide-gray-400","dark:b-divide-gray-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_400 { get; set; } = new("divide-gray-400","dark:divide-gray-600"); </v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_400 { get; set; } = new("b-outline-gray-400","dark:b-outline-gray-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_400 { get; set; } = new("outline-gray-400","dark:outline-gray-600"); </v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_400 { get; set; } = new("b-ring-gray-400","dark:b-ring-gray-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_400 { get; set; } = new("ring-gray-400","dark:ring-gray-600"); </v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_400 { get; set; } = new("b-accent-gray-400","dark:b-accent-gray-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_400 { get; set; } = new("accent-gray-400","dark:accent-gray-600"); </v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_400 { get; set; } = new("b-caret-gray-400","dark:b-caret-gray-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_400 { get; set; } = new("caret-gray-400","dark:caret-gray-600"); </v>
       </c>
       <c r="I11">
         <f t="shared" si="17"/>
@@ -1006,35 +1007,35 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Gray_500 { get; set; } = new("b-text-gray-500","dark:b-text-gray-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Gray_500 { get; set; } = new("text-gray-500","dark:text-gray-500"); </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_500 { get; set; } = new("b-bg-gray-500","dark:b-bg-gray-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_500 { get; set; } = new("bg-gray-500","dark:bg-gray-500"); </v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Gray_500 { get; set; } = new("b-border-gray-500","dark:b-border-gray-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Gray_500 { get; set; } = new("border-gray-500","dark:border-gray-500"); </v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_500 { get; set; } = new("b-divide-gray-500","dark:b-divide-gray-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_500 { get; set; } = new("divide-gray-500","dark:divide-gray-500"); </v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_500 { get; set; } = new("b-outline-gray-500","dark:b-outline-gray-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_500 { get; set; } = new("outline-gray-500","dark:outline-gray-500"); </v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_500 { get; set; } = new("b-ring-gray-500","dark:b-ring-gray-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_500 { get; set; } = new("ring-gray-500","dark:ring-gray-500"); </v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_500 { get; set; } = new("b-accent-gray-500","dark:b-accent-gray-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_500 { get; set; } = new("accent-gray-500","dark:accent-gray-500"); </v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_500 { get; set; } = new("b-caret-gray-500","dark:b-caret-gray-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_500 { get; set; } = new("caret-gray-500","dark:caret-gray-500"); </v>
       </c>
       <c r="I12">
         <f t="shared" si="17"/>
@@ -1075,35 +1076,35 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Gray_600 { get; set; } = new("b-text-gray-600","dark:b-text-gray-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Gray_600 { get; set; } = new("text-gray-600","dark:text-gray-400"); </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_600 { get; set; } = new("b-bg-gray-600","dark:b-bg-gray-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_600 { get; set; } = new("bg-gray-600","dark:bg-gray-400"); </v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Gray_600 { get; set; } = new("b-border-gray-600","dark:b-border-gray-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Gray_600 { get; set; } = new("border-gray-600","dark:border-gray-400"); </v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_600 { get; set; } = new("b-divide-gray-600","dark:b-divide-gray-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_600 { get; set; } = new("divide-gray-600","dark:divide-gray-400"); </v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_600 { get; set; } = new("b-outline-gray-600","dark:b-outline-gray-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_600 { get; set; } = new("outline-gray-600","dark:outline-gray-400"); </v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_600 { get; set; } = new("b-ring-gray-600","dark:b-ring-gray-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_600 { get; set; } = new("ring-gray-600","dark:ring-gray-400"); </v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_600 { get; set; } = new("b-accent-gray-600","dark:b-accent-gray-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_600 { get; set; } = new("accent-gray-600","dark:accent-gray-400"); </v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_600 { get; set; } = new("b-caret-gray-600","dark:b-caret-gray-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_600 { get; set; } = new("caret-gray-600","dark:caret-gray-400"); </v>
       </c>
       <c r="I13">
         <f t="shared" si="17"/>
@@ -1144,35 +1145,35 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Gray_700 { get; set; } = new("b-text-gray-700","dark:b-text-gray-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Gray_700 { get; set; } = new("text-gray-700","dark:text-gray-300"); </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_700 { get; set; } = new("b-bg-gray-700","dark:b-bg-gray-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_700 { get; set; } = new("bg-gray-700","dark:bg-gray-300"); </v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Gray_700 { get; set; } = new("b-border-gray-700","dark:b-border-gray-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Gray_700 { get; set; } = new("border-gray-700","dark:border-gray-300"); </v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_700 { get; set; } = new("b-divide-gray-700","dark:b-divide-gray-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_700 { get; set; } = new("divide-gray-700","dark:divide-gray-300"); </v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_700 { get; set; } = new("b-outline-gray-700","dark:b-outline-gray-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_700 { get; set; } = new("outline-gray-700","dark:outline-gray-300"); </v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_700 { get; set; } = new("b-ring-gray-700","dark:b-ring-gray-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_700 { get; set; } = new("ring-gray-700","dark:ring-gray-300"); </v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_700 { get; set; } = new("b-accent-gray-700","dark:b-accent-gray-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_700 { get; set; } = new("accent-gray-700","dark:accent-gray-300"); </v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_700 { get; set; } = new("b-caret-gray-700","dark:b-caret-gray-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_700 { get; set; } = new("caret-gray-700","dark:caret-gray-300"); </v>
       </c>
       <c r="I14">
         <f t="shared" si="17"/>
@@ -1213,35 +1214,35 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Gray_800 { get; set; } = new("b-text-gray-800","dark:b-text-gray-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Gray_800 { get; set; } = new("text-gray-800","dark:text-gray-200"); </v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_800 { get; set; } = new("b-bg-gray-800","dark:b-bg-gray-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_800 { get; set; } = new("bg-gray-800","dark:bg-gray-200"); </v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Gray_800 { get; set; } = new("b-border-gray-800","dark:b-border-gray-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Gray_800 { get; set; } = new("border-gray-800","dark:border-gray-200"); </v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_800 { get; set; } = new("b-divide-gray-800","dark:b-divide-gray-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_800 { get; set; } = new("divide-gray-800","dark:divide-gray-200"); </v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_800 { get; set; } = new("b-outline-gray-800","dark:b-outline-gray-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_800 { get; set; } = new("outline-gray-800","dark:outline-gray-200"); </v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_800 { get; set; } = new("b-ring-gray-800","dark:b-ring-gray-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_800 { get; set; } = new("ring-gray-800","dark:ring-gray-200"); </v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_800 { get; set; } = new("b-accent-gray-800","dark:b-accent-gray-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_800 { get; set; } = new("accent-gray-800","dark:accent-gray-200"); </v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_800 { get; set; } = new("b-caret-gray-800","dark:b-caret-gray-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_800 { get; set; } = new("caret-gray-800","dark:caret-gray-200"); </v>
       </c>
       <c r="I15">
         <f t="shared" si="17"/>
@@ -1282,35 +1283,35 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Gray_900 { get; set; } = new("b-text-gray-900","dark:b-text-gray-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Gray_900 { get; set; } = new("text-gray-900","dark:text-gray-100"); </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Gray_900 { get; set; } = new("b-bg-gray-900","dark:b-bg-gray-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Gray_900 { get; set; } = new("bg-gray-900","dark:bg-gray-100"); </v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Gray_900 { get; set; } = new("b-border-gray-900","dark:b-border-gray-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Gray_900 { get; set; } = new("border-gray-900","dark:border-gray-100"); </v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Gray_900 { get; set; } = new("b-divide-gray-900","dark:b-divide-gray-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Gray_900 { get; set; } = new("divide-gray-900","dark:divide-gray-100"); </v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Gray_900 { get; set; } = new("b-outline-gray-900","dark:b-outline-gray-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Gray_900 { get; set; } = new("outline-gray-900","dark:outline-gray-100"); </v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Gray_900 { get; set; } = new("b-ring-gray-900","dark:b-ring-gray-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Gray_900 { get; set; } = new("ring-gray-900","dark:ring-gray-100"); </v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Gray_900 { get; set; } = new("b-accent-gray-900","dark:b-accent-gray-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Gray_900 { get; set; } = new("accent-gray-900","dark:accent-gray-100"); </v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Gray_900 { get; set; } = new("b-caret-gray-900","dark:b-caret-gray-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Gray_900 { get; set; } = new("caret-gray-900","dark:caret-gray-100"); </v>
       </c>
       <c r="I16">
         <f>I15+100</f>
@@ -1351,35 +1352,35 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_100 { get; set; } = new("b-text-slate-100","dark:b-text-slate-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_100 { get; set; } = new("text-slate-100","dark:text-slate-900"); </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_100 { get; set; } = new("b-bg-slate-100","dark:b-bg-slate-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_100 { get; set; } = new("bg-slate-100","dark:bg-slate-900"); </v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_100 { get; set; } = new("b-border-slate-100","dark:b-border-slate-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_100 { get; set; } = new("border-slate-100","dark:border-slate-900"); </v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_100 { get; set; } = new("b-divide-slate-100","dark:b-divide-slate-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_100 { get; set; } = new("divide-slate-100","dark:divide-slate-900"); </v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_100 { get; set; } = new("b-outline-slate-100","dark:b-outline-slate-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_100 { get; set; } = new("outline-slate-100","dark:outline-slate-900"); </v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_100 { get; set; } = new("b-ring-slate-100","dark:b-ring-slate-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_100 { get; set; } = new("ring-slate-100","dark:ring-slate-900"); </v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_100 { get; set; } = new("b-accent-slate-100","dark:b-accent-slate-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_100 { get; set; } = new("accent-slate-100","dark:accent-slate-900"); </v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_100 { get; set; } = new("b-caret-slate-100","dark:b-caret-slate-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_100 { get; set; } = new("caret-slate-100","dark:caret-slate-900"); </v>
       </c>
       <c r="I17">
         <f>I8</f>
@@ -1420,35 +1421,35 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_200 { get; set; } = new("b-text-slate-200","dark:b-text-slate-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_200 { get; set; } = new("text-slate-200","dark:text-slate-800"); </v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_200 { get; set; } = new("b-bg-slate-200","dark:b-bg-slate-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_200 { get; set; } = new("bg-slate-200","dark:bg-slate-800"); </v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_200 { get; set; } = new("b-border-slate-200","dark:b-border-slate-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_200 { get; set; } = new("border-slate-200","dark:border-slate-800"); </v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_200 { get; set; } = new("b-divide-slate-200","dark:b-divide-slate-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_200 { get; set; } = new("divide-slate-200","dark:divide-slate-800"); </v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_200 { get; set; } = new("b-outline-slate-200","dark:b-outline-slate-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_200 { get; set; } = new("outline-slate-200","dark:outline-slate-800"); </v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_200 { get; set; } = new("b-ring-slate-200","dark:b-ring-slate-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_200 { get; set; } = new("ring-slate-200","dark:ring-slate-800"); </v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_200 { get; set; } = new("b-accent-slate-200","dark:b-accent-slate-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_200 { get; set; } = new("accent-slate-200","dark:accent-slate-800"); </v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_200 { get; set; } = new("b-caret-slate-200","dark:b-caret-slate-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_200 { get; set; } = new("caret-slate-200","dark:caret-slate-800"); </v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:J18" si="19">I9</f>
@@ -1489,35 +1490,35 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_300 { get; set; } = new("b-text-slate-300","dark:b-text-slate-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_300 { get; set; } = new("text-slate-300","dark:text-slate-700"); </v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_300 { get; set; } = new("b-bg-slate-300","dark:b-bg-slate-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_300 { get; set; } = new("bg-slate-300","dark:bg-slate-700"); </v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_300 { get; set; } = new("b-border-slate-300","dark:b-border-slate-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_300 { get; set; } = new("border-slate-300","dark:border-slate-700"); </v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_300 { get; set; } = new("b-divide-slate-300","dark:b-divide-slate-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_300 { get; set; } = new("divide-slate-300","dark:divide-slate-700"); </v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_300 { get; set; } = new("b-outline-slate-300","dark:b-outline-slate-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_300 { get; set; } = new("outline-slate-300","dark:outline-slate-700"); </v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_300 { get; set; } = new("b-ring-slate-300","dark:b-ring-slate-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_300 { get; set; } = new("ring-slate-300","dark:ring-slate-700"); </v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_300 { get; set; } = new("b-accent-slate-300","dark:b-accent-slate-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_300 { get; set; } = new("accent-slate-300","dark:accent-slate-700"); </v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_300 { get; set; } = new("b-caret-slate-300","dark:b-caret-slate-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_300 { get; set; } = new("caret-slate-300","dark:caret-slate-700"); </v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19:J19" si="20">I10</f>
@@ -1558,35 +1559,35 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_400 { get; set; } = new("b-text-slate-400","dark:b-text-slate-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_400 { get; set; } = new("text-slate-400","dark:text-slate-600"); </v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_400 { get; set; } = new("b-bg-slate-400","dark:b-bg-slate-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_400 { get; set; } = new("bg-slate-400","dark:bg-slate-600"); </v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_400 { get; set; } = new("b-border-slate-400","dark:b-border-slate-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_400 { get; set; } = new("border-slate-400","dark:border-slate-600"); </v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_400 { get; set; } = new("b-divide-slate-400","dark:b-divide-slate-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_400 { get; set; } = new("divide-slate-400","dark:divide-slate-600"); </v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_400 { get; set; } = new("b-outline-slate-400","dark:b-outline-slate-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_400 { get; set; } = new("outline-slate-400","dark:outline-slate-600"); </v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_400 { get; set; } = new("b-ring-slate-400","dark:b-ring-slate-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_400 { get; set; } = new("ring-slate-400","dark:ring-slate-600"); </v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_400 { get; set; } = new("b-accent-slate-400","dark:b-accent-slate-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_400 { get; set; } = new("accent-slate-400","dark:accent-slate-600"); </v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_400 { get; set; } = new("b-caret-slate-400","dark:b-caret-slate-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_400 { get; set; } = new("caret-slate-400","dark:caret-slate-600"); </v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20:J20" si="21">I11</f>
@@ -1627,35 +1628,35 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_500 { get; set; } = new("b-text-slate-500","dark:b-text-slate-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_500 { get; set; } = new("text-slate-500","dark:text-slate-500"); </v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_500 { get; set; } = new("b-bg-slate-500","dark:b-bg-slate-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_500 { get; set; } = new("bg-slate-500","dark:bg-slate-500"); </v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_500 { get; set; } = new("b-border-slate-500","dark:b-border-slate-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_500 { get; set; } = new("border-slate-500","dark:border-slate-500"); </v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_500 { get; set; } = new("b-divide-slate-500","dark:b-divide-slate-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_500 { get; set; } = new("divide-slate-500","dark:divide-slate-500"); </v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_500 { get; set; } = new("b-outline-slate-500","dark:b-outline-slate-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_500 { get; set; } = new("outline-slate-500","dark:outline-slate-500"); </v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_500 { get; set; } = new("b-ring-slate-500","dark:b-ring-slate-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_500 { get; set; } = new("ring-slate-500","dark:ring-slate-500"); </v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_500 { get; set; } = new("b-accent-slate-500","dark:b-accent-slate-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_500 { get; set; } = new("accent-slate-500","dark:accent-slate-500"); </v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_500 { get; set; } = new("b-caret-slate-500","dark:b-caret-slate-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_500 { get; set; } = new("caret-slate-500","dark:caret-slate-500"); </v>
       </c>
       <c r="I21">
         <f t="shared" ref="I21:J21" si="22">I12</f>
@@ -1696,35 +1697,35 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_600 { get; set; } = new("b-text-slate-600","dark:b-text-slate-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_600 { get; set; } = new("text-slate-600","dark:text-slate-400"); </v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_600 { get; set; } = new("b-bg-slate-600","dark:b-bg-slate-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_600 { get; set; } = new("bg-slate-600","dark:bg-slate-400"); </v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_600 { get; set; } = new("b-border-slate-600","dark:b-border-slate-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_600 { get; set; } = new("border-slate-600","dark:border-slate-400"); </v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_600 { get; set; } = new("b-divide-slate-600","dark:b-divide-slate-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_600 { get; set; } = new("divide-slate-600","dark:divide-slate-400"); </v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_600 { get; set; } = new("b-outline-slate-600","dark:b-outline-slate-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_600 { get; set; } = new("outline-slate-600","dark:outline-slate-400"); </v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_600 { get; set; } = new("b-ring-slate-600","dark:b-ring-slate-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_600 { get; set; } = new("ring-slate-600","dark:ring-slate-400"); </v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_600 { get; set; } = new("b-accent-slate-600","dark:b-accent-slate-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_600 { get; set; } = new("accent-slate-600","dark:accent-slate-400"); </v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_600 { get; set; } = new("b-caret-slate-600","dark:b-caret-slate-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_600 { get; set; } = new("caret-slate-600","dark:caret-slate-400"); </v>
       </c>
       <c r="I22">
         <f t="shared" ref="I22:J22" si="23">I13</f>
@@ -1765,35 +1766,35 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_700 { get; set; } = new("b-text-slate-700","dark:b-text-slate-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_700 { get; set; } = new("text-slate-700","dark:text-slate-300"); </v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_700 { get; set; } = new("b-bg-slate-700","dark:b-bg-slate-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_700 { get; set; } = new("bg-slate-700","dark:bg-slate-300"); </v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_700 { get; set; } = new("b-border-slate-700","dark:b-border-slate-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_700 { get; set; } = new("border-slate-700","dark:border-slate-300"); </v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_700 { get; set; } = new("b-divide-slate-700","dark:b-divide-slate-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_700 { get; set; } = new("divide-slate-700","dark:divide-slate-300"); </v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_700 { get; set; } = new("b-outline-slate-700","dark:b-outline-slate-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_700 { get; set; } = new("outline-slate-700","dark:outline-slate-300"); </v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_700 { get; set; } = new("b-ring-slate-700","dark:b-ring-slate-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_700 { get; set; } = new("ring-slate-700","dark:ring-slate-300"); </v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_700 { get; set; } = new("b-accent-slate-700","dark:b-accent-slate-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_700 { get; set; } = new("accent-slate-700","dark:accent-slate-300"); </v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_700 { get; set; } = new("b-caret-slate-700","dark:b-caret-slate-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_700 { get; set; } = new("caret-slate-700","dark:caret-slate-300"); </v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:J23" si="24">I14</f>
@@ -1834,35 +1835,35 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_800 { get; set; } = new("b-text-slate-800","dark:b-text-slate-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_800 { get; set; } = new("text-slate-800","dark:text-slate-200"); </v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_800 { get; set; } = new("b-bg-slate-800","dark:b-bg-slate-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_800 { get; set; } = new("bg-slate-800","dark:bg-slate-200"); </v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_800 { get; set; } = new("b-border-slate-800","dark:b-border-slate-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_800 { get; set; } = new("border-slate-800","dark:border-slate-200"); </v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_800 { get; set; } = new("b-divide-slate-800","dark:b-divide-slate-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_800 { get; set; } = new("divide-slate-800","dark:divide-slate-200"); </v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_800 { get; set; } = new("b-outline-slate-800","dark:b-outline-slate-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_800 { get; set; } = new("outline-slate-800","dark:outline-slate-200"); </v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_800 { get; set; } = new("b-ring-slate-800","dark:b-ring-slate-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_800 { get; set; } = new("ring-slate-800","dark:ring-slate-200"); </v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_800 { get; set; } = new("b-accent-slate-800","dark:b-accent-slate-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_800 { get; set; } = new("accent-slate-800","dark:accent-slate-200"); </v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_800 { get; set; } = new("b-caret-slate-800","dark:b-caret-slate-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_800 { get; set; } = new("caret-slate-800","dark:caret-slate-200"); </v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24:J24" si="25">I15</f>
@@ -1903,35 +1904,35 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Slate_900 { get; set; } = new("b-text-slate-900","dark:b-text-slate-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Slate_900 { get; set; } = new("text-slate-900","dark:text-slate-100"); </v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Slate_900 { get; set; } = new("b-bg-slate-900","dark:b-bg-slate-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Slate_900 { get; set; } = new("bg-slate-900","dark:bg-slate-100"); </v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Slate_900 { get; set; } = new("b-border-slate-900","dark:b-border-slate-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Slate_900 { get; set; } = new("border-slate-900","dark:border-slate-100"); </v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Slate_900 { get; set; } = new("b-divide-slate-900","dark:b-divide-slate-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Slate_900 { get; set; } = new("divide-slate-900","dark:divide-slate-100"); </v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Slate_900 { get; set; } = new("b-outline-slate-900","dark:b-outline-slate-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Slate_900 { get; set; } = new("outline-slate-900","dark:outline-slate-100"); </v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Slate_900 { get; set; } = new("b-ring-slate-900","dark:b-ring-slate-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Slate_900 { get; set; } = new("ring-slate-900","dark:ring-slate-100"); </v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Slate_900 { get; set; } = new("b-accent-slate-900","dark:b-accent-slate-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Slate_900 { get; set; } = new("accent-slate-900","dark:accent-slate-100"); </v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Slate_900 { get; set; } = new("b-caret-slate-900","dark:b-caret-slate-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Slate_900 { get; set; } = new("caret-slate-900","dark:caret-slate-100"); </v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:J25" si="26">I16</f>
@@ -1972,35 +1973,35 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_100 { get; set; } = new("b-text-red-100","dark:b-text-red-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_100 { get; set; } = new("text-red-100","dark:text-red-900"); </v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_100 { get; set; } = new("b-bg-red-100","dark:b-bg-red-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_100 { get; set; } = new("bg-red-100","dark:bg-red-900"); </v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_100 { get; set; } = new("b-border-red-100","dark:b-border-red-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_100 { get; set; } = new("border-red-100","dark:border-red-900"); </v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_100 { get; set; } = new("b-divide-red-100","dark:b-divide-red-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_100 { get; set; } = new("divide-red-100","dark:divide-red-900"); </v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_100 { get; set; } = new("b-outline-red-100","dark:b-outline-red-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_100 { get; set; } = new("outline-red-100","dark:outline-red-900"); </v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_100 { get; set; } = new("b-ring-red-100","dark:b-ring-red-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_100 { get; set; } = new("ring-red-100","dark:ring-red-900"); </v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_100 { get; set; } = new("b-accent-red-100","dark:b-accent-red-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_100 { get; set; } = new("accent-red-100","dark:accent-red-900"); </v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_100 { get; set; } = new("b-caret-red-100","dark:b-caret-red-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_100 { get; set; } = new("caret-red-100","dark:caret-red-900"); </v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:J26" si="27">I17</f>
@@ -2041,35 +2042,35 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_200 { get; set; } = new("b-text-red-200","dark:b-text-red-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_200 { get; set; } = new("text-red-200","dark:text-red-800"); </v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_200 { get; set; } = new("b-bg-red-200","dark:b-bg-red-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_200 { get; set; } = new("bg-red-200","dark:bg-red-800"); </v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_200 { get; set; } = new("b-border-red-200","dark:b-border-red-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_200 { get; set; } = new("border-red-200","dark:border-red-800"); </v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_200 { get; set; } = new("b-divide-red-200","dark:b-divide-red-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_200 { get; set; } = new("divide-red-200","dark:divide-red-800"); </v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_200 { get; set; } = new("b-outline-red-200","dark:b-outline-red-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_200 { get; set; } = new("outline-red-200","dark:outline-red-800"); </v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_200 { get; set; } = new("b-ring-red-200","dark:b-ring-red-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_200 { get; set; } = new("ring-red-200","dark:ring-red-800"); </v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_200 { get; set; } = new("b-accent-red-200","dark:b-accent-red-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_200 { get; set; } = new("accent-red-200","dark:accent-red-800"); </v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_200 { get; set; } = new("b-caret-red-200","dark:b-caret-red-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_200 { get; set; } = new("caret-red-200","dark:caret-red-800"); </v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27:J27" si="28">I18</f>
@@ -2110,35 +2111,35 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_300 { get; set; } = new("b-text-red-300","dark:b-text-red-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_300 { get; set; } = new("text-red-300","dark:text-red-700"); </v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_300 { get; set; } = new("b-bg-red-300","dark:b-bg-red-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_300 { get; set; } = new("bg-red-300","dark:bg-red-700"); </v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_300 { get; set; } = new("b-border-red-300","dark:b-border-red-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_300 { get; set; } = new("border-red-300","dark:border-red-700"); </v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_300 { get; set; } = new("b-divide-red-300","dark:b-divide-red-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_300 { get; set; } = new("divide-red-300","dark:divide-red-700"); </v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_300 { get; set; } = new("b-outline-red-300","dark:b-outline-red-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_300 { get; set; } = new("outline-red-300","dark:outline-red-700"); </v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_300 { get; set; } = new("b-ring-red-300","dark:b-ring-red-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_300 { get; set; } = new("ring-red-300","dark:ring-red-700"); </v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_300 { get; set; } = new("b-accent-red-300","dark:b-accent-red-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_300 { get; set; } = new("accent-red-300","dark:accent-red-700"); </v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_300 { get; set; } = new("b-caret-red-300","dark:b-caret-red-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_300 { get; set; } = new("caret-red-300","dark:caret-red-700"); </v>
       </c>
       <c r="I28">
         <f t="shared" ref="I28:J28" si="29">I19</f>
@@ -2179,35 +2180,35 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_400 { get; set; } = new("b-text-red-400","dark:b-text-red-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_400 { get; set; } = new("text-red-400","dark:text-red-600"); </v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_400 { get; set; } = new("b-bg-red-400","dark:b-bg-red-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_400 { get; set; } = new("bg-red-400","dark:bg-red-600"); </v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_400 { get; set; } = new("b-border-red-400","dark:b-border-red-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_400 { get; set; } = new("border-red-400","dark:border-red-600"); </v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_400 { get; set; } = new("b-divide-red-400","dark:b-divide-red-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_400 { get; set; } = new("divide-red-400","dark:divide-red-600"); </v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_400 { get; set; } = new("b-outline-red-400","dark:b-outline-red-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_400 { get; set; } = new("outline-red-400","dark:outline-red-600"); </v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_400 { get; set; } = new("b-ring-red-400","dark:b-ring-red-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_400 { get; set; } = new("ring-red-400","dark:ring-red-600"); </v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_400 { get; set; } = new("b-accent-red-400","dark:b-accent-red-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_400 { get; set; } = new("accent-red-400","dark:accent-red-600"); </v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_400 { get; set; } = new("b-caret-red-400","dark:b-caret-red-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_400 { get; set; } = new("caret-red-400","dark:caret-red-600"); </v>
       </c>
       <c r="I29">
         <f t="shared" ref="I29:J29" si="30">I20</f>
@@ -2248,35 +2249,35 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_500 { get; set; } = new("b-text-red-500","dark:b-text-red-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_500 { get; set; } = new("text-red-500","dark:text-red-500"); </v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_500 { get; set; } = new("b-bg-red-500","dark:b-bg-red-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_500 { get; set; } = new("bg-red-500","dark:bg-red-500"); </v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_500 { get; set; } = new("b-border-red-500","dark:b-border-red-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_500 { get; set; } = new("border-red-500","dark:border-red-500"); </v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_500 { get; set; } = new("b-divide-red-500","dark:b-divide-red-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_500 { get; set; } = new("divide-red-500","dark:divide-red-500"); </v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_500 { get; set; } = new("b-outline-red-500","dark:b-outline-red-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_500 { get; set; } = new("outline-red-500","dark:outline-red-500"); </v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_500 { get; set; } = new("b-ring-red-500","dark:b-ring-red-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_500 { get; set; } = new("ring-red-500","dark:ring-red-500"); </v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_500 { get; set; } = new("b-accent-red-500","dark:b-accent-red-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_500 { get; set; } = new("accent-red-500","dark:accent-red-500"); </v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_500 { get; set; } = new("b-caret-red-500","dark:b-caret-red-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_500 { get; set; } = new("caret-red-500","dark:caret-red-500"); </v>
       </c>
       <c r="I30">
         <f t="shared" ref="I30:J30" si="31">I21</f>
@@ -2317,35 +2318,35 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_600 { get; set; } = new("b-text-red-600","dark:b-text-red-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_600 { get; set; } = new("text-red-600","dark:text-red-400"); </v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_600 { get; set; } = new("b-bg-red-600","dark:b-bg-red-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_600 { get; set; } = new("bg-red-600","dark:bg-red-400"); </v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_600 { get; set; } = new("b-border-red-600","dark:b-border-red-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_600 { get; set; } = new("border-red-600","dark:border-red-400"); </v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_600 { get; set; } = new("b-divide-red-600","dark:b-divide-red-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_600 { get; set; } = new("divide-red-600","dark:divide-red-400"); </v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_600 { get; set; } = new("b-outline-red-600","dark:b-outline-red-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_600 { get; set; } = new("outline-red-600","dark:outline-red-400"); </v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_600 { get; set; } = new("b-ring-red-600","dark:b-ring-red-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_600 { get; set; } = new("ring-red-600","dark:ring-red-400"); </v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_600 { get; set; } = new("b-accent-red-600","dark:b-accent-red-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_600 { get; set; } = new("accent-red-600","dark:accent-red-400"); </v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_600 { get; set; } = new("b-caret-red-600","dark:b-caret-red-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_600 { get; set; } = new("caret-red-600","dark:caret-red-400"); </v>
       </c>
       <c r="I31">
         <f t="shared" ref="I31:J31" si="32">I22</f>
@@ -2386,35 +2387,35 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_700 { get; set; } = new("b-text-red-700","dark:b-text-red-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_700 { get; set; } = new("text-red-700","dark:text-red-300"); </v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_700 { get; set; } = new("b-bg-red-700","dark:b-bg-red-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_700 { get; set; } = new("bg-red-700","dark:bg-red-300"); </v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_700 { get; set; } = new("b-border-red-700","dark:b-border-red-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_700 { get; set; } = new("border-red-700","dark:border-red-300"); </v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_700 { get; set; } = new("b-divide-red-700","dark:b-divide-red-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_700 { get; set; } = new("divide-red-700","dark:divide-red-300"); </v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_700 { get; set; } = new("b-outline-red-700","dark:b-outline-red-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_700 { get; set; } = new("outline-red-700","dark:outline-red-300"); </v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_700 { get; set; } = new("b-ring-red-700","dark:b-ring-red-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_700 { get; set; } = new("ring-red-700","dark:ring-red-300"); </v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_700 { get; set; } = new("b-accent-red-700","dark:b-accent-red-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_700 { get; set; } = new("accent-red-700","dark:accent-red-300"); </v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_700 { get; set; } = new("b-caret-red-700","dark:b-caret-red-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_700 { get; set; } = new("caret-red-700","dark:caret-red-300"); </v>
       </c>
       <c r="I32">
         <f t="shared" ref="I32:J32" si="33">I23</f>
@@ -2455,35 +2456,35 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_800 { get; set; } = new("b-text-red-800","dark:b-text-red-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_800 { get; set; } = new("text-red-800","dark:text-red-200"); </v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_800 { get; set; } = new("b-bg-red-800","dark:b-bg-red-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_800 { get; set; } = new("bg-red-800","dark:bg-red-200"); </v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_800 { get; set; } = new("b-border-red-800","dark:b-border-red-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_800 { get; set; } = new("border-red-800","dark:border-red-200"); </v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_800 { get; set; } = new("b-divide-red-800","dark:b-divide-red-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_800 { get; set; } = new("divide-red-800","dark:divide-red-200"); </v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_800 { get; set; } = new("b-outline-red-800","dark:b-outline-red-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_800 { get; set; } = new("outline-red-800","dark:outline-red-200"); </v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_800 { get; set; } = new("b-ring-red-800","dark:b-ring-red-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_800 { get; set; } = new("ring-red-800","dark:ring-red-200"); </v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_800 { get; set; } = new("b-accent-red-800","dark:b-accent-red-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_800 { get; set; } = new("accent-red-800","dark:accent-red-200"); </v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_800 { get; set; } = new("b-caret-red-800","dark:b-caret-red-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_800 { get; set; } = new("caret-red-800","dark:caret-red-200"); </v>
       </c>
       <c r="I33">
         <f t="shared" ref="I33:J33" si="34">I24</f>
@@ -2524,35 +2525,35 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Red_900 { get; set; } = new("b-text-red-900","dark:b-text-red-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Red_900 { get; set; } = new("text-red-900","dark:text-red-100"); </v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Red_900 { get; set; } = new("b-bg-red-900","dark:b-bg-red-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Red_900 { get; set; } = new("bg-red-900","dark:bg-red-100"); </v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Red_900 { get; set; } = new("b-border-red-900","dark:b-border-red-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Red_900 { get; set; } = new("border-red-900","dark:border-red-100"); </v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Red_900 { get; set; } = new("b-divide-red-900","dark:b-divide-red-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Red_900 { get; set; } = new("divide-red-900","dark:divide-red-100"); </v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Red_900 { get; set; } = new("b-outline-red-900","dark:b-outline-red-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Red_900 { get; set; } = new("outline-red-900","dark:outline-red-100"); </v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Red_900 { get; set; } = new("b-ring-red-900","dark:b-ring-red-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Red_900 { get; set; } = new("ring-red-900","dark:ring-red-100"); </v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Red_900 { get; set; } = new("b-accent-red-900","dark:b-accent-red-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Red_900 { get; set; } = new("accent-red-900","dark:accent-red-100"); </v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Red_900 { get; set; } = new("b-caret-red-900","dark:b-caret-red-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Red_900 { get; set; } = new("caret-red-900","dark:caret-red-100"); </v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:J34" si="35">I25</f>
@@ -2593,35 +2594,35 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_100 { get; set; } = new("b-text-orange-100","dark:b-text-orange-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_100 { get; set; } = new("text-orange-100","dark:text-orange-900"); </v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_100 { get; set; } = new("b-bg-orange-100","dark:b-bg-orange-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_100 { get; set; } = new("bg-orange-100","dark:bg-orange-900"); </v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_100 { get; set; } = new("b-border-orange-100","dark:b-border-orange-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_100 { get; set; } = new("border-orange-100","dark:border-orange-900"); </v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_100 { get; set; } = new("b-divide-orange-100","dark:b-divide-orange-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_100 { get; set; } = new("divide-orange-100","dark:divide-orange-900"); </v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_100 { get; set; } = new("b-outline-orange-100","dark:b-outline-orange-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_100 { get; set; } = new("outline-orange-100","dark:outline-orange-900"); </v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_100 { get; set; } = new("b-ring-orange-100","dark:b-ring-orange-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_100 { get; set; } = new("ring-orange-100","dark:ring-orange-900"); </v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_100 { get; set; } = new("b-accent-orange-100","dark:b-accent-orange-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_100 { get; set; } = new("accent-orange-100","dark:accent-orange-900"); </v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_100 { get; set; } = new("b-caret-orange-100","dark:b-caret-orange-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_100 { get; set; } = new("caret-orange-100","dark:caret-orange-900"); </v>
       </c>
       <c r="I35">
         <f t="shared" ref="I35:J35" si="36">I26</f>
@@ -2662,35 +2663,35 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_200 { get; set; } = new("b-text-orange-200","dark:b-text-orange-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_200 { get; set; } = new("text-orange-200","dark:text-orange-800"); </v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_200 { get; set; } = new("b-bg-orange-200","dark:b-bg-orange-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_200 { get; set; } = new("bg-orange-200","dark:bg-orange-800"); </v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_200 { get; set; } = new("b-border-orange-200","dark:b-border-orange-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_200 { get; set; } = new("border-orange-200","dark:border-orange-800"); </v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_200 { get; set; } = new("b-divide-orange-200","dark:b-divide-orange-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_200 { get; set; } = new("divide-orange-200","dark:divide-orange-800"); </v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_200 { get; set; } = new("b-outline-orange-200","dark:b-outline-orange-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_200 { get; set; } = new("outline-orange-200","dark:outline-orange-800"); </v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_200 { get; set; } = new("b-ring-orange-200","dark:b-ring-orange-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_200 { get; set; } = new("ring-orange-200","dark:ring-orange-800"); </v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_200 { get; set; } = new("b-accent-orange-200","dark:b-accent-orange-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_200 { get; set; } = new("accent-orange-200","dark:accent-orange-800"); </v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_200 { get; set; } = new("b-caret-orange-200","dark:b-caret-orange-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_200 { get; set; } = new("caret-orange-200","dark:caret-orange-800"); </v>
       </c>
       <c r="I36">
         <f t="shared" ref="I36:J36" si="37">I27</f>
@@ -2731,35 +2732,35 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_300 { get; set; } = new("b-text-orange-300","dark:b-text-orange-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_300 { get; set; } = new("text-orange-300","dark:text-orange-700"); </v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_300 { get; set; } = new("b-bg-orange-300","dark:b-bg-orange-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_300 { get; set; } = new("bg-orange-300","dark:bg-orange-700"); </v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_300 { get; set; } = new("b-border-orange-300","dark:b-border-orange-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_300 { get; set; } = new("border-orange-300","dark:border-orange-700"); </v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_300 { get; set; } = new("b-divide-orange-300","dark:b-divide-orange-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_300 { get; set; } = new("divide-orange-300","dark:divide-orange-700"); </v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_300 { get; set; } = new("b-outline-orange-300","dark:b-outline-orange-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_300 { get; set; } = new("outline-orange-300","dark:outline-orange-700"); </v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_300 { get; set; } = new("b-ring-orange-300","dark:b-ring-orange-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_300 { get; set; } = new("ring-orange-300","dark:ring-orange-700"); </v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_300 { get; set; } = new("b-accent-orange-300","dark:b-accent-orange-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_300 { get; set; } = new("accent-orange-300","dark:accent-orange-700"); </v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_300 { get; set; } = new("b-caret-orange-300","dark:b-caret-orange-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_300 { get; set; } = new("caret-orange-300","dark:caret-orange-700"); </v>
       </c>
       <c r="I37">
         <f t="shared" ref="I37:J37" si="38">I28</f>
@@ -2800,35 +2801,35 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_400 { get; set; } = new("b-text-orange-400","dark:b-text-orange-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_400 { get; set; } = new("text-orange-400","dark:text-orange-600"); </v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_400 { get; set; } = new("b-bg-orange-400","dark:b-bg-orange-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_400 { get; set; } = new("bg-orange-400","dark:bg-orange-600"); </v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_400 { get; set; } = new("b-border-orange-400","dark:b-border-orange-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_400 { get; set; } = new("border-orange-400","dark:border-orange-600"); </v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_400 { get; set; } = new("b-divide-orange-400","dark:b-divide-orange-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_400 { get; set; } = new("divide-orange-400","dark:divide-orange-600"); </v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_400 { get; set; } = new("b-outline-orange-400","dark:b-outline-orange-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_400 { get; set; } = new("outline-orange-400","dark:outline-orange-600"); </v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_400 { get; set; } = new("b-ring-orange-400","dark:b-ring-orange-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_400 { get; set; } = new("ring-orange-400","dark:ring-orange-600"); </v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_400 { get; set; } = new("b-accent-orange-400","dark:b-accent-orange-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_400 { get; set; } = new("accent-orange-400","dark:accent-orange-600"); </v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_400 { get; set; } = new("b-caret-orange-400","dark:b-caret-orange-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_400 { get; set; } = new("caret-orange-400","dark:caret-orange-600"); </v>
       </c>
       <c r="I38">
         <f t="shared" ref="I38:J38" si="39">I29</f>
@@ -2869,35 +2870,35 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_500 { get; set; } = new("b-text-orange-500","dark:b-text-orange-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_500 { get; set; } = new("text-orange-500","dark:text-orange-500"); </v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_500 { get; set; } = new("b-bg-orange-500","dark:b-bg-orange-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_500 { get; set; } = new("bg-orange-500","dark:bg-orange-500"); </v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_500 { get; set; } = new("b-border-orange-500","dark:b-border-orange-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_500 { get; set; } = new("border-orange-500","dark:border-orange-500"); </v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_500 { get; set; } = new("b-divide-orange-500","dark:b-divide-orange-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_500 { get; set; } = new("divide-orange-500","dark:divide-orange-500"); </v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_500 { get; set; } = new("b-outline-orange-500","dark:b-outline-orange-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_500 { get; set; } = new("outline-orange-500","dark:outline-orange-500"); </v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_500 { get; set; } = new("b-ring-orange-500","dark:b-ring-orange-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_500 { get; set; } = new("ring-orange-500","dark:ring-orange-500"); </v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_500 { get; set; } = new("b-accent-orange-500","dark:b-accent-orange-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_500 { get; set; } = new("accent-orange-500","dark:accent-orange-500"); </v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_500 { get; set; } = new("b-caret-orange-500","dark:b-caret-orange-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_500 { get; set; } = new("caret-orange-500","dark:caret-orange-500"); </v>
       </c>
       <c r="I39">
         <f t="shared" ref="I39:J39" si="40">I30</f>
@@ -2938,35 +2939,35 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_600 { get; set; } = new("b-text-orange-600","dark:b-text-orange-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_600 { get; set; } = new("text-orange-600","dark:text-orange-400"); </v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_600 { get; set; } = new("b-bg-orange-600","dark:b-bg-orange-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_600 { get; set; } = new("bg-orange-600","dark:bg-orange-400"); </v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_600 { get; set; } = new("b-border-orange-600","dark:b-border-orange-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_600 { get; set; } = new("border-orange-600","dark:border-orange-400"); </v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_600 { get; set; } = new("b-divide-orange-600","dark:b-divide-orange-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_600 { get; set; } = new("divide-orange-600","dark:divide-orange-400"); </v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_600 { get; set; } = new("b-outline-orange-600","dark:b-outline-orange-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_600 { get; set; } = new("outline-orange-600","dark:outline-orange-400"); </v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_600 { get; set; } = new("b-ring-orange-600","dark:b-ring-orange-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_600 { get; set; } = new("ring-orange-600","dark:ring-orange-400"); </v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_600 { get; set; } = new("b-accent-orange-600","dark:b-accent-orange-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_600 { get; set; } = new("accent-orange-600","dark:accent-orange-400"); </v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_600 { get; set; } = new("b-caret-orange-600","dark:b-caret-orange-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_600 { get; set; } = new("caret-orange-600","dark:caret-orange-400"); </v>
       </c>
       <c r="I40">
         <f t="shared" ref="I40:J40" si="41">I31</f>
@@ -3007,35 +3008,35 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_700 { get; set; } = new("b-text-orange-700","dark:b-text-orange-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_700 { get; set; } = new("text-orange-700","dark:text-orange-300"); </v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_700 { get; set; } = new("b-bg-orange-700","dark:b-bg-orange-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_700 { get; set; } = new("bg-orange-700","dark:bg-orange-300"); </v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_700 { get; set; } = new("b-border-orange-700","dark:b-border-orange-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_700 { get; set; } = new("border-orange-700","dark:border-orange-300"); </v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_700 { get; set; } = new("b-divide-orange-700","dark:b-divide-orange-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_700 { get; set; } = new("divide-orange-700","dark:divide-orange-300"); </v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_700 { get; set; } = new("b-outline-orange-700","dark:b-outline-orange-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_700 { get; set; } = new("outline-orange-700","dark:outline-orange-300"); </v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_700 { get; set; } = new("b-ring-orange-700","dark:b-ring-orange-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_700 { get; set; } = new("ring-orange-700","dark:ring-orange-300"); </v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_700 { get; set; } = new("b-accent-orange-700","dark:b-accent-orange-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_700 { get; set; } = new("accent-orange-700","dark:accent-orange-300"); </v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_700 { get; set; } = new("b-caret-orange-700","dark:b-caret-orange-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_700 { get; set; } = new("caret-orange-700","dark:caret-orange-300"); </v>
       </c>
       <c r="I41">
         <f t="shared" ref="I41:J41" si="42">I32</f>
@@ -3076,35 +3077,35 @@
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_800 { get; set; } = new("b-text-orange-800","dark:b-text-orange-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_800 { get; set; } = new("text-orange-800","dark:text-orange-200"); </v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_800 { get; set; } = new("b-bg-orange-800","dark:b-bg-orange-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_800 { get; set; } = new("bg-orange-800","dark:bg-orange-200"); </v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_800 { get; set; } = new("b-border-orange-800","dark:b-border-orange-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_800 { get; set; } = new("border-orange-800","dark:border-orange-200"); </v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_800 { get; set; } = new("b-divide-orange-800","dark:b-divide-orange-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_800 { get; set; } = new("divide-orange-800","dark:divide-orange-200"); </v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_800 { get; set; } = new("b-outline-orange-800","dark:b-outline-orange-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_800 { get; set; } = new("outline-orange-800","dark:outline-orange-200"); </v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_800 { get; set; } = new("b-ring-orange-800","dark:b-ring-orange-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_800 { get; set; } = new("ring-orange-800","dark:ring-orange-200"); </v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_800 { get; set; } = new("b-accent-orange-800","dark:b-accent-orange-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_800 { get; set; } = new("accent-orange-800","dark:accent-orange-200"); </v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_800 { get; set; } = new("b-caret-orange-800","dark:b-caret-orange-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_800 { get; set; } = new("caret-orange-800","dark:caret-orange-200"); </v>
       </c>
       <c r="I42">
         <f t="shared" ref="I42:J42" si="43">I33</f>
@@ -3145,35 +3146,35 @@
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Orange_900 { get; set; } = new("b-text-orange-900","dark:b-text-orange-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Orange_900 { get; set; } = new("text-orange-900","dark:text-orange-100"); </v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Orange_900 { get; set; } = new("b-bg-orange-900","dark:b-bg-orange-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Orange_900 { get; set; } = new("bg-orange-900","dark:bg-orange-100"); </v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Orange_900 { get; set; } = new("b-border-orange-900","dark:b-border-orange-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Orange_900 { get; set; } = new("border-orange-900","dark:border-orange-100"); </v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Orange_900 { get; set; } = new("b-divide-orange-900","dark:b-divide-orange-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Orange_900 { get; set; } = new("divide-orange-900","dark:divide-orange-100"); </v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Orange_900 { get; set; } = new("b-outline-orange-900","dark:b-outline-orange-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Orange_900 { get; set; } = new("outline-orange-900","dark:outline-orange-100"); </v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Orange_900 { get; set; } = new("b-ring-orange-900","dark:b-ring-orange-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Orange_900 { get; set; } = new("ring-orange-900","dark:ring-orange-100"); </v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Orange_900 { get; set; } = new("b-accent-orange-900","dark:b-accent-orange-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Orange_900 { get; set; } = new("accent-orange-900","dark:accent-orange-100"); </v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Orange_900 { get; set; } = new("b-caret-orange-900","dark:b-caret-orange-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Orange_900 { get; set; } = new("caret-orange-900","dark:caret-orange-100"); </v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43:J43" si="44">I34</f>
@@ -3214,35 +3215,35 @@
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_100 { get; set; } = new("b-text-amber-100","dark:b-text-amber-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_100 { get; set; } = new("text-amber-100","dark:text-amber-900"); </v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_100 { get; set; } = new("b-bg-amber-100","dark:b-bg-amber-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_100 { get; set; } = new("bg-amber-100","dark:bg-amber-900"); </v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_100 { get; set; } = new("b-border-amber-100","dark:b-border-amber-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_100 { get; set; } = new("border-amber-100","dark:border-amber-900"); </v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_100 { get; set; } = new("b-divide-amber-100","dark:b-divide-amber-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_100 { get; set; } = new("divide-amber-100","dark:divide-amber-900"); </v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_100 { get; set; } = new("b-outline-amber-100","dark:b-outline-amber-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_100 { get; set; } = new("outline-amber-100","dark:outline-amber-900"); </v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_100 { get; set; } = new("b-ring-amber-100","dark:b-ring-amber-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_100 { get; set; } = new("ring-amber-100","dark:ring-amber-900"); </v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_100 { get; set; } = new("b-accent-amber-100","dark:b-accent-amber-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_100 { get; set; } = new("accent-amber-100","dark:accent-amber-900"); </v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_100 { get; set; } = new("b-caret-amber-100","dark:b-caret-amber-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_100 { get; set; } = new("caret-amber-100","dark:caret-amber-900"); </v>
       </c>
       <c r="I44">
         <f t="shared" ref="I44:J44" si="45">I35</f>
@@ -3283,35 +3284,35 @@
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_200 { get; set; } = new("b-text-amber-200","dark:b-text-amber-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_200 { get; set; } = new("text-amber-200","dark:text-amber-800"); </v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_200 { get; set; } = new("b-bg-amber-200","dark:b-bg-amber-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_200 { get; set; } = new("bg-amber-200","dark:bg-amber-800"); </v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_200 { get; set; } = new("b-border-amber-200","dark:b-border-amber-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_200 { get; set; } = new("border-amber-200","dark:border-amber-800"); </v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_200 { get; set; } = new("b-divide-amber-200","dark:b-divide-amber-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_200 { get; set; } = new("divide-amber-200","dark:divide-amber-800"); </v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_200 { get; set; } = new("b-outline-amber-200","dark:b-outline-amber-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_200 { get; set; } = new("outline-amber-200","dark:outline-amber-800"); </v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_200 { get; set; } = new("b-ring-amber-200","dark:b-ring-amber-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_200 { get; set; } = new("ring-amber-200","dark:ring-amber-800"); </v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_200 { get; set; } = new("b-accent-amber-200","dark:b-accent-amber-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_200 { get; set; } = new("accent-amber-200","dark:accent-amber-800"); </v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_200 { get; set; } = new("b-caret-amber-200","dark:b-caret-amber-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_200 { get; set; } = new("caret-amber-200","dark:caret-amber-800"); </v>
       </c>
       <c r="I45">
         <f t="shared" ref="I45:J45" si="46">I36</f>
@@ -3352,35 +3353,35 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_300 { get; set; } = new("b-text-amber-300","dark:b-text-amber-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_300 { get; set; } = new("text-amber-300","dark:text-amber-700"); </v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_300 { get; set; } = new("b-bg-amber-300","dark:b-bg-amber-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_300 { get; set; } = new("bg-amber-300","dark:bg-amber-700"); </v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_300 { get; set; } = new("b-border-amber-300","dark:b-border-amber-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_300 { get; set; } = new("border-amber-300","dark:border-amber-700"); </v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_300 { get; set; } = new("b-divide-amber-300","dark:b-divide-amber-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_300 { get; set; } = new("divide-amber-300","dark:divide-amber-700"); </v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_300 { get; set; } = new("b-outline-amber-300","dark:b-outline-amber-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_300 { get; set; } = new("outline-amber-300","dark:outline-amber-700"); </v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_300 { get; set; } = new("b-ring-amber-300","dark:b-ring-amber-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_300 { get; set; } = new("ring-amber-300","dark:ring-amber-700"); </v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_300 { get; set; } = new("b-accent-amber-300","dark:b-accent-amber-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_300 { get; set; } = new("accent-amber-300","dark:accent-amber-700"); </v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_300 { get; set; } = new("b-caret-amber-300","dark:b-caret-amber-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_300 { get; set; } = new("caret-amber-300","dark:caret-amber-700"); </v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46:J46" si="47">I37</f>
@@ -3421,35 +3422,35 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_400 { get; set; } = new("b-text-amber-400","dark:b-text-amber-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_400 { get; set; } = new("text-amber-400","dark:text-amber-600"); </v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_400 { get; set; } = new("b-bg-amber-400","dark:b-bg-amber-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_400 { get; set; } = new("bg-amber-400","dark:bg-amber-600"); </v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_400 { get; set; } = new("b-border-amber-400","dark:b-border-amber-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_400 { get; set; } = new("border-amber-400","dark:border-amber-600"); </v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_400 { get; set; } = new("b-divide-amber-400","dark:b-divide-amber-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_400 { get; set; } = new("divide-amber-400","dark:divide-amber-600"); </v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_400 { get; set; } = new("b-outline-amber-400","dark:b-outline-amber-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_400 { get; set; } = new("outline-amber-400","dark:outline-amber-600"); </v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_400 { get; set; } = new("b-ring-amber-400","dark:b-ring-amber-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_400 { get; set; } = new("ring-amber-400","dark:ring-amber-600"); </v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_400 { get; set; } = new("b-accent-amber-400","dark:b-accent-amber-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_400 { get; set; } = new("accent-amber-400","dark:accent-amber-600"); </v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_400 { get; set; } = new("b-caret-amber-400","dark:b-caret-amber-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_400 { get; set; } = new("caret-amber-400","dark:caret-amber-600"); </v>
       </c>
       <c r="I47">
         <f t="shared" ref="I47:J47" si="48">I38</f>
@@ -3490,35 +3491,35 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_500 { get; set; } = new("b-text-amber-500","dark:b-text-amber-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_500 { get; set; } = new("text-amber-500","dark:text-amber-500"); </v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_500 { get; set; } = new("b-bg-amber-500","dark:b-bg-amber-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_500 { get; set; } = new("bg-amber-500","dark:bg-amber-500"); </v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_500 { get; set; } = new("b-border-amber-500","dark:b-border-amber-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_500 { get; set; } = new("border-amber-500","dark:border-amber-500"); </v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_500 { get; set; } = new("b-divide-amber-500","dark:b-divide-amber-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_500 { get; set; } = new("divide-amber-500","dark:divide-amber-500"); </v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_500 { get; set; } = new("b-outline-amber-500","dark:b-outline-amber-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_500 { get; set; } = new("outline-amber-500","dark:outline-amber-500"); </v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_500 { get; set; } = new("b-ring-amber-500","dark:b-ring-amber-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_500 { get; set; } = new("ring-amber-500","dark:ring-amber-500"); </v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_500 { get; set; } = new("b-accent-amber-500","dark:b-accent-amber-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_500 { get; set; } = new("accent-amber-500","dark:accent-amber-500"); </v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_500 { get; set; } = new("b-caret-amber-500","dark:b-caret-amber-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_500 { get; set; } = new("caret-amber-500","dark:caret-amber-500"); </v>
       </c>
       <c r="I48">
         <f t="shared" ref="I48:J48" si="49">I39</f>
@@ -3559,35 +3560,35 @@
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_600 { get; set; } = new("b-text-amber-600","dark:b-text-amber-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_600 { get; set; } = new("text-amber-600","dark:text-amber-400"); </v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_600 { get; set; } = new("b-bg-amber-600","dark:b-bg-amber-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_600 { get; set; } = new("bg-amber-600","dark:bg-amber-400"); </v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_600 { get; set; } = new("b-border-amber-600","dark:b-border-amber-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_600 { get; set; } = new("border-amber-600","dark:border-amber-400"); </v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_600 { get; set; } = new("b-divide-amber-600","dark:b-divide-amber-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_600 { get; set; } = new("divide-amber-600","dark:divide-amber-400"); </v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_600 { get; set; } = new("b-outline-amber-600","dark:b-outline-amber-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_600 { get; set; } = new("outline-amber-600","dark:outline-amber-400"); </v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_600 { get; set; } = new("b-ring-amber-600","dark:b-ring-amber-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_600 { get; set; } = new("ring-amber-600","dark:ring-amber-400"); </v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_600 { get; set; } = new("b-accent-amber-600","dark:b-accent-amber-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_600 { get; set; } = new("accent-amber-600","dark:accent-amber-400"); </v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_600 { get; set; } = new("b-caret-amber-600","dark:b-caret-amber-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_600 { get; set; } = new("caret-amber-600","dark:caret-amber-400"); </v>
       </c>
       <c r="I49">
         <f t="shared" ref="I49:J49" si="50">I40</f>
@@ -3628,35 +3629,35 @@
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_700 { get; set; } = new("b-text-amber-700","dark:b-text-amber-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_700 { get; set; } = new("text-amber-700","dark:text-amber-300"); </v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_700 { get; set; } = new("b-bg-amber-700","dark:b-bg-amber-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_700 { get; set; } = new("bg-amber-700","dark:bg-amber-300"); </v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_700 { get; set; } = new("b-border-amber-700","dark:b-border-amber-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_700 { get; set; } = new("border-amber-700","dark:border-amber-300"); </v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_700 { get; set; } = new("b-divide-amber-700","dark:b-divide-amber-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_700 { get; set; } = new("divide-amber-700","dark:divide-amber-300"); </v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_700 { get; set; } = new("b-outline-amber-700","dark:b-outline-amber-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_700 { get; set; } = new("outline-amber-700","dark:outline-amber-300"); </v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_700 { get; set; } = new("b-ring-amber-700","dark:b-ring-amber-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_700 { get; set; } = new("ring-amber-700","dark:ring-amber-300"); </v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_700 { get; set; } = new("b-accent-amber-700","dark:b-accent-amber-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_700 { get; set; } = new("accent-amber-700","dark:accent-amber-300"); </v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_700 { get; set; } = new("b-caret-amber-700","dark:b-caret-amber-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_700 { get; set; } = new("caret-amber-700","dark:caret-amber-300"); </v>
       </c>
       <c r="I50">
         <f t="shared" ref="I50:J50" si="51">I41</f>
@@ -3697,35 +3698,35 @@
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_800 { get; set; } = new("b-text-amber-800","dark:b-text-amber-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_800 { get; set; } = new("text-amber-800","dark:text-amber-200"); </v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_800 { get; set; } = new("b-bg-amber-800","dark:b-bg-amber-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_800 { get; set; } = new("bg-amber-800","dark:bg-amber-200"); </v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_800 { get; set; } = new("b-border-amber-800","dark:b-border-amber-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_800 { get; set; } = new("border-amber-800","dark:border-amber-200"); </v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_800 { get; set; } = new("b-divide-amber-800","dark:b-divide-amber-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_800 { get; set; } = new("divide-amber-800","dark:divide-amber-200"); </v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_800 { get; set; } = new("b-outline-amber-800","dark:b-outline-amber-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_800 { get; set; } = new("outline-amber-800","dark:outline-amber-200"); </v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_800 { get; set; } = new("b-ring-amber-800","dark:b-ring-amber-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_800 { get; set; } = new("ring-amber-800","dark:ring-amber-200"); </v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_800 { get; set; } = new("b-accent-amber-800","dark:b-accent-amber-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_800 { get; set; } = new("accent-amber-800","dark:accent-amber-200"); </v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_800 { get; set; } = new("b-caret-amber-800","dark:b-caret-amber-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_800 { get; set; } = new("caret-amber-800","dark:caret-amber-200"); </v>
       </c>
       <c r="I51">
         <f t="shared" ref="I51:J51" si="52">I42</f>
@@ -3766,35 +3767,35 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Amber_900 { get; set; } = new("b-text-amber-900","dark:b-text-amber-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Amber_900 { get; set; } = new("text-amber-900","dark:text-amber-100"); </v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Amber_900 { get; set; } = new("b-bg-amber-900","dark:b-bg-amber-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Amber_900 { get; set; } = new("bg-amber-900","dark:bg-amber-100"); </v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Amber_900 { get; set; } = new("b-border-amber-900","dark:b-border-amber-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Amber_900 { get; set; } = new("border-amber-900","dark:border-amber-100"); </v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Amber_900 { get; set; } = new("b-divide-amber-900","dark:b-divide-amber-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Amber_900 { get; set; } = new("divide-amber-900","dark:divide-amber-100"); </v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Amber_900 { get; set; } = new("b-outline-amber-900","dark:b-outline-amber-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Amber_900 { get; set; } = new("outline-amber-900","dark:outline-amber-100"); </v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Amber_900 { get; set; } = new("b-ring-amber-900","dark:b-ring-amber-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Amber_900 { get; set; } = new("ring-amber-900","dark:ring-amber-100"); </v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Amber_900 { get; set; } = new("b-accent-amber-900","dark:b-accent-amber-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Amber_900 { get; set; } = new("accent-amber-900","dark:accent-amber-100"); </v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Amber_900 { get; set; } = new("b-caret-amber-900","dark:b-caret-amber-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Amber_900 { get; set; } = new("caret-amber-900","dark:caret-amber-100"); </v>
       </c>
       <c r="I52">
         <f t="shared" ref="I52:J52" si="53">I43</f>
@@ -3835,35 +3836,35 @@
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_100 { get; set; } = new("b-text-yellow-100","dark:b-text-yellow-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_100 { get; set; } = new("text-yellow-100","dark:text-yellow-900"); </v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_100 { get; set; } = new("b-bg-yellow-100","dark:b-bg-yellow-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_100 { get; set; } = new("bg-yellow-100","dark:bg-yellow-900"); </v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_100 { get; set; } = new("b-border-yellow-100","dark:b-border-yellow-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_100 { get; set; } = new("border-yellow-100","dark:border-yellow-900"); </v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_100 { get; set; } = new("b-divide-yellow-100","dark:b-divide-yellow-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_100 { get; set; } = new("divide-yellow-100","dark:divide-yellow-900"); </v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_100 { get; set; } = new("b-outline-yellow-100","dark:b-outline-yellow-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_100 { get; set; } = new("outline-yellow-100","dark:outline-yellow-900"); </v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_100 { get; set; } = new("b-ring-yellow-100","dark:b-ring-yellow-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_100 { get; set; } = new("ring-yellow-100","dark:ring-yellow-900"); </v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_100 { get; set; } = new("b-accent-yellow-100","dark:b-accent-yellow-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_100 { get; set; } = new("accent-yellow-100","dark:accent-yellow-900"); </v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_100 { get; set; } = new("b-caret-yellow-100","dark:b-caret-yellow-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_100 { get; set; } = new("caret-yellow-100","dark:caret-yellow-900"); </v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53:J53" si="54">I44</f>
@@ -3904,35 +3905,35 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_200 { get; set; } = new("b-text-yellow-200","dark:b-text-yellow-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_200 { get; set; } = new("text-yellow-200","dark:text-yellow-800"); </v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_200 { get; set; } = new("b-bg-yellow-200","dark:b-bg-yellow-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_200 { get; set; } = new("bg-yellow-200","dark:bg-yellow-800"); </v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_200 { get; set; } = new("b-border-yellow-200","dark:b-border-yellow-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_200 { get; set; } = new("border-yellow-200","dark:border-yellow-800"); </v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_200 { get; set; } = new("b-divide-yellow-200","dark:b-divide-yellow-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_200 { get; set; } = new("divide-yellow-200","dark:divide-yellow-800"); </v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_200 { get; set; } = new("b-outline-yellow-200","dark:b-outline-yellow-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_200 { get; set; } = new("outline-yellow-200","dark:outline-yellow-800"); </v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_200 { get; set; } = new("b-ring-yellow-200","dark:b-ring-yellow-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_200 { get; set; } = new("ring-yellow-200","dark:ring-yellow-800"); </v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_200 { get; set; } = new("b-accent-yellow-200","dark:b-accent-yellow-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_200 { get; set; } = new("accent-yellow-200","dark:accent-yellow-800"); </v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_200 { get; set; } = new("b-caret-yellow-200","dark:b-caret-yellow-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_200 { get; set; } = new("caret-yellow-200","dark:caret-yellow-800"); </v>
       </c>
       <c r="I54">
         <f t="shared" ref="I54:J54" si="55">I45</f>
@@ -3973,35 +3974,35 @@
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_300 { get; set; } = new("b-text-yellow-300","dark:b-text-yellow-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_300 { get; set; } = new("text-yellow-300","dark:text-yellow-700"); </v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_300 { get; set; } = new("b-bg-yellow-300","dark:b-bg-yellow-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_300 { get; set; } = new("bg-yellow-300","dark:bg-yellow-700"); </v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_300 { get; set; } = new("b-border-yellow-300","dark:b-border-yellow-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_300 { get; set; } = new("border-yellow-300","dark:border-yellow-700"); </v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_300 { get; set; } = new("b-divide-yellow-300","dark:b-divide-yellow-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_300 { get; set; } = new("divide-yellow-300","dark:divide-yellow-700"); </v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_300 { get; set; } = new("b-outline-yellow-300","dark:b-outline-yellow-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_300 { get; set; } = new("outline-yellow-300","dark:outline-yellow-700"); </v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_300 { get; set; } = new("b-ring-yellow-300","dark:b-ring-yellow-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_300 { get; set; } = new("ring-yellow-300","dark:ring-yellow-700"); </v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_300 { get; set; } = new("b-accent-yellow-300","dark:b-accent-yellow-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_300 { get; set; } = new("accent-yellow-300","dark:accent-yellow-700"); </v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_300 { get; set; } = new("b-caret-yellow-300","dark:b-caret-yellow-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_300 { get; set; } = new("caret-yellow-300","dark:caret-yellow-700"); </v>
       </c>
       <c r="I55">
         <f t="shared" ref="I55:J55" si="56">I46</f>
@@ -4042,35 +4043,35 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_400 { get; set; } = new("b-text-yellow-400","dark:b-text-yellow-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_400 { get; set; } = new("text-yellow-400","dark:text-yellow-600"); </v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_400 { get; set; } = new("b-bg-yellow-400","dark:b-bg-yellow-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_400 { get; set; } = new("bg-yellow-400","dark:bg-yellow-600"); </v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_400 { get; set; } = new("b-border-yellow-400","dark:b-border-yellow-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_400 { get; set; } = new("border-yellow-400","dark:border-yellow-600"); </v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_400 { get; set; } = new("b-divide-yellow-400","dark:b-divide-yellow-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_400 { get; set; } = new("divide-yellow-400","dark:divide-yellow-600"); </v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_400 { get; set; } = new("b-outline-yellow-400","dark:b-outline-yellow-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_400 { get; set; } = new("outline-yellow-400","dark:outline-yellow-600"); </v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_400 { get; set; } = new("b-ring-yellow-400","dark:b-ring-yellow-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_400 { get; set; } = new("ring-yellow-400","dark:ring-yellow-600"); </v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_400 { get; set; } = new("b-accent-yellow-400","dark:b-accent-yellow-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_400 { get; set; } = new("accent-yellow-400","dark:accent-yellow-600"); </v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_400 { get; set; } = new("b-caret-yellow-400","dark:b-caret-yellow-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_400 { get; set; } = new("caret-yellow-400","dark:caret-yellow-600"); </v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56:J56" si="57">I47</f>
@@ -4111,35 +4112,35 @@
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_500 { get; set; } = new("b-text-yellow-500","dark:b-text-yellow-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_500 { get; set; } = new("text-yellow-500","dark:text-yellow-500"); </v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_500 { get; set; } = new("b-bg-yellow-500","dark:b-bg-yellow-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_500 { get; set; } = new("bg-yellow-500","dark:bg-yellow-500"); </v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_500 { get; set; } = new("b-border-yellow-500","dark:b-border-yellow-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_500 { get; set; } = new("border-yellow-500","dark:border-yellow-500"); </v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_500 { get; set; } = new("b-divide-yellow-500","dark:b-divide-yellow-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_500 { get; set; } = new("divide-yellow-500","dark:divide-yellow-500"); </v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_500 { get; set; } = new("b-outline-yellow-500","dark:b-outline-yellow-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_500 { get; set; } = new("outline-yellow-500","dark:outline-yellow-500"); </v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_500 { get; set; } = new("b-ring-yellow-500","dark:b-ring-yellow-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_500 { get; set; } = new("ring-yellow-500","dark:ring-yellow-500"); </v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_500 { get; set; } = new("b-accent-yellow-500","dark:b-accent-yellow-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_500 { get; set; } = new("accent-yellow-500","dark:accent-yellow-500"); </v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_500 { get; set; } = new("b-caret-yellow-500","dark:b-caret-yellow-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_500 { get; set; } = new("caret-yellow-500","dark:caret-yellow-500"); </v>
       </c>
       <c r="I57">
         <f t="shared" ref="I57:J57" si="58">I48</f>
@@ -4180,35 +4181,35 @@
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_600 { get; set; } = new("b-text-yellow-600","dark:b-text-yellow-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_600 { get; set; } = new("text-yellow-600","dark:text-yellow-400"); </v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_600 { get; set; } = new("b-bg-yellow-600","dark:b-bg-yellow-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_600 { get; set; } = new("bg-yellow-600","dark:bg-yellow-400"); </v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_600 { get; set; } = new("b-border-yellow-600","dark:b-border-yellow-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_600 { get; set; } = new("border-yellow-600","dark:border-yellow-400"); </v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_600 { get; set; } = new("b-divide-yellow-600","dark:b-divide-yellow-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_600 { get; set; } = new("divide-yellow-600","dark:divide-yellow-400"); </v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_600 { get; set; } = new("b-outline-yellow-600","dark:b-outline-yellow-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_600 { get; set; } = new("outline-yellow-600","dark:outline-yellow-400"); </v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_600 { get; set; } = new("b-ring-yellow-600","dark:b-ring-yellow-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_600 { get; set; } = new("ring-yellow-600","dark:ring-yellow-400"); </v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_600 { get; set; } = new("b-accent-yellow-600","dark:b-accent-yellow-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_600 { get; set; } = new("accent-yellow-600","dark:accent-yellow-400"); </v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_600 { get; set; } = new("b-caret-yellow-600","dark:b-caret-yellow-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_600 { get; set; } = new("caret-yellow-600","dark:caret-yellow-400"); </v>
       </c>
       <c r="I58">
         <f t="shared" ref="I58:J58" si="59">I49</f>
@@ -4249,35 +4250,35 @@
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_700 { get; set; } = new("b-text-yellow-700","dark:b-text-yellow-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_700 { get; set; } = new("text-yellow-700","dark:text-yellow-300"); </v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_700 { get; set; } = new("b-bg-yellow-700","dark:b-bg-yellow-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_700 { get; set; } = new("bg-yellow-700","dark:bg-yellow-300"); </v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_700 { get; set; } = new("b-border-yellow-700","dark:b-border-yellow-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_700 { get; set; } = new("border-yellow-700","dark:border-yellow-300"); </v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_700 { get; set; } = new("b-divide-yellow-700","dark:b-divide-yellow-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_700 { get; set; } = new("divide-yellow-700","dark:divide-yellow-300"); </v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_700 { get; set; } = new("b-outline-yellow-700","dark:b-outline-yellow-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_700 { get; set; } = new("outline-yellow-700","dark:outline-yellow-300"); </v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_700 { get; set; } = new("b-ring-yellow-700","dark:b-ring-yellow-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_700 { get; set; } = new("ring-yellow-700","dark:ring-yellow-300"); </v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_700 { get; set; } = new("b-accent-yellow-700","dark:b-accent-yellow-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_700 { get; set; } = new("accent-yellow-700","dark:accent-yellow-300"); </v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_700 { get; set; } = new("b-caret-yellow-700","dark:b-caret-yellow-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_700 { get; set; } = new("caret-yellow-700","dark:caret-yellow-300"); </v>
       </c>
       <c r="I59">
         <f t="shared" ref="I59:J59" si="60">I50</f>
@@ -4318,35 +4319,35 @@
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_800 { get; set; } = new("b-text-yellow-800","dark:b-text-yellow-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_800 { get; set; } = new("text-yellow-800","dark:text-yellow-200"); </v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_800 { get; set; } = new("b-bg-yellow-800","dark:b-bg-yellow-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_800 { get; set; } = new("bg-yellow-800","dark:bg-yellow-200"); </v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_800 { get; set; } = new("b-border-yellow-800","dark:b-border-yellow-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_800 { get; set; } = new("border-yellow-800","dark:border-yellow-200"); </v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_800 { get; set; } = new("b-divide-yellow-800","dark:b-divide-yellow-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_800 { get; set; } = new("divide-yellow-800","dark:divide-yellow-200"); </v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_800 { get; set; } = new("b-outline-yellow-800","dark:b-outline-yellow-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_800 { get; set; } = new("outline-yellow-800","dark:outline-yellow-200"); </v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_800 { get; set; } = new("b-ring-yellow-800","dark:b-ring-yellow-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_800 { get; set; } = new("ring-yellow-800","dark:ring-yellow-200"); </v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_800 { get; set; } = new("b-accent-yellow-800","dark:b-accent-yellow-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_800 { get; set; } = new("accent-yellow-800","dark:accent-yellow-200"); </v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_800 { get; set; } = new("b-caret-yellow-800","dark:b-caret-yellow-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_800 { get; set; } = new("caret-yellow-800","dark:caret-yellow-200"); </v>
       </c>
       <c r="I60">
         <f t="shared" ref="I60:J60" si="61">I51</f>
@@ -4387,35 +4388,35 @@
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Yellow_900 { get; set; } = new("b-text-yellow-900","dark:b-text-yellow-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Yellow_900 { get; set; } = new("text-yellow-900","dark:text-yellow-100"); </v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Yellow_900 { get; set; } = new("b-bg-yellow-900","dark:b-bg-yellow-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Yellow_900 { get; set; } = new("bg-yellow-900","dark:bg-yellow-100"); </v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Yellow_900 { get; set; } = new("b-border-yellow-900","dark:b-border-yellow-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Yellow_900 { get; set; } = new("border-yellow-900","dark:border-yellow-100"); </v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Yellow_900 { get; set; } = new("b-divide-yellow-900","dark:b-divide-yellow-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Yellow_900 { get; set; } = new("divide-yellow-900","dark:divide-yellow-100"); </v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Yellow_900 { get; set; } = new("b-outline-yellow-900","dark:b-outline-yellow-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Yellow_900 { get; set; } = new("outline-yellow-900","dark:outline-yellow-100"); </v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Yellow_900 { get; set; } = new("b-ring-yellow-900","dark:b-ring-yellow-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Yellow_900 { get; set; } = new("ring-yellow-900","dark:ring-yellow-100"); </v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Yellow_900 { get; set; } = new("b-accent-yellow-900","dark:b-accent-yellow-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Yellow_900 { get; set; } = new("accent-yellow-900","dark:accent-yellow-100"); </v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Yellow_900 { get; set; } = new("b-caret-yellow-900","dark:b-caret-yellow-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Yellow_900 { get; set; } = new("caret-yellow-900","dark:caret-yellow-100"); </v>
       </c>
       <c r="I61">
         <f t="shared" ref="I61:J61" si="62">I52</f>
@@ -4456,35 +4457,35 @@
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_100 { get; set; } = new("b-text-lime-100","dark:b-text-lime-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_100 { get; set; } = new("text-lime-100","dark:text-lime-900"); </v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_100 { get; set; } = new("b-bg-lime-100","dark:b-bg-lime-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_100 { get; set; } = new("bg-lime-100","dark:bg-lime-900"); </v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_100 { get; set; } = new("b-border-lime-100","dark:b-border-lime-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_100 { get; set; } = new("border-lime-100","dark:border-lime-900"); </v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_100 { get; set; } = new("b-divide-lime-100","dark:b-divide-lime-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_100 { get; set; } = new("divide-lime-100","dark:divide-lime-900"); </v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_100 { get; set; } = new("b-outline-lime-100","dark:b-outline-lime-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_100 { get; set; } = new("outline-lime-100","dark:outline-lime-900"); </v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_100 { get; set; } = new("b-ring-lime-100","dark:b-ring-lime-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_100 { get; set; } = new("ring-lime-100","dark:ring-lime-900"); </v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_100 { get; set; } = new("b-accent-lime-100","dark:b-accent-lime-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_100 { get; set; } = new("accent-lime-100","dark:accent-lime-900"); </v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_100 { get; set; } = new("b-caret-lime-100","dark:b-caret-lime-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_100 { get; set; } = new("caret-lime-100","dark:caret-lime-900"); </v>
       </c>
       <c r="I62">
         <f t="shared" ref="I62:J62" si="63">I53</f>
@@ -4525,35 +4526,35 @@
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_200 { get; set; } = new("b-text-lime-200","dark:b-text-lime-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_200 { get; set; } = new("text-lime-200","dark:text-lime-800"); </v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_200 { get; set; } = new("b-bg-lime-200","dark:b-bg-lime-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_200 { get; set; } = new("bg-lime-200","dark:bg-lime-800"); </v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_200 { get; set; } = new("b-border-lime-200","dark:b-border-lime-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_200 { get; set; } = new("border-lime-200","dark:border-lime-800"); </v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_200 { get; set; } = new("b-divide-lime-200","dark:b-divide-lime-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_200 { get; set; } = new("divide-lime-200","dark:divide-lime-800"); </v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_200 { get; set; } = new("b-outline-lime-200","dark:b-outline-lime-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_200 { get; set; } = new("outline-lime-200","dark:outline-lime-800"); </v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_200 { get; set; } = new("b-ring-lime-200","dark:b-ring-lime-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_200 { get; set; } = new("ring-lime-200","dark:ring-lime-800"); </v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_200 { get; set; } = new("b-accent-lime-200","dark:b-accent-lime-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_200 { get; set; } = new("accent-lime-200","dark:accent-lime-800"); </v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_200 { get; set; } = new("b-caret-lime-200","dark:b-caret-lime-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_200 { get; set; } = new("caret-lime-200","dark:caret-lime-800"); </v>
       </c>
       <c r="I63">
         <f t="shared" ref="I63:J63" si="64">I54</f>
@@ -4594,35 +4595,35 @@
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_300 { get; set; } = new("b-text-lime-300","dark:b-text-lime-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_300 { get; set; } = new("text-lime-300","dark:text-lime-700"); </v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_300 { get; set; } = new("b-bg-lime-300","dark:b-bg-lime-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_300 { get; set; } = new("bg-lime-300","dark:bg-lime-700"); </v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_300 { get; set; } = new("b-border-lime-300","dark:b-border-lime-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_300 { get; set; } = new("border-lime-300","dark:border-lime-700"); </v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_300 { get; set; } = new("b-divide-lime-300","dark:b-divide-lime-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_300 { get; set; } = new("divide-lime-300","dark:divide-lime-700"); </v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_300 { get; set; } = new("b-outline-lime-300","dark:b-outline-lime-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_300 { get; set; } = new("outline-lime-300","dark:outline-lime-700"); </v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_300 { get; set; } = new("b-ring-lime-300","dark:b-ring-lime-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_300 { get; set; } = new("ring-lime-300","dark:ring-lime-700"); </v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_300 { get; set; } = new("b-accent-lime-300","dark:b-accent-lime-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_300 { get; set; } = new("accent-lime-300","dark:accent-lime-700"); </v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_300 { get; set; } = new("b-caret-lime-300","dark:b-caret-lime-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_300 { get; set; } = new("caret-lime-300","dark:caret-lime-700"); </v>
       </c>
       <c r="I64">
         <f t="shared" ref="I64:J64" si="65">I55</f>
@@ -4663,35 +4664,35 @@
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_400 { get; set; } = new("b-text-lime-400","dark:b-text-lime-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_400 { get; set; } = new("text-lime-400","dark:text-lime-600"); </v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_400 { get; set; } = new("b-bg-lime-400","dark:b-bg-lime-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_400 { get; set; } = new("bg-lime-400","dark:bg-lime-600"); </v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_400 { get; set; } = new("b-border-lime-400","dark:b-border-lime-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_400 { get; set; } = new("border-lime-400","dark:border-lime-600"); </v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_400 { get; set; } = new("b-divide-lime-400","dark:b-divide-lime-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_400 { get; set; } = new("divide-lime-400","dark:divide-lime-600"); </v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_400 { get; set; } = new("b-outline-lime-400","dark:b-outline-lime-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_400 { get; set; } = new("outline-lime-400","dark:outline-lime-600"); </v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_400 { get; set; } = new("b-ring-lime-400","dark:b-ring-lime-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_400 { get; set; } = new("ring-lime-400","dark:ring-lime-600"); </v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_400 { get; set; } = new("b-accent-lime-400","dark:b-accent-lime-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_400 { get; set; } = new("accent-lime-400","dark:accent-lime-600"); </v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_400 { get; set; } = new("b-caret-lime-400","dark:b-caret-lime-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_400 { get; set; } = new("caret-lime-400","dark:caret-lime-600"); </v>
       </c>
       <c r="I65">
         <f t="shared" ref="I65:J65" si="66">I56</f>
@@ -4732,35 +4733,35 @@
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_500 { get; set; } = new("b-text-lime-500","dark:b-text-lime-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_500 { get; set; } = new("text-lime-500","dark:text-lime-500"); </v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_500 { get; set; } = new("b-bg-lime-500","dark:b-bg-lime-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_500 { get; set; } = new("bg-lime-500","dark:bg-lime-500"); </v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_500 { get; set; } = new("b-border-lime-500","dark:b-border-lime-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_500 { get; set; } = new("border-lime-500","dark:border-lime-500"); </v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_500 { get; set; } = new("b-divide-lime-500","dark:b-divide-lime-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_500 { get; set; } = new("divide-lime-500","dark:divide-lime-500"); </v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_500 { get; set; } = new("b-outline-lime-500","dark:b-outline-lime-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_500 { get; set; } = new("outline-lime-500","dark:outline-lime-500"); </v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_500 { get; set; } = new("b-ring-lime-500","dark:b-ring-lime-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_500 { get; set; } = new("ring-lime-500","dark:ring-lime-500"); </v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_500 { get; set; } = new("b-accent-lime-500","dark:b-accent-lime-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_500 { get; set; } = new("accent-lime-500","dark:accent-lime-500"); </v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_500 { get; set; } = new("b-caret-lime-500","dark:b-caret-lime-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_500 { get; set; } = new("caret-lime-500","dark:caret-lime-500"); </v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:J66" si="67">I57</f>
@@ -4801,35 +4802,35 @@
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_600 { get; set; } = new("b-text-lime-600","dark:b-text-lime-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_600 { get; set; } = new("text-lime-600","dark:text-lime-400"); </v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_600 { get; set; } = new("b-bg-lime-600","dark:b-bg-lime-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_600 { get; set; } = new("bg-lime-600","dark:bg-lime-400"); </v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_600 { get; set; } = new("b-border-lime-600","dark:b-border-lime-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_600 { get; set; } = new("border-lime-600","dark:border-lime-400"); </v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_600 { get; set; } = new("b-divide-lime-600","dark:b-divide-lime-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_600 { get; set; } = new("divide-lime-600","dark:divide-lime-400"); </v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_600 { get; set; } = new("b-outline-lime-600","dark:b-outline-lime-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_600 { get; set; } = new("outline-lime-600","dark:outline-lime-400"); </v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_600 { get; set; } = new("b-ring-lime-600","dark:b-ring-lime-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_600 { get; set; } = new("ring-lime-600","dark:ring-lime-400"); </v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_600 { get; set; } = new("b-accent-lime-600","dark:b-accent-lime-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_600 { get; set; } = new("accent-lime-600","dark:accent-lime-400"); </v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_600 { get; set; } = new("b-caret-lime-600","dark:b-caret-lime-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_600 { get; set; } = new("caret-lime-600","dark:caret-lime-400"); </v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:J67" si="68">I58</f>
@@ -4870,35 +4871,35 @@
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_700 { get; set; } = new("b-text-lime-700","dark:b-text-lime-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_700 { get; set; } = new("text-lime-700","dark:text-lime-300"); </v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_700 { get; set; } = new("b-bg-lime-700","dark:b-bg-lime-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_700 { get; set; } = new("bg-lime-700","dark:bg-lime-300"); </v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_700 { get; set; } = new("b-border-lime-700","dark:b-border-lime-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_700 { get; set; } = new("border-lime-700","dark:border-lime-300"); </v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_700 { get; set; } = new("b-divide-lime-700","dark:b-divide-lime-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_700 { get; set; } = new("divide-lime-700","dark:divide-lime-300"); </v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_700 { get; set; } = new("b-outline-lime-700","dark:b-outline-lime-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_700 { get; set; } = new("outline-lime-700","dark:outline-lime-300"); </v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_700 { get; set; } = new("b-ring-lime-700","dark:b-ring-lime-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_700 { get; set; } = new("ring-lime-700","dark:ring-lime-300"); </v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_700 { get; set; } = new("b-accent-lime-700","dark:b-accent-lime-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_700 { get; set; } = new("accent-lime-700","dark:accent-lime-300"); </v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_700 { get; set; } = new("b-caret-lime-700","dark:b-caret-lime-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_700 { get; set; } = new("caret-lime-700","dark:caret-lime-300"); </v>
       </c>
       <c r="I68">
         <f t="shared" ref="I68:J68" si="69">I59</f>
@@ -4939,35 +4940,35 @@
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_800 { get; set; } = new("b-text-lime-800","dark:b-text-lime-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_800 { get; set; } = new("text-lime-800","dark:text-lime-200"); </v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_800 { get; set; } = new("b-bg-lime-800","dark:b-bg-lime-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_800 { get; set; } = new("bg-lime-800","dark:bg-lime-200"); </v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_800 { get; set; } = new("b-border-lime-800","dark:b-border-lime-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_800 { get; set; } = new("border-lime-800","dark:border-lime-200"); </v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_800 { get; set; } = new("b-divide-lime-800","dark:b-divide-lime-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_800 { get; set; } = new("divide-lime-800","dark:divide-lime-200"); </v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_800 { get; set; } = new("b-outline-lime-800","dark:b-outline-lime-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_800 { get; set; } = new("outline-lime-800","dark:outline-lime-200"); </v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_800 { get; set; } = new("b-ring-lime-800","dark:b-ring-lime-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_800 { get; set; } = new("ring-lime-800","dark:ring-lime-200"); </v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_800 { get; set; } = new("b-accent-lime-800","dark:b-accent-lime-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_800 { get; set; } = new("accent-lime-800","dark:accent-lime-200"); </v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_800 { get; set; } = new("b-caret-lime-800","dark:b-caret-lime-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_800 { get; set; } = new("caret-lime-800","dark:caret-lime-200"); </v>
       </c>
       <c r="I69">
         <f t="shared" ref="I69:J69" si="70">I60</f>
@@ -5008,35 +5009,35 @@
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Lime_900 { get; set; } = new("b-text-lime-900","dark:b-text-lime-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Lime_900 { get; set; } = new("text-lime-900","dark:text-lime-100"); </v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Lime_900 { get; set; } = new("b-bg-lime-900","dark:b-bg-lime-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Lime_900 { get; set; } = new("bg-lime-900","dark:bg-lime-100"); </v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Lime_900 { get; set; } = new("b-border-lime-900","dark:b-border-lime-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Lime_900 { get; set; } = new("border-lime-900","dark:border-lime-100"); </v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Lime_900 { get; set; } = new("b-divide-lime-900","dark:b-divide-lime-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Lime_900 { get; set; } = new("divide-lime-900","dark:divide-lime-100"); </v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Lime_900 { get; set; } = new("b-outline-lime-900","dark:b-outline-lime-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Lime_900 { get; set; } = new("outline-lime-900","dark:outline-lime-100"); </v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Lime_900 { get; set; } = new("b-ring-lime-900","dark:b-ring-lime-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Lime_900 { get; set; } = new("ring-lime-900","dark:ring-lime-100"); </v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Lime_900 { get; set; } = new("b-accent-lime-900","dark:b-accent-lime-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Lime_900 { get; set; } = new("accent-lime-900","dark:accent-lime-100"); </v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Lime_900 { get; set; } = new("b-caret-lime-900","dark:b-caret-lime-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Lime_900 { get; set; } = new("caret-lime-900","dark:caret-lime-100"); </v>
       </c>
       <c r="I70">
         <f t="shared" ref="I70:J70" si="71">I61</f>
@@ -5077,35 +5078,35 @@
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Green_100 { get; set; } = new("b-text-green-100","dark:b-text-green-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Green_100 { get; set; } = new("text-green-100","dark:text-green-900"); </v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Green_100 { get; set; } = new("b-bg-green-100","dark:b-bg-green-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Green_100 { get; set; } = new("bg-green-100","dark:bg-green-900"); </v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Green_100 { get; set; } = new("b-border-green-100","dark:b-border-green-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Green_100 { get; set; } = new("border-green-100","dark:border-green-900"); </v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Green_100 { get; set; } = new("b-divide-green-100","dark:b-divide-green-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Green_100 { get; set; } = new("divide-green-100","dark:divide-green-900"); </v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Green_100 { get; set; } = new("b-outline-green-100","dark:b-outline-green-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Green_100 { get; set; } = new("outline-green-100","dark:outline-green-900"); </v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Green_100 { get; set; } = new("b-ring-green-100","dark:b-ring-green-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Green_100 { get; set; } = new("ring-green-100","dark:ring-green-900"); </v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Green_100 { get; set; } = new("b-accent-green-100","dark:b-accent-green-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Green_100 { get; set; } = new("accent-green-100","dark:accent-green-900"); </v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Green_100 { get; set; } = new("b-caret-green-100","dark:b-caret-green-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Green_100 { get; set; } = new("caret-green-100","dark:caret-green-900"); </v>
       </c>
       <c r="I71">
         <f t="shared" ref="I71:J71" si="72">I62</f>
@@ -5146,35 +5147,35 @@
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">public static ColorPair Text_Green_200 { get; set; } = new("b-text-green-200","dark:b-text-green-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Green_200 { get; set; } = new("text-green-200","dark:text-green-800"); </v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">public static ColorPair Bg_Green_200 { get; set; } = new("b-bg-green-200","dark:b-bg-green-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Green_200 { get; set; } = new("bg-green-200","dark:bg-green-800"); </v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">public static ColorPair Border_Green_200 { get; set; } = new("b-border-green-200","dark:b-border-green-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Green_200 { get; set; } = new("border-green-200","dark:border-green-800"); </v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">public static ColorPair Divide_Green_200 { get; set; } = new("b-divide-green-200","dark:b-divide-green-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Green_200 { get; set; } = new("divide-green-200","dark:divide-green-800"); </v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">public static ColorPair Outline_Green_200 { get; set; } = new("b-outline-green-200","dark:b-outline-green-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Green_200 { get; set; } = new("outline-green-200","dark:outline-green-800"); </v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">public static ColorPair Ring_Green_200 { get; set; } = new("b-ring-green-200","dark:b-ring-green-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Green_200 { get; set; } = new("ring-green-200","dark:ring-green-800"); </v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">public static ColorPair Accent_Green_200 { get; set; } = new("b-accent-green-200","dark:b-accent-green-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Green_200 { get; set; } = new("accent-green-200","dark:accent-green-800"); </v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">public static ColorPair Caret_Green_200 { get; set; } = new("b-caret-green-200","dark:b-caret-green-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Green_200 { get; set; } = new("caret-green-200","dark:caret-green-800"); </v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72:J72" si="73">I63</f>
@@ -5214,36 +5215,36 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" ref="A73:A136" si="74">_xlfn.CONCAT("public static ColorPair ",PROPER(L73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""b-",L73,"-",$K73,"-",$I73,""",""dark:b-",L73,"-",$K73,"-",$J73,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Text_Green_300 { get; set; } = new("b-text-green-300","dark:b-text-green-700"); </v>
+        <f t="shared" ref="A73:A136" si="74">_xlfn.CONCAT("public static ColorPair ",PROPER(L73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""",L73,"-",$K73,"-",$I73,""",""dark:",L73,"-",$K73,"-",$J73,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Text_Green_300 { get; set; } = new("text-green-300","dark:text-green-700"); </v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" ref="B73:B136" si="75">_xlfn.CONCAT("public static ColorPair ",PROPER(M73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""b-",M73,"-",$K73,"-",$I73,""",""dark:b-",M73,"-",$K73,"-",$J73,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Bg_Green_300 { get; set; } = new("b-bg-green-300","dark:b-bg-green-700"); </v>
+        <f t="shared" ref="B73:B136" si="75">_xlfn.CONCAT("public static ColorPair ",PROPER(M73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""",M73,"-",$K73,"-",$I73,""",""dark:",M73,"-",$K73,"-",$J73,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Bg_Green_300 { get; set; } = new("bg-green-300","dark:bg-green-700"); </v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73:C136" si="76">_xlfn.CONCAT("public static ColorPair ",PROPER(N73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""b-",N73,"-",$K73,"-",$I73,""",""dark:b-",N73,"-",$K73,"-",$J73,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Border_Green_300 { get; set; } = new("b-border-green-300","dark:b-border-green-700"); </v>
+        <f t="shared" ref="C73:C136" si="76">_xlfn.CONCAT("public static ColorPair ",PROPER(N73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""",N73,"-",$K73,"-",$I73,""",""dark:",N73,"-",$K73,"-",$J73,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Border_Green_300 { get; set; } = new("border-green-300","dark:border-green-700"); </v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" ref="D73:D136" si="77">_xlfn.CONCAT("public static ColorPair ",PROPER(O73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""b-",O73,"-",$K73,"-",$I73,""",""dark:b-",O73,"-",$K73,"-",$J73,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Divide_Green_300 { get; set; } = new("b-divide-green-300","dark:b-divide-green-700"); </v>
+        <f t="shared" ref="D73:D136" si="77">_xlfn.CONCAT("public static ColorPair ",PROPER(O73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""",O73,"-",$K73,"-",$I73,""",""dark:",O73,"-",$K73,"-",$J73,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Divide_Green_300 { get; set; } = new("divide-green-300","dark:divide-green-700"); </v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ref="E73:E136" si="78">_xlfn.CONCAT("public static ColorPair ",PROPER(P73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""b-",P73,"-",$K73,"-",$I73,""",""dark:b-",P73,"-",$K73,"-",$J73,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Outline_Green_300 { get; set; } = new("b-outline-green-300","dark:b-outline-green-700"); </v>
+        <f t="shared" ref="E73:E136" si="78">_xlfn.CONCAT("public static ColorPair ",PROPER(P73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""",P73,"-",$K73,"-",$I73,""",""dark:",P73,"-",$K73,"-",$J73,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Outline_Green_300 { get; set; } = new("outline-green-300","dark:outline-green-700"); </v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ref="F73:F136" si="79">_xlfn.CONCAT("public static ColorPair ",PROPER(Q73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""b-",Q73,"-",$K73,"-",$I73,""",""dark:b-",Q73,"-",$K73,"-",$J73,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Ring_Green_300 { get; set; } = new("b-ring-green-300","dark:b-ring-green-700"); </v>
+        <f t="shared" ref="F73:F136" si="79">_xlfn.CONCAT("public static ColorPair ",PROPER(Q73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""",Q73,"-",$K73,"-",$I73,""",""dark:",Q73,"-",$K73,"-",$J73,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Ring_Green_300 { get; set; } = new("ring-green-300","dark:ring-green-700"); </v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" ref="G73:G136" si="80">_xlfn.CONCAT("public static ColorPair ",PROPER(R73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""b-",R73,"-",$K73,"-",$I73,""",""dark:b-",R73,"-",$K73,"-",$J73,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Accent_Green_300 { get; set; } = new("b-accent-green-300","dark:b-accent-green-700"); </v>
+        <f t="shared" ref="G73:G136" si="80">_xlfn.CONCAT("public static ColorPair ",PROPER(R73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""",R73,"-",$K73,"-",$I73,""",""dark:",R73,"-",$K73,"-",$J73,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Accent_Green_300 { get; set; } = new("accent-green-300","dark:accent-green-700"); </v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" ref="H73:H136" si="81">_xlfn.CONCAT("public static ColorPair ",PROPER(S73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""b-",S73,"-",$K73,"-",$I73,""",""dark:b-",S73,"-",$K73,"-",$J73,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Caret_Green_300 { get; set; } = new("b-caret-green-300","dark:b-caret-green-700"); </v>
+        <f t="shared" ref="H73:H136" si="81">_xlfn.CONCAT("public static ColorPair ",PROPER(S73),"_",PROPER($K73),"_",$I73," { get; set; } = new(""",S73,"-",$K73,"-",$I73,""",""dark:",S73,"-",$K73,"-",$J73,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Caret_Green_300 { get; set; } = new("caret-green-300","dark:caret-green-700"); </v>
       </c>
       <c r="I73">
         <f t="shared" ref="I73:J73" si="82">I64</f>
@@ -5284,35 +5285,35 @@
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Green_400 { get; set; } = new("b-text-green-400","dark:b-text-green-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Green_400 { get; set; } = new("text-green-400","dark:text-green-600"); </v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Green_400 { get; set; } = new("b-bg-green-400","dark:b-bg-green-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Green_400 { get; set; } = new("bg-green-400","dark:bg-green-600"); </v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Green_400 { get; set; } = new("b-border-green-400","dark:b-border-green-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Green_400 { get; set; } = new("border-green-400","dark:border-green-600"); </v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Green_400 { get; set; } = new("b-divide-green-400","dark:b-divide-green-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Green_400 { get; set; } = new("divide-green-400","dark:divide-green-600"); </v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Green_400 { get; set; } = new("b-outline-green-400","dark:b-outline-green-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Green_400 { get; set; } = new("outline-green-400","dark:outline-green-600"); </v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Green_400 { get; set; } = new("b-ring-green-400","dark:b-ring-green-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Green_400 { get; set; } = new("ring-green-400","dark:ring-green-600"); </v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Green_400 { get; set; } = new("b-accent-green-400","dark:b-accent-green-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Green_400 { get; set; } = new("accent-green-400","dark:accent-green-600"); </v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Green_400 { get; set; } = new("b-caret-green-400","dark:b-caret-green-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Green_400 { get; set; } = new("caret-green-400","dark:caret-green-600"); </v>
       </c>
       <c r="I74">
         <f t="shared" ref="I74:J74" si="83">I65</f>
@@ -5353,35 +5354,35 @@
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Green_500 { get; set; } = new("b-text-green-500","dark:b-text-green-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Green_500 { get; set; } = new("text-green-500","dark:text-green-500"); </v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Green_500 { get; set; } = new("b-bg-green-500","dark:b-bg-green-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Green_500 { get; set; } = new("bg-green-500","dark:bg-green-500"); </v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Green_500 { get; set; } = new("b-border-green-500","dark:b-border-green-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Green_500 { get; set; } = new("border-green-500","dark:border-green-500"); </v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Green_500 { get; set; } = new("b-divide-green-500","dark:b-divide-green-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Green_500 { get; set; } = new("divide-green-500","dark:divide-green-500"); </v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Green_500 { get; set; } = new("b-outline-green-500","dark:b-outline-green-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Green_500 { get; set; } = new("outline-green-500","dark:outline-green-500"); </v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Green_500 { get; set; } = new("b-ring-green-500","dark:b-ring-green-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Green_500 { get; set; } = new("ring-green-500","dark:ring-green-500"); </v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Green_500 { get; set; } = new("b-accent-green-500","dark:b-accent-green-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Green_500 { get; set; } = new("accent-green-500","dark:accent-green-500"); </v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Green_500 { get; set; } = new("b-caret-green-500","dark:b-caret-green-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Green_500 { get; set; } = new("caret-green-500","dark:caret-green-500"); </v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75:J75" si="84">I66</f>
@@ -5422,35 +5423,35 @@
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Green_600 { get; set; } = new("b-text-green-600","dark:b-text-green-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Green_600 { get; set; } = new("text-green-600","dark:text-green-400"); </v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Green_600 { get; set; } = new("b-bg-green-600","dark:b-bg-green-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Green_600 { get; set; } = new("bg-green-600","dark:bg-green-400"); </v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Green_600 { get; set; } = new("b-border-green-600","dark:b-border-green-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Green_600 { get; set; } = new("border-green-600","dark:border-green-400"); </v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Green_600 { get; set; } = new("b-divide-green-600","dark:b-divide-green-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Green_600 { get; set; } = new("divide-green-600","dark:divide-green-400"); </v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Green_600 { get; set; } = new("b-outline-green-600","dark:b-outline-green-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Green_600 { get; set; } = new("outline-green-600","dark:outline-green-400"); </v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Green_600 { get; set; } = new("b-ring-green-600","dark:b-ring-green-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Green_600 { get; set; } = new("ring-green-600","dark:ring-green-400"); </v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Green_600 { get; set; } = new("b-accent-green-600","dark:b-accent-green-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Green_600 { get; set; } = new("accent-green-600","dark:accent-green-400"); </v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Green_600 { get; set; } = new("b-caret-green-600","dark:b-caret-green-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Green_600 { get; set; } = new("caret-green-600","dark:caret-green-400"); </v>
       </c>
       <c r="I76">
         <f t="shared" ref="I76:J76" si="85">I67</f>
@@ -5491,35 +5492,35 @@
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Green_700 { get; set; } = new("b-text-green-700","dark:b-text-green-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Green_700 { get; set; } = new("text-green-700","dark:text-green-300"); </v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Green_700 { get; set; } = new("b-bg-green-700","dark:b-bg-green-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Green_700 { get; set; } = new("bg-green-700","dark:bg-green-300"); </v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Green_700 { get; set; } = new("b-border-green-700","dark:b-border-green-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Green_700 { get; set; } = new("border-green-700","dark:border-green-300"); </v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Green_700 { get; set; } = new("b-divide-green-700","dark:b-divide-green-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Green_700 { get; set; } = new("divide-green-700","dark:divide-green-300"); </v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Green_700 { get; set; } = new("b-outline-green-700","dark:b-outline-green-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Green_700 { get; set; } = new("outline-green-700","dark:outline-green-300"); </v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Green_700 { get; set; } = new("b-ring-green-700","dark:b-ring-green-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Green_700 { get; set; } = new("ring-green-700","dark:ring-green-300"); </v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Green_700 { get; set; } = new("b-accent-green-700","dark:b-accent-green-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Green_700 { get; set; } = new("accent-green-700","dark:accent-green-300"); </v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Green_700 { get; set; } = new("b-caret-green-700","dark:b-caret-green-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Green_700 { get; set; } = new("caret-green-700","dark:caret-green-300"); </v>
       </c>
       <c r="I77">
         <f t="shared" ref="I77:J77" si="86">I68</f>
@@ -5560,35 +5561,35 @@
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Green_800 { get; set; } = new("b-text-green-800","dark:b-text-green-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Green_800 { get; set; } = new("text-green-800","dark:text-green-200"); </v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Green_800 { get; set; } = new("b-bg-green-800","dark:b-bg-green-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Green_800 { get; set; } = new("bg-green-800","dark:bg-green-200"); </v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Green_800 { get; set; } = new("b-border-green-800","dark:b-border-green-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Green_800 { get; set; } = new("border-green-800","dark:border-green-200"); </v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Green_800 { get; set; } = new("b-divide-green-800","dark:b-divide-green-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Green_800 { get; set; } = new("divide-green-800","dark:divide-green-200"); </v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Green_800 { get; set; } = new("b-outline-green-800","dark:b-outline-green-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Green_800 { get; set; } = new("outline-green-800","dark:outline-green-200"); </v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Green_800 { get; set; } = new("b-ring-green-800","dark:b-ring-green-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Green_800 { get; set; } = new("ring-green-800","dark:ring-green-200"); </v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Green_800 { get; set; } = new("b-accent-green-800","dark:b-accent-green-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Green_800 { get; set; } = new("accent-green-800","dark:accent-green-200"); </v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Green_800 { get; set; } = new("b-caret-green-800","dark:b-caret-green-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Green_800 { get; set; } = new("caret-green-800","dark:caret-green-200"); </v>
       </c>
       <c r="I78">
         <f t="shared" ref="I78:J78" si="87">I69</f>
@@ -5629,35 +5630,35 @@
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Green_900 { get; set; } = new("b-text-green-900","dark:b-text-green-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Green_900 { get; set; } = new("text-green-900","dark:text-green-100"); </v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Green_900 { get; set; } = new("b-bg-green-900","dark:b-bg-green-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Green_900 { get; set; } = new("bg-green-900","dark:bg-green-100"); </v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Green_900 { get; set; } = new("b-border-green-900","dark:b-border-green-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Green_900 { get; set; } = new("border-green-900","dark:border-green-100"); </v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Green_900 { get; set; } = new("b-divide-green-900","dark:b-divide-green-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Green_900 { get; set; } = new("divide-green-900","dark:divide-green-100"); </v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Green_900 { get; set; } = new("b-outline-green-900","dark:b-outline-green-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Green_900 { get; set; } = new("outline-green-900","dark:outline-green-100"); </v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Green_900 { get; set; } = new("b-ring-green-900","dark:b-ring-green-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Green_900 { get; set; } = new("ring-green-900","dark:ring-green-100"); </v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Green_900 { get; set; } = new("b-accent-green-900","dark:b-accent-green-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Green_900 { get; set; } = new("accent-green-900","dark:accent-green-100"); </v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Green_900 { get; set; } = new("b-caret-green-900","dark:b-caret-green-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Green_900 { get; set; } = new("caret-green-900","dark:caret-green-100"); </v>
       </c>
       <c r="I79">
         <f t="shared" ref="I79:J79" si="88">I70</f>
@@ -5698,35 +5699,35 @@
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_100 { get; set; } = new("b-text-emerald-100","dark:b-text-emerald-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_100 { get; set; } = new("text-emerald-100","dark:text-emerald-900"); </v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_100 { get; set; } = new("b-bg-emerald-100","dark:b-bg-emerald-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_100 { get; set; } = new("bg-emerald-100","dark:bg-emerald-900"); </v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_100 { get; set; } = new("b-border-emerald-100","dark:b-border-emerald-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_100 { get; set; } = new("border-emerald-100","dark:border-emerald-900"); </v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_100 { get; set; } = new("b-divide-emerald-100","dark:b-divide-emerald-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_100 { get; set; } = new("divide-emerald-100","dark:divide-emerald-900"); </v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_100 { get; set; } = new("b-outline-emerald-100","dark:b-outline-emerald-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_100 { get; set; } = new("outline-emerald-100","dark:outline-emerald-900"); </v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_100 { get; set; } = new("b-ring-emerald-100","dark:b-ring-emerald-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_100 { get; set; } = new("ring-emerald-100","dark:ring-emerald-900"); </v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_100 { get; set; } = new("b-accent-emerald-100","dark:b-accent-emerald-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_100 { get; set; } = new("accent-emerald-100","dark:accent-emerald-900"); </v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_100 { get; set; } = new("b-caret-emerald-100","dark:b-caret-emerald-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_100 { get; set; } = new("caret-emerald-100","dark:caret-emerald-900"); </v>
       </c>
       <c r="I80">
         <f t="shared" ref="I80:J80" si="89">I71</f>
@@ -5767,35 +5768,35 @@
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_200 { get; set; } = new("b-text-emerald-200","dark:b-text-emerald-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_200 { get; set; } = new("text-emerald-200","dark:text-emerald-800"); </v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_200 { get; set; } = new("b-bg-emerald-200","dark:b-bg-emerald-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_200 { get; set; } = new("bg-emerald-200","dark:bg-emerald-800"); </v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_200 { get; set; } = new("b-border-emerald-200","dark:b-border-emerald-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_200 { get; set; } = new("border-emerald-200","dark:border-emerald-800"); </v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_200 { get; set; } = new("b-divide-emerald-200","dark:b-divide-emerald-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_200 { get; set; } = new("divide-emerald-200","dark:divide-emerald-800"); </v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_200 { get; set; } = new("b-outline-emerald-200","dark:b-outline-emerald-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_200 { get; set; } = new("outline-emerald-200","dark:outline-emerald-800"); </v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_200 { get; set; } = new("b-ring-emerald-200","dark:b-ring-emerald-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_200 { get; set; } = new("ring-emerald-200","dark:ring-emerald-800"); </v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_200 { get; set; } = new("b-accent-emerald-200","dark:b-accent-emerald-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_200 { get; set; } = new("accent-emerald-200","dark:accent-emerald-800"); </v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_200 { get; set; } = new("b-caret-emerald-200","dark:b-caret-emerald-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_200 { get; set; } = new("caret-emerald-200","dark:caret-emerald-800"); </v>
       </c>
       <c r="I81">
         <f t="shared" ref="I81:J81" si="90">I72</f>
@@ -5836,35 +5837,35 @@
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_300 { get; set; } = new("b-text-emerald-300","dark:b-text-emerald-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_300 { get; set; } = new("text-emerald-300","dark:text-emerald-700"); </v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_300 { get; set; } = new("b-bg-emerald-300","dark:b-bg-emerald-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_300 { get; set; } = new("bg-emerald-300","dark:bg-emerald-700"); </v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_300 { get; set; } = new("b-border-emerald-300","dark:b-border-emerald-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_300 { get; set; } = new("border-emerald-300","dark:border-emerald-700"); </v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_300 { get; set; } = new("b-divide-emerald-300","dark:b-divide-emerald-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_300 { get; set; } = new("divide-emerald-300","dark:divide-emerald-700"); </v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_300 { get; set; } = new("b-outline-emerald-300","dark:b-outline-emerald-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_300 { get; set; } = new("outline-emerald-300","dark:outline-emerald-700"); </v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_300 { get; set; } = new("b-ring-emerald-300","dark:b-ring-emerald-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_300 { get; set; } = new("ring-emerald-300","dark:ring-emerald-700"); </v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_300 { get; set; } = new("b-accent-emerald-300","dark:b-accent-emerald-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_300 { get; set; } = new("accent-emerald-300","dark:accent-emerald-700"); </v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_300 { get; set; } = new("b-caret-emerald-300","dark:b-caret-emerald-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_300 { get; set; } = new("caret-emerald-300","dark:caret-emerald-700"); </v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82:J82" si="91">I73</f>
@@ -5905,35 +5906,35 @@
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_400 { get; set; } = new("b-text-emerald-400","dark:b-text-emerald-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_400 { get; set; } = new("text-emerald-400","dark:text-emerald-600"); </v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_400 { get; set; } = new("b-bg-emerald-400","dark:b-bg-emerald-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_400 { get; set; } = new("bg-emerald-400","dark:bg-emerald-600"); </v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_400 { get; set; } = new("b-border-emerald-400","dark:b-border-emerald-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_400 { get; set; } = new("border-emerald-400","dark:border-emerald-600"); </v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_400 { get; set; } = new("b-divide-emerald-400","dark:b-divide-emerald-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_400 { get; set; } = new("divide-emerald-400","dark:divide-emerald-600"); </v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_400 { get; set; } = new("b-outline-emerald-400","dark:b-outline-emerald-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_400 { get; set; } = new("outline-emerald-400","dark:outline-emerald-600"); </v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_400 { get; set; } = new("b-ring-emerald-400","dark:b-ring-emerald-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_400 { get; set; } = new("ring-emerald-400","dark:ring-emerald-600"); </v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_400 { get; set; } = new("b-accent-emerald-400","dark:b-accent-emerald-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_400 { get; set; } = new("accent-emerald-400","dark:accent-emerald-600"); </v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_400 { get; set; } = new("b-caret-emerald-400","dark:b-caret-emerald-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_400 { get; set; } = new("caret-emerald-400","dark:caret-emerald-600"); </v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:J83" si="92">I74</f>
@@ -5974,35 +5975,35 @@
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_500 { get; set; } = new("b-text-emerald-500","dark:b-text-emerald-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_500 { get; set; } = new("text-emerald-500","dark:text-emerald-500"); </v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_500 { get; set; } = new("b-bg-emerald-500","dark:b-bg-emerald-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_500 { get; set; } = new("bg-emerald-500","dark:bg-emerald-500"); </v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_500 { get; set; } = new("b-border-emerald-500","dark:b-border-emerald-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_500 { get; set; } = new("border-emerald-500","dark:border-emerald-500"); </v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_500 { get; set; } = new("b-divide-emerald-500","dark:b-divide-emerald-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_500 { get; set; } = new("divide-emerald-500","dark:divide-emerald-500"); </v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_500 { get; set; } = new("b-outline-emerald-500","dark:b-outline-emerald-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_500 { get; set; } = new("outline-emerald-500","dark:outline-emerald-500"); </v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_500 { get; set; } = new("b-ring-emerald-500","dark:b-ring-emerald-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_500 { get; set; } = new("ring-emerald-500","dark:ring-emerald-500"); </v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_500 { get; set; } = new("b-accent-emerald-500","dark:b-accent-emerald-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_500 { get; set; } = new("accent-emerald-500","dark:accent-emerald-500"); </v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_500 { get; set; } = new("b-caret-emerald-500","dark:b-caret-emerald-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_500 { get; set; } = new("caret-emerald-500","dark:caret-emerald-500"); </v>
       </c>
       <c r="I84">
         <f t="shared" ref="I84:J84" si="93">I75</f>
@@ -6043,35 +6044,35 @@
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_600 { get; set; } = new("b-text-emerald-600","dark:b-text-emerald-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_600 { get; set; } = new("text-emerald-600","dark:text-emerald-400"); </v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_600 { get; set; } = new("b-bg-emerald-600","dark:b-bg-emerald-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_600 { get; set; } = new("bg-emerald-600","dark:bg-emerald-400"); </v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_600 { get; set; } = new("b-border-emerald-600","dark:b-border-emerald-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_600 { get; set; } = new("border-emerald-600","dark:border-emerald-400"); </v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_600 { get; set; } = new("b-divide-emerald-600","dark:b-divide-emerald-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_600 { get; set; } = new("divide-emerald-600","dark:divide-emerald-400"); </v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_600 { get; set; } = new("b-outline-emerald-600","dark:b-outline-emerald-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_600 { get; set; } = new("outline-emerald-600","dark:outline-emerald-400"); </v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_600 { get; set; } = new("b-ring-emerald-600","dark:b-ring-emerald-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_600 { get; set; } = new("ring-emerald-600","dark:ring-emerald-400"); </v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_600 { get; set; } = new("b-accent-emerald-600","dark:b-accent-emerald-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_600 { get; set; } = new("accent-emerald-600","dark:accent-emerald-400"); </v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_600 { get; set; } = new("b-caret-emerald-600","dark:b-caret-emerald-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_600 { get; set; } = new("caret-emerald-600","dark:caret-emerald-400"); </v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85:J85" si="94">I76</f>
@@ -6112,35 +6113,35 @@
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_700 { get; set; } = new("b-text-emerald-700","dark:b-text-emerald-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_700 { get; set; } = new("text-emerald-700","dark:text-emerald-300"); </v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_700 { get; set; } = new("b-bg-emerald-700","dark:b-bg-emerald-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_700 { get; set; } = new("bg-emerald-700","dark:bg-emerald-300"); </v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_700 { get; set; } = new("b-border-emerald-700","dark:b-border-emerald-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_700 { get; set; } = new("border-emerald-700","dark:border-emerald-300"); </v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_700 { get; set; } = new("b-divide-emerald-700","dark:b-divide-emerald-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_700 { get; set; } = new("divide-emerald-700","dark:divide-emerald-300"); </v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_700 { get; set; } = new("b-outline-emerald-700","dark:b-outline-emerald-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_700 { get; set; } = new("outline-emerald-700","dark:outline-emerald-300"); </v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_700 { get; set; } = new("b-ring-emerald-700","dark:b-ring-emerald-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_700 { get; set; } = new("ring-emerald-700","dark:ring-emerald-300"); </v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_700 { get; set; } = new("b-accent-emerald-700","dark:b-accent-emerald-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_700 { get; set; } = new("accent-emerald-700","dark:accent-emerald-300"); </v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_700 { get; set; } = new("b-caret-emerald-700","dark:b-caret-emerald-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_700 { get; set; } = new("caret-emerald-700","dark:caret-emerald-300"); </v>
       </c>
       <c r="I86">
         <f t="shared" ref="I86:J86" si="95">I77</f>
@@ -6181,35 +6182,35 @@
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_800 { get; set; } = new("b-text-emerald-800","dark:b-text-emerald-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_800 { get; set; } = new("text-emerald-800","dark:text-emerald-200"); </v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_800 { get; set; } = new("b-bg-emerald-800","dark:b-bg-emerald-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_800 { get; set; } = new("bg-emerald-800","dark:bg-emerald-200"); </v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_800 { get; set; } = new("b-border-emerald-800","dark:b-border-emerald-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_800 { get; set; } = new("border-emerald-800","dark:border-emerald-200"); </v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_800 { get; set; } = new("b-divide-emerald-800","dark:b-divide-emerald-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_800 { get; set; } = new("divide-emerald-800","dark:divide-emerald-200"); </v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_800 { get; set; } = new("b-outline-emerald-800","dark:b-outline-emerald-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_800 { get; set; } = new("outline-emerald-800","dark:outline-emerald-200"); </v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_800 { get; set; } = new("b-ring-emerald-800","dark:b-ring-emerald-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_800 { get; set; } = new("ring-emerald-800","dark:ring-emerald-200"); </v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_800 { get; set; } = new("b-accent-emerald-800","dark:b-accent-emerald-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_800 { get; set; } = new("accent-emerald-800","dark:accent-emerald-200"); </v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_800 { get; set; } = new("b-caret-emerald-800","dark:b-caret-emerald-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_800 { get; set; } = new("caret-emerald-800","dark:caret-emerald-200"); </v>
       </c>
       <c r="I87">
         <f t="shared" ref="I87:J87" si="96">I78</f>
@@ -6250,35 +6251,35 @@
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Emerald_900 { get; set; } = new("b-text-emerald-900","dark:b-text-emerald-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Emerald_900 { get; set; } = new("text-emerald-900","dark:text-emerald-100"); </v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Emerald_900 { get; set; } = new("b-bg-emerald-900","dark:b-bg-emerald-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Emerald_900 { get; set; } = new("bg-emerald-900","dark:bg-emerald-100"); </v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Emerald_900 { get; set; } = new("b-border-emerald-900","dark:b-border-emerald-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Emerald_900 { get; set; } = new("border-emerald-900","dark:border-emerald-100"); </v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Emerald_900 { get; set; } = new("b-divide-emerald-900","dark:b-divide-emerald-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Emerald_900 { get; set; } = new("divide-emerald-900","dark:divide-emerald-100"); </v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Emerald_900 { get; set; } = new("b-outline-emerald-900","dark:b-outline-emerald-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Emerald_900 { get; set; } = new("outline-emerald-900","dark:outline-emerald-100"); </v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Emerald_900 { get; set; } = new("b-ring-emerald-900","dark:b-ring-emerald-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Emerald_900 { get; set; } = new("ring-emerald-900","dark:ring-emerald-100"); </v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Emerald_900 { get; set; } = new("b-accent-emerald-900","dark:b-accent-emerald-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Emerald_900 { get; set; } = new("accent-emerald-900","dark:accent-emerald-100"); </v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Emerald_900 { get; set; } = new("b-caret-emerald-900","dark:b-caret-emerald-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Emerald_900 { get; set; } = new("caret-emerald-900","dark:caret-emerald-100"); </v>
       </c>
       <c r="I88">
         <f t="shared" ref="I88:J88" si="97">I79</f>
@@ -6319,35 +6320,35 @@
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_100 { get; set; } = new("b-text-teal-100","dark:b-text-teal-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_100 { get; set; } = new("text-teal-100","dark:text-teal-900"); </v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_100 { get; set; } = new("b-bg-teal-100","dark:b-bg-teal-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_100 { get; set; } = new("bg-teal-100","dark:bg-teal-900"); </v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_100 { get; set; } = new("b-border-teal-100","dark:b-border-teal-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_100 { get; set; } = new("border-teal-100","dark:border-teal-900"); </v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_100 { get; set; } = new("b-divide-teal-100","dark:b-divide-teal-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_100 { get; set; } = new("divide-teal-100","dark:divide-teal-900"); </v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_100 { get; set; } = new("b-outline-teal-100","dark:b-outline-teal-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_100 { get; set; } = new("outline-teal-100","dark:outline-teal-900"); </v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_100 { get; set; } = new("b-ring-teal-100","dark:b-ring-teal-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_100 { get; set; } = new("ring-teal-100","dark:ring-teal-900"); </v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_100 { get; set; } = new("b-accent-teal-100","dark:b-accent-teal-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_100 { get; set; } = new("accent-teal-100","dark:accent-teal-900"); </v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_100 { get; set; } = new("b-caret-teal-100","dark:b-caret-teal-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_100 { get; set; } = new("caret-teal-100","dark:caret-teal-900"); </v>
       </c>
       <c r="I89">
         <f t="shared" ref="I89:J89" si="98">I80</f>
@@ -6388,35 +6389,35 @@
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_200 { get; set; } = new("b-text-teal-200","dark:b-text-teal-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_200 { get; set; } = new("text-teal-200","dark:text-teal-800"); </v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_200 { get; set; } = new("b-bg-teal-200","dark:b-bg-teal-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_200 { get; set; } = new("bg-teal-200","dark:bg-teal-800"); </v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_200 { get; set; } = new("b-border-teal-200","dark:b-border-teal-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_200 { get; set; } = new("border-teal-200","dark:border-teal-800"); </v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_200 { get; set; } = new("b-divide-teal-200","dark:b-divide-teal-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_200 { get; set; } = new("divide-teal-200","dark:divide-teal-800"); </v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_200 { get; set; } = new("b-outline-teal-200","dark:b-outline-teal-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_200 { get; set; } = new("outline-teal-200","dark:outline-teal-800"); </v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_200 { get; set; } = new("b-ring-teal-200","dark:b-ring-teal-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_200 { get; set; } = new("ring-teal-200","dark:ring-teal-800"); </v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_200 { get; set; } = new("b-accent-teal-200","dark:b-accent-teal-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_200 { get; set; } = new("accent-teal-200","dark:accent-teal-800"); </v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_200 { get; set; } = new("b-caret-teal-200","dark:b-caret-teal-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_200 { get; set; } = new("caret-teal-200","dark:caret-teal-800"); </v>
       </c>
       <c r="I90">
         <f t="shared" ref="I90:J90" si="99">I81</f>
@@ -6457,35 +6458,35 @@
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_300 { get; set; } = new("b-text-teal-300","dark:b-text-teal-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_300 { get; set; } = new("text-teal-300","dark:text-teal-700"); </v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_300 { get; set; } = new("b-bg-teal-300","dark:b-bg-teal-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_300 { get; set; } = new("bg-teal-300","dark:bg-teal-700"); </v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_300 { get; set; } = new("b-border-teal-300","dark:b-border-teal-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_300 { get; set; } = new("border-teal-300","dark:border-teal-700"); </v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_300 { get; set; } = new("b-divide-teal-300","dark:b-divide-teal-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_300 { get; set; } = new("divide-teal-300","dark:divide-teal-700"); </v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_300 { get; set; } = new("b-outline-teal-300","dark:b-outline-teal-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_300 { get; set; } = new("outline-teal-300","dark:outline-teal-700"); </v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_300 { get; set; } = new("b-ring-teal-300","dark:b-ring-teal-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_300 { get; set; } = new("ring-teal-300","dark:ring-teal-700"); </v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_300 { get; set; } = new("b-accent-teal-300","dark:b-accent-teal-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_300 { get; set; } = new("accent-teal-300","dark:accent-teal-700"); </v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_300 { get; set; } = new("b-caret-teal-300","dark:b-caret-teal-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_300 { get; set; } = new("caret-teal-300","dark:caret-teal-700"); </v>
       </c>
       <c r="I91">
         <f t="shared" ref="I91:J91" si="100">I82</f>
@@ -6526,35 +6527,35 @@
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_400 { get; set; } = new("b-text-teal-400","dark:b-text-teal-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_400 { get; set; } = new("text-teal-400","dark:text-teal-600"); </v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_400 { get; set; } = new("b-bg-teal-400","dark:b-bg-teal-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_400 { get; set; } = new("bg-teal-400","dark:bg-teal-600"); </v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_400 { get; set; } = new("b-border-teal-400","dark:b-border-teal-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_400 { get; set; } = new("border-teal-400","dark:border-teal-600"); </v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_400 { get; set; } = new("b-divide-teal-400","dark:b-divide-teal-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_400 { get; set; } = new("divide-teal-400","dark:divide-teal-600"); </v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_400 { get; set; } = new("b-outline-teal-400","dark:b-outline-teal-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_400 { get; set; } = new("outline-teal-400","dark:outline-teal-600"); </v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_400 { get; set; } = new("b-ring-teal-400","dark:b-ring-teal-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_400 { get; set; } = new("ring-teal-400","dark:ring-teal-600"); </v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_400 { get; set; } = new("b-accent-teal-400","dark:b-accent-teal-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_400 { get; set; } = new("accent-teal-400","dark:accent-teal-600"); </v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_400 { get; set; } = new("b-caret-teal-400","dark:b-caret-teal-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_400 { get; set; } = new("caret-teal-400","dark:caret-teal-600"); </v>
       </c>
       <c r="I92">
         <f t="shared" ref="I92:J92" si="101">I83</f>
@@ -6595,35 +6596,35 @@
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_500 { get; set; } = new("b-text-teal-500","dark:b-text-teal-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_500 { get; set; } = new("text-teal-500","dark:text-teal-500"); </v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_500 { get; set; } = new("b-bg-teal-500","dark:b-bg-teal-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_500 { get; set; } = new("bg-teal-500","dark:bg-teal-500"); </v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_500 { get; set; } = new("b-border-teal-500","dark:b-border-teal-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_500 { get; set; } = new("border-teal-500","dark:border-teal-500"); </v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_500 { get; set; } = new("b-divide-teal-500","dark:b-divide-teal-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_500 { get; set; } = new("divide-teal-500","dark:divide-teal-500"); </v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_500 { get; set; } = new("b-outline-teal-500","dark:b-outline-teal-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_500 { get; set; } = new("outline-teal-500","dark:outline-teal-500"); </v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_500 { get; set; } = new("b-ring-teal-500","dark:b-ring-teal-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_500 { get; set; } = new("ring-teal-500","dark:ring-teal-500"); </v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_500 { get; set; } = new("b-accent-teal-500","dark:b-accent-teal-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_500 { get; set; } = new("accent-teal-500","dark:accent-teal-500"); </v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_500 { get; set; } = new("b-caret-teal-500","dark:b-caret-teal-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_500 { get; set; } = new("caret-teal-500","dark:caret-teal-500"); </v>
       </c>
       <c r="I93">
         <f t="shared" ref="I93:J93" si="102">I84</f>
@@ -6664,35 +6665,35 @@
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_600 { get; set; } = new("b-text-teal-600","dark:b-text-teal-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_600 { get; set; } = new("text-teal-600","dark:text-teal-400"); </v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_600 { get; set; } = new("b-bg-teal-600","dark:b-bg-teal-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_600 { get; set; } = new("bg-teal-600","dark:bg-teal-400"); </v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_600 { get; set; } = new("b-border-teal-600","dark:b-border-teal-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_600 { get; set; } = new("border-teal-600","dark:border-teal-400"); </v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_600 { get; set; } = new("b-divide-teal-600","dark:b-divide-teal-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_600 { get; set; } = new("divide-teal-600","dark:divide-teal-400"); </v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_600 { get; set; } = new("b-outline-teal-600","dark:b-outline-teal-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_600 { get; set; } = new("outline-teal-600","dark:outline-teal-400"); </v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_600 { get; set; } = new("b-ring-teal-600","dark:b-ring-teal-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_600 { get; set; } = new("ring-teal-600","dark:ring-teal-400"); </v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_600 { get; set; } = new("b-accent-teal-600","dark:b-accent-teal-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_600 { get; set; } = new("accent-teal-600","dark:accent-teal-400"); </v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_600 { get; set; } = new("b-caret-teal-600","dark:b-caret-teal-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_600 { get; set; } = new("caret-teal-600","dark:caret-teal-400"); </v>
       </c>
       <c r="I94">
         <f t="shared" ref="I94:J94" si="103">I85</f>
@@ -6733,35 +6734,35 @@
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_700 { get; set; } = new("b-text-teal-700","dark:b-text-teal-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_700 { get; set; } = new("text-teal-700","dark:text-teal-300"); </v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_700 { get; set; } = new("b-bg-teal-700","dark:b-bg-teal-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_700 { get; set; } = new("bg-teal-700","dark:bg-teal-300"); </v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_700 { get; set; } = new("b-border-teal-700","dark:b-border-teal-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_700 { get; set; } = new("border-teal-700","dark:border-teal-300"); </v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_700 { get; set; } = new("b-divide-teal-700","dark:b-divide-teal-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_700 { get; set; } = new("divide-teal-700","dark:divide-teal-300"); </v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_700 { get; set; } = new("b-outline-teal-700","dark:b-outline-teal-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_700 { get; set; } = new("outline-teal-700","dark:outline-teal-300"); </v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_700 { get; set; } = new("b-ring-teal-700","dark:b-ring-teal-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_700 { get; set; } = new("ring-teal-700","dark:ring-teal-300"); </v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_700 { get; set; } = new("b-accent-teal-700","dark:b-accent-teal-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_700 { get; set; } = new("accent-teal-700","dark:accent-teal-300"); </v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_700 { get; set; } = new("b-caret-teal-700","dark:b-caret-teal-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_700 { get; set; } = new("caret-teal-700","dark:caret-teal-300"); </v>
       </c>
       <c r="I95">
         <f t="shared" ref="I95:J95" si="104">I86</f>
@@ -6802,35 +6803,35 @@
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_800 { get; set; } = new("b-text-teal-800","dark:b-text-teal-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_800 { get; set; } = new("text-teal-800","dark:text-teal-200"); </v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_800 { get; set; } = new("b-bg-teal-800","dark:b-bg-teal-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_800 { get; set; } = new("bg-teal-800","dark:bg-teal-200"); </v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_800 { get; set; } = new("b-border-teal-800","dark:b-border-teal-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_800 { get; set; } = new("border-teal-800","dark:border-teal-200"); </v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_800 { get; set; } = new("b-divide-teal-800","dark:b-divide-teal-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_800 { get; set; } = new("divide-teal-800","dark:divide-teal-200"); </v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_800 { get; set; } = new("b-outline-teal-800","dark:b-outline-teal-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_800 { get; set; } = new("outline-teal-800","dark:outline-teal-200"); </v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_800 { get; set; } = new("b-ring-teal-800","dark:b-ring-teal-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_800 { get; set; } = new("ring-teal-800","dark:ring-teal-200"); </v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_800 { get; set; } = new("b-accent-teal-800","dark:b-accent-teal-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_800 { get; set; } = new("accent-teal-800","dark:accent-teal-200"); </v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_800 { get; set; } = new("b-caret-teal-800","dark:b-caret-teal-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_800 { get; set; } = new("caret-teal-800","dark:caret-teal-200"); </v>
       </c>
       <c r="I96">
         <f t="shared" ref="I96:J96" si="105">I87</f>
@@ -6871,35 +6872,35 @@
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Teal_900 { get; set; } = new("b-text-teal-900","dark:b-text-teal-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Teal_900 { get; set; } = new("text-teal-900","dark:text-teal-100"); </v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Teal_900 { get; set; } = new("b-bg-teal-900","dark:b-bg-teal-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Teal_900 { get; set; } = new("bg-teal-900","dark:bg-teal-100"); </v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Teal_900 { get; set; } = new("b-border-teal-900","dark:b-border-teal-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Teal_900 { get; set; } = new("border-teal-900","dark:border-teal-100"); </v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Teal_900 { get; set; } = new("b-divide-teal-900","dark:b-divide-teal-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Teal_900 { get; set; } = new("divide-teal-900","dark:divide-teal-100"); </v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Teal_900 { get; set; } = new("b-outline-teal-900","dark:b-outline-teal-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Teal_900 { get; set; } = new("outline-teal-900","dark:outline-teal-100"); </v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Teal_900 { get; set; } = new("b-ring-teal-900","dark:b-ring-teal-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Teal_900 { get; set; } = new("ring-teal-900","dark:ring-teal-100"); </v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Teal_900 { get; set; } = new("b-accent-teal-900","dark:b-accent-teal-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Teal_900 { get; set; } = new("accent-teal-900","dark:accent-teal-100"); </v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Teal_900 { get; set; } = new("b-caret-teal-900","dark:b-caret-teal-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Teal_900 { get; set; } = new("caret-teal-900","dark:caret-teal-100"); </v>
       </c>
       <c r="I97">
         <f t="shared" ref="I97:J97" si="106">I88</f>
@@ -6940,35 +6941,35 @@
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_100 { get; set; } = new("b-text-cyan-100","dark:b-text-cyan-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_100 { get; set; } = new("text-cyan-100","dark:text-cyan-900"); </v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_100 { get; set; } = new("b-bg-cyan-100","dark:b-bg-cyan-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_100 { get; set; } = new("bg-cyan-100","dark:bg-cyan-900"); </v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_100 { get; set; } = new("b-border-cyan-100","dark:b-border-cyan-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_100 { get; set; } = new("border-cyan-100","dark:border-cyan-900"); </v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_100 { get; set; } = new("b-divide-cyan-100","dark:b-divide-cyan-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_100 { get; set; } = new("divide-cyan-100","dark:divide-cyan-900"); </v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_100 { get; set; } = new("b-outline-cyan-100","dark:b-outline-cyan-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_100 { get; set; } = new("outline-cyan-100","dark:outline-cyan-900"); </v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_100 { get; set; } = new("b-ring-cyan-100","dark:b-ring-cyan-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_100 { get; set; } = new("ring-cyan-100","dark:ring-cyan-900"); </v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_100 { get; set; } = new("b-accent-cyan-100","dark:b-accent-cyan-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_100 { get; set; } = new("accent-cyan-100","dark:accent-cyan-900"); </v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_100 { get; set; } = new("b-caret-cyan-100","dark:b-caret-cyan-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_100 { get; set; } = new("caret-cyan-100","dark:caret-cyan-900"); </v>
       </c>
       <c r="I98">
         <f t="shared" ref="I98:J98" si="107">I89</f>
@@ -7009,35 +7010,35 @@
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_200 { get; set; } = new("b-text-cyan-200","dark:b-text-cyan-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_200 { get; set; } = new("text-cyan-200","dark:text-cyan-800"); </v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_200 { get; set; } = new("b-bg-cyan-200","dark:b-bg-cyan-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_200 { get; set; } = new("bg-cyan-200","dark:bg-cyan-800"); </v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_200 { get; set; } = new("b-border-cyan-200","dark:b-border-cyan-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_200 { get; set; } = new("border-cyan-200","dark:border-cyan-800"); </v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_200 { get; set; } = new("b-divide-cyan-200","dark:b-divide-cyan-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_200 { get; set; } = new("divide-cyan-200","dark:divide-cyan-800"); </v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_200 { get; set; } = new("b-outline-cyan-200","dark:b-outline-cyan-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_200 { get; set; } = new("outline-cyan-200","dark:outline-cyan-800"); </v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_200 { get; set; } = new("b-ring-cyan-200","dark:b-ring-cyan-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_200 { get; set; } = new("ring-cyan-200","dark:ring-cyan-800"); </v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_200 { get; set; } = new("b-accent-cyan-200","dark:b-accent-cyan-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_200 { get; set; } = new("accent-cyan-200","dark:accent-cyan-800"); </v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_200 { get; set; } = new("b-caret-cyan-200","dark:b-caret-cyan-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_200 { get; set; } = new("caret-cyan-200","dark:caret-cyan-800"); </v>
       </c>
       <c r="I99">
         <f t="shared" ref="I99:J99" si="108">I90</f>
@@ -7078,35 +7079,35 @@
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_300 { get; set; } = new("b-text-cyan-300","dark:b-text-cyan-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_300 { get; set; } = new("text-cyan-300","dark:text-cyan-700"); </v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_300 { get; set; } = new("b-bg-cyan-300","dark:b-bg-cyan-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_300 { get; set; } = new("bg-cyan-300","dark:bg-cyan-700"); </v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_300 { get; set; } = new("b-border-cyan-300","dark:b-border-cyan-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_300 { get; set; } = new("border-cyan-300","dark:border-cyan-700"); </v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_300 { get; set; } = new("b-divide-cyan-300","dark:b-divide-cyan-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_300 { get; set; } = new("divide-cyan-300","dark:divide-cyan-700"); </v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_300 { get; set; } = new("b-outline-cyan-300","dark:b-outline-cyan-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_300 { get; set; } = new("outline-cyan-300","dark:outline-cyan-700"); </v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_300 { get; set; } = new("b-ring-cyan-300","dark:b-ring-cyan-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_300 { get; set; } = new("ring-cyan-300","dark:ring-cyan-700"); </v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_300 { get; set; } = new("b-accent-cyan-300","dark:b-accent-cyan-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_300 { get; set; } = new("accent-cyan-300","dark:accent-cyan-700"); </v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_300 { get; set; } = new("b-caret-cyan-300","dark:b-caret-cyan-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_300 { get; set; } = new("caret-cyan-300","dark:caret-cyan-700"); </v>
       </c>
       <c r="I100">
         <f t="shared" ref="I100:J100" si="109">I91</f>
@@ -7147,35 +7148,35 @@
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_400 { get; set; } = new("b-text-cyan-400","dark:b-text-cyan-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_400 { get; set; } = new("text-cyan-400","dark:text-cyan-600"); </v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_400 { get; set; } = new("b-bg-cyan-400","dark:b-bg-cyan-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_400 { get; set; } = new("bg-cyan-400","dark:bg-cyan-600"); </v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_400 { get; set; } = new("b-border-cyan-400","dark:b-border-cyan-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_400 { get; set; } = new("border-cyan-400","dark:border-cyan-600"); </v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_400 { get; set; } = new("b-divide-cyan-400","dark:b-divide-cyan-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_400 { get; set; } = new("divide-cyan-400","dark:divide-cyan-600"); </v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_400 { get; set; } = new("b-outline-cyan-400","dark:b-outline-cyan-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_400 { get; set; } = new("outline-cyan-400","dark:outline-cyan-600"); </v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_400 { get; set; } = new("b-ring-cyan-400","dark:b-ring-cyan-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_400 { get; set; } = new("ring-cyan-400","dark:ring-cyan-600"); </v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_400 { get; set; } = new("b-accent-cyan-400","dark:b-accent-cyan-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_400 { get; set; } = new("accent-cyan-400","dark:accent-cyan-600"); </v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_400 { get; set; } = new("b-caret-cyan-400","dark:b-caret-cyan-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_400 { get; set; } = new("caret-cyan-400","dark:caret-cyan-600"); </v>
       </c>
       <c r="I101">
         <f t="shared" ref="I101:J101" si="110">I92</f>
@@ -7216,35 +7217,35 @@
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_500 { get; set; } = new("b-text-cyan-500","dark:b-text-cyan-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_500 { get; set; } = new("text-cyan-500","dark:text-cyan-500"); </v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_500 { get; set; } = new("b-bg-cyan-500","dark:b-bg-cyan-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_500 { get; set; } = new("bg-cyan-500","dark:bg-cyan-500"); </v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_500 { get; set; } = new("b-border-cyan-500","dark:b-border-cyan-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_500 { get; set; } = new("border-cyan-500","dark:border-cyan-500"); </v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_500 { get; set; } = new("b-divide-cyan-500","dark:b-divide-cyan-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_500 { get; set; } = new("divide-cyan-500","dark:divide-cyan-500"); </v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_500 { get; set; } = new("b-outline-cyan-500","dark:b-outline-cyan-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_500 { get; set; } = new("outline-cyan-500","dark:outline-cyan-500"); </v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_500 { get; set; } = new("b-ring-cyan-500","dark:b-ring-cyan-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_500 { get; set; } = new("ring-cyan-500","dark:ring-cyan-500"); </v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_500 { get; set; } = new("b-accent-cyan-500","dark:b-accent-cyan-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_500 { get; set; } = new("accent-cyan-500","dark:accent-cyan-500"); </v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_500 { get; set; } = new("b-caret-cyan-500","dark:b-caret-cyan-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_500 { get; set; } = new("caret-cyan-500","dark:caret-cyan-500"); </v>
       </c>
       <c r="I102">
         <f t="shared" ref="I102:J102" si="111">I93</f>
@@ -7285,35 +7286,35 @@
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_600 { get; set; } = new("b-text-cyan-600","dark:b-text-cyan-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_600 { get; set; } = new("text-cyan-600","dark:text-cyan-400"); </v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_600 { get; set; } = new("b-bg-cyan-600","dark:b-bg-cyan-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_600 { get; set; } = new("bg-cyan-600","dark:bg-cyan-400"); </v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_600 { get; set; } = new("b-border-cyan-600","dark:b-border-cyan-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_600 { get; set; } = new("border-cyan-600","dark:border-cyan-400"); </v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_600 { get; set; } = new("b-divide-cyan-600","dark:b-divide-cyan-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_600 { get; set; } = new("divide-cyan-600","dark:divide-cyan-400"); </v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_600 { get; set; } = new("b-outline-cyan-600","dark:b-outline-cyan-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_600 { get; set; } = new("outline-cyan-600","dark:outline-cyan-400"); </v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_600 { get; set; } = new("b-ring-cyan-600","dark:b-ring-cyan-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_600 { get; set; } = new("ring-cyan-600","dark:ring-cyan-400"); </v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_600 { get; set; } = new("b-accent-cyan-600","dark:b-accent-cyan-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_600 { get; set; } = new("accent-cyan-600","dark:accent-cyan-400"); </v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_600 { get; set; } = new("b-caret-cyan-600","dark:b-caret-cyan-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_600 { get; set; } = new("caret-cyan-600","dark:caret-cyan-400"); </v>
       </c>
       <c r="I103">
         <f t="shared" ref="I103:J103" si="112">I94</f>
@@ -7354,35 +7355,35 @@
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_700 { get; set; } = new("b-text-cyan-700","dark:b-text-cyan-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_700 { get; set; } = new("text-cyan-700","dark:text-cyan-300"); </v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_700 { get; set; } = new("b-bg-cyan-700","dark:b-bg-cyan-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_700 { get; set; } = new("bg-cyan-700","dark:bg-cyan-300"); </v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_700 { get; set; } = new("b-border-cyan-700","dark:b-border-cyan-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_700 { get; set; } = new("border-cyan-700","dark:border-cyan-300"); </v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_700 { get; set; } = new("b-divide-cyan-700","dark:b-divide-cyan-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_700 { get; set; } = new("divide-cyan-700","dark:divide-cyan-300"); </v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_700 { get; set; } = new("b-outline-cyan-700","dark:b-outline-cyan-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_700 { get; set; } = new("outline-cyan-700","dark:outline-cyan-300"); </v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_700 { get; set; } = new("b-ring-cyan-700","dark:b-ring-cyan-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_700 { get; set; } = new("ring-cyan-700","dark:ring-cyan-300"); </v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_700 { get; set; } = new("b-accent-cyan-700","dark:b-accent-cyan-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_700 { get; set; } = new("accent-cyan-700","dark:accent-cyan-300"); </v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_700 { get; set; } = new("b-caret-cyan-700","dark:b-caret-cyan-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_700 { get; set; } = new("caret-cyan-700","dark:caret-cyan-300"); </v>
       </c>
       <c r="I104">
         <f t="shared" ref="I104:J104" si="113">I95</f>
@@ -7423,35 +7424,35 @@
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_800 { get; set; } = new("b-text-cyan-800","dark:b-text-cyan-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_800 { get; set; } = new("text-cyan-800","dark:text-cyan-200"); </v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_800 { get; set; } = new("b-bg-cyan-800","dark:b-bg-cyan-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_800 { get; set; } = new("bg-cyan-800","dark:bg-cyan-200"); </v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_800 { get; set; } = new("b-border-cyan-800","dark:b-border-cyan-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_800 { get; set; } = new("border-cyan-800","dark:border-cyan-200"); </v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_800 { get; set; } = new("b-divide-cyan-800","dark:b-divide-cyan-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_800 { get; set; } = new("divide-cyan-800","dark:divide-cyan-200"); </v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_800 { get; set; } = new("b-outline-cyan-800","dark:b-outline-cyan-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_800 { get; set; } = new("outline-cyan-800","dark:outline-cyan-200"); </v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_800 { get; set; } = new("b-ring-cyan-800","dark:b-ring-cyan-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_800 { get; set; } = new("ring-cyan-800","dark:ring-cyan-200"); </v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_800 { get; set; } = new("b-accent-cyan-800","dark:b-accent-cyan-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_800 { get; set; } = new("accent-cyan-800","dark:accent-cyan-200"); </v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_800 { get; set; } = new("b-caret-cyan-800","dark:b-caret-cyan-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_800 { get; set; } = new("caret-cyan-800","dark:caret-cyan-200"); </v>
       </c>
       <c r="I105">
         <f t="shared" ref="I105:J105" si="114">I96</f>
@@ -7492,35 +7493,35 @@
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Cyan_900 { get; set; } = new("b-text-cyan-900","dark:b-text-cyan-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Cyan_900 { get; set; } = new("text-cyan-900","dark:text-cyan-100"); </v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Cyan_900 { get; set; } = new("b-bg-cyan-900","dark:b-bg-cyan-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Cyan_900 { get; set; } = new("bg-cyan-900","dark:bg-cyan-100"); </v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Cyan_900 { get; set; } = new("b-border-cyan-900","dark:b-border-cyan-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Cyan_900 { get; set; } = new("border-cyan-900","dark:border-cyan-100"); </v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Cyan_900 { get; set; } = new("b-divide-cyan-900","dark:b-divide-cyan-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Cyan_900 { get; set; } = new("divide-cyan-900","dark:divide-cyan-100"); </v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Cyan_900 { get; set; } = new("b-outline-cyan-900","dark:b-outline-cyan-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Cyan_900 { get; set; } = new("outline-cyan-900","dark:outline-cyan-100"); </v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Cyan_900 { get; set; } = new("b-ring-cyan-900","dark:b-ring-cyan-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Cyan_900 { get; set; } = new("ring-cyan-900","dark:ring-cyan-100"); </v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Cyan_900 { get; set; } = new("b-accent-cyan-900","dark:b-accent-cyan-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Cyan_900 { get; set; } = new("accent-cyan-900","dark:accent-cyan-100"); </v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Cyan_900 { get; set; } = new("b-caret-cyan-900","dark:b-caret-cyan-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Cyan_900 { get; set; } = new("caret-cyan-900","dark:caret-cyan-100"); </v>
       </c>
       <c r="I106">
         <f t="shared" ref="I106:J106" si="115">I97</f>
@@ -7561,35 +7562,35 @@
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_100 { get; set; } = new("b-text-sky-100","dark:b-text-sky-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_100 { get; set; } = new("text-sky-100","dark:text-sky-900"); </v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_100 { get; set; } = new("b-bg-sky-100","dark:b-bg-sky-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_100 { get; set; } = new("bg-sky-100","dark:bg-sky-900"); </v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_100 { get; set; } = new("b-border-sky-100","dark:b-border-sky-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_100 { get; set; } = new("border-sky-100","dark:border-sky-900"); </v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_100 { get; set; } = new("b-divide-sky-100","dark:b-divide-sky-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_100 { get; set; } = new("divide-sky-100","dark:divide-sky-900"); </v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_100 { get; set; } = new("b-outline-sky-100","dark:b-outline-sky-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_100 { get; set; } = new("outline-sky-100","dark:outline-sky-900"); </v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_100 { get; set; } = new("b-ring-sky-100","dark:b-ring-sky-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_100 { get; set; } = new("ring-sky-100","dark:ring-sky-900"); </v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_100 { get; set; } = new("b-accent-sky-100","dark:b-accent-sky-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_100 { get; set; } = new("accent-sky-100","dark:accent-sky-900"); </v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_100 { get; set; } = new("b-caret-sky-100","dark:b-caret-sky-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_100 { get; set; } = new("caret-sky-100","dark:caret-sky-900"); </v>
       </c>
       <c r="I107">
         <f t="shared" ref="I107:J107" si="116">I98</f>
@@ -7630,35 +7631,35 @@
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_200 { get; set; } = new("b-text-sky-200","dark:b-text-sky-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_200 { get; set; } = new("text-sky-200","dark:text-sky-800"); </v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_200 { get; set; } = new("b-bg-sky-200","dark:b-bg-sky-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_200 { get; set; } = new("bg-sky-200","dark:bg-sky-800"); </v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_200 { get; set; } = new("b-border-sky-200","dark:b-border-sky-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_200 { get; set; } = new("border-sky-200","dark:border-sky-800"); </v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_200 { get; set; } = new("b-divide-sky-200","dark:b-divide-sky-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_200 { get; set; } = new("divide-sky-200","dark:divide-sky-800"); </v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_200 { get; set; } = new("b-outline-sky-200","dark:b-outline-sky-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_200 { get; set; } = new("outline-sky-200","dark:outline-sky-800"); </v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_200 { get; set; } = new("b-ring-sky-200","dark:b-ring-sky-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_200 { get; set; } = new("ring-sky-200","dark:ring-sky-800"); </v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_200 { get; set; } = new("b-accent-sky-200","dark:b-accent-sky-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_200 { get; set; } = new("accent-sky-200","dark:accent-sky-800"); </v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_200 { get; set; } = new("b-caret-sky-200","dark:b-caret-sky-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_200 { get; set; } = new("caret-sky-200","dark:caret-sky-800"); </v>
       </c>
       <c r="I108">
         <f t="shared" ref="I108:J108" si="117">I99</f>
@@ -7699,35 +7700,35 @@
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_300 { get; set; } = new("b-text-sky-300","dark:b-text-sky-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_300 { get; set; } = new("text-sky-300","dark:text-sky-700"); </v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_300 { get; set; } = new("b-bg-sky-300","dark:b-bg-sky-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_300 { get; set; } = new("bg-sky-300","dark:bg-sky-700"); </v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_300 { get; set; } = new("b-border-sky-300","dark:b-border-sky-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_300 { get; set; } = new("border-sky-300","dark:border-sky-700"); </v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_300 { get; set; } = new("b-divide-sky-300","dark:b-divide-sky-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_300 { get; set; } = new("divide-sky-300","dark:divide-sky-700"); </v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_300 { get; set; } = new("b-outline-sky-300","dark:b-outline-sky-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_300 { get; set; } = new("outline-sky-300","dark:outline-sky-700"); </v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_300 { get; set; } = new("b-ring-sky-300","dark:b-ring-sky-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_300 { get; set; } = new("ring-sky-300","dark:ring-sky-700"); </v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_300 { get; set; } = new("b-accent-sky-300","dark:b-accent-sky-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_300 { get; set; } = new("accent-sky-300","dark:accent-sky-700"); </v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_300 { get; set; } = new("b-caret-sky-300","dark:b-caret-sky-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_300 { get; set; } = new("caret-sky-300","dark:caret-sky-700"); </v>
       </c>
       <c r="I109">
         <f t="shared" ref="I109:J109" si="118">I100</f>
@@ -7768,35 +7769,35 @@
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_400 { get; set; } = new("b-text-sky-400","dark:b-text-sky-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_400 { get; set; } = new("text-sky-400","dark:text-sky-600"); </v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_400 { get; set; } = new("b-bg-sky-400","dark:b-bg-sky-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_400 { get; set; } = new("bg-sky-400","dark:bg-sky-600"); </v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_400 { get; set; } = new("b-border-sky-400","dark:b-border-sky-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_400 { get; set; } = new("border-sky-400","dark:border-sky-600"); </v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_400 { get; set; } = new("b-divide-sky-400","dark:b-divide-sky-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_400 { get; set; } = new("divide-sky-400","dark:divide-sky-600"); </v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_400 { get; set; } = new("b-outline-sky-400","dark:b-outline-sky-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_400 { get; set; } = new("outline-sky-400","dark:outline-sky-600"); </v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_400 { get; set; } = new("b-ring-sky-400","dark:b-ring-sky-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_400 { get; set; } = new("ring-sky-400","dark:ring-sky-600"); </v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_400 { get; set; } = new("b-accent-sky-400","dark:b-accent-sky-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_400 { get; set; } = new("accent-sky-400","dark:accent-sky-600"); </v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_400 { get; set; } = new("b-caret-sky-400","dark:b-caret-sky-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_400 { get; set; } = new("caret-sky-400","dark:caret-sky-600"); </v>
       </c>
       <c r="I110">
         <f t="shared" ref="I110:J110" si="119">I101</f>
@@ -7837,35 +7838,35 @@
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_500 { get; set; } = new("b-text-sky-500","dark:b-text-sky-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_500 { get; set; } = new("text-sky-500","dark:text-sky-500"); </v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_500 { get; set; } = new("b-bg-sky-500","dark:b-bg-sky-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_500 { get; set; } = new("bg-sky-500","dark:bg-sky-500"); </v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_500 { get; set; } = new("b-border-sky-500","dark:b-border-sky-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_500 { get; set; } = new("border-sky-500","dark:border-sky-500"); </v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_500 { get; set; } = new("b-divide-sky-500","dark:b-divide-sky-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_500 { get; set; } = new("divide-sky-500","dark:divide-sky-500"); </v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_500 { get; set; } = new("b-outline-sky-500","dark:b-outline-sky-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_500 { get; set; } = new("outline-sky-500","dark:outline-sky-500"); </v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_500 { get; set; } = new("b-ring-sky-500","dark:b-ring-sky-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_500 { get; set; } = new("ring-sky-500","dark:ring-sky-500"); </v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_500 { get; set; } = new("b-accent-sky-500","dark:b-accent-sky-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_500 { get; set; } = new("accent-sky-500","dark:accent-sky-500"); </v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_500 { get; set; } = new("b-caret-sky-500","dark:b-caret-sky-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_500 { get; set; } = new("caret-sky-500","dark:caret-sky-500"); </v>
       </c>
       <c r="I111">
         <f t="shared" ref="I111:J111" si="120">I102</f>
@@ -7906,35 +7907,35 @@
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_600 { get; set; } = new("b-text-sky-600","dark:b-text-sky-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_600 { get; set; } = new("text-sky-600","dark:text-sky-400"); </v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_600 { get; set; } = new("b-bg-sky-600","dark:b-bg-sky-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_600 { get; set; } = new("bg-sky-600","dark:bg-sky-400"); </v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_600 { get; set; } = new("b-border-sky-600","dark:b-border-sky-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_600 { get; set; } = new("border-sky-600","dark:border-sky-400"); </v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_600 { get; set; } = new("b-divide-sky-600","dark:b-divide-sky-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_600 { get; set; } = new("divide-sky-600","dark:divide-sky-400"); </v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_600 { get; set; } = new("b-outline-sky-600","dark:b-outline-sky-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_600 { get; set; } = new("outline-sky-600","dark:outline-sky-400"); </v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_600 { get; set; } = new("b-ring-sky-600","dark:b-ring-sky-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_600 { get; set; } = new("ring-sky-600","dark:ring-sky-400"); </v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_600 { get; set; } = new("b-accent-sky-600","dark:b-accent-sky-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_600 { get; set; } = new("accent-sky-600","dark:accent-sky-400"); </v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_600 { get; set; } = new("b-caret-sky-600","dark:b-caret-sky-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_600 { get; set; } = new("caret-sky-600","dark:caret-sky-400"); </v>
       </c>
       <c r="I112">
         <f t="shared" ref="I112:J112" si="121">I103</f>
@@ -7975,35 +7976,35 @@
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_700 { get; set; } = new("b-text-sky-700","dark:b-text-sky-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_700 { get; set; } = new("text-sky-700","dark:text-sky-300"); </v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_700 { get; set; } = new("b-bg-sky-700","dark:b-bg-sky-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_700 { get; set; } = new("bg-sky-700","dark:bg-sky-300"); </v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_700 { get; set; } = new("b-border-sky-700","dark:b-border-sky-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_700 { get; set; } = new("border-sky-700","dark:border-sky-300"); </v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_700 { get; set; } = new("b-divide-sky-700","dark:b-divide-sky-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_700 { get; set; } = new("divide-sky-700","dark:divide-sky-300"); </v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_700 { get; set; } = new("b-outline-sky-700","dark:b-outline-sky-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_700 { get; set; } = new("outline-sky-700","dark:outline-sky-300"); </v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_700 { get; set; } = new("b-ring-sky-700","dark:b-ring-sky-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_700 { get; set; } = new("ring-sky-700","dark:ring-sky-300"); </v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_700 { get; set; } = new("b-accent-sky-700","dark:b-accent-sky-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_700 { get; set; } = new("accent-sky-700","dark:accent-sky-300"); </v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_700 { get; set; } = new("b-caret-sky-700","dark:b-caret-sky-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_700 { get; set; } = new("caret-sky-700","dark:caret-sky-300"); </v>
       </c>
       <c r="I113">
         <f t="shared" ref="I113:J113" si="122">I104</f>
@@ -8044,35 +8045,35 @@
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_800 { get; set; } = new("b-text-sky-800","dark:b-text-sky-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_800 { get; set; } = new("text-sky-800","dark:text-sky-200"); </v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_800 { get; set; } = new("b-bg-sky-800","dark:b-bg-sky-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_800 { get; set; } = new("bg-sky-800","dark:bg-sky-200"); </v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_800 { get; set; } = new("b-border-sky-800","dark:b-border-sky-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_800 { get; set; } = new("border-sky-800","dark:border-sky-200"); </v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_800 { get; set; } = new("b-divide-sky-800","dark:b-divide-sky-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_800 { get; set; } = new("divide-sky-800","dark:divide-sky-200"); </v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_800 { get; set; } = new("b-outline-sky-800","dark:b-outline-sky-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_800 { get; set; } = new("outline-sky-800","dark:outline-sky-200"); </v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_800 { get; set; } = new("b-ring-sky-800","dark:b-ring-sky-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_800 { get; set; } = new("ring-sky-800","dark:ring-sky-200"); </v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_800 { get; set; } = new("b-accent-sky-800","dark:b-accent-sky-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_800 { get; set; } = new("accent-sky-800","dark:accent-sky-200"); </v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_800 { get; set; } = new("b-caret-sky-800","dark:b-caret-sky-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_800 { get; set; } = new("caret-sky-800","dark:caret-sky-200"); </v>
       </c>
       <c r="I114">
         <f t="shared" ref="I114:J114" si="123">I105</f>
@@ -8113,35 +8114,35 @@
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Sky_900 { get; set; } = new("b-text-sky-900","dark:b-text-sky-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Sky_900 { get; set; } = new("text-sky-900","dark:text-sky-100"); </v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Sky_900 { get; set; } = new("b-bg-sky-900","dark:b-bg-sky-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Sky_900 { get; set; } = new("bg-sky-900","dark:bg-sky-100"); </v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Sky_900 { get; set; } = new("b-border-sky-900","dark:b-border-sky-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Sky_900 { get; set; } = new("border-sky-900","dark:border-sky-100"); </v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Sky_900 { get; set; } = new("b-divide-sky-900","dark:b-divide-sky-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Sky_900 { get; set; } = new("divide-sky-900","dark:divide-sky-100"); </v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Sky_900 { get; set; } = new("b-outline-sky-900","dark:b-outline-sky-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Sky_900 { get; set; } = new("outline-sky-900","dark:outline-sky-100"); </v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Sky_900 { get; set; } = new("b-ring-sky-900","dark:b-ring-sky-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Sky_900 { get; set; } = new("ring-sky-900","dark:ring-sky-100"); </v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Sky_900 { get; set; } = new("b-accent-sky-900","dark:b-accent-sky-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Sky_900 { get; set; } = new("accent-sky-900","dark:accent-sky-100"); </v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Sky_900 { get; set; } = new("b-caret-sky-900","dark:b-caret-sky-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Sky_900 { get; set; } = new("caret-sky-900","dark:caret-sky-100"); </v>
       </c>
       <c r="I115">
         <f t="shared" ref="I115:J115" si="124">I106</f>
@@ -8182,35 +8183,35 @@
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_100 { get; set; } = new("b-text-blue-100","dark:b-text-blue-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_100 { get; set; } = new("text-blue-100","dark:text-blue-900"); </v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_100 { get; set; } = new("b-bg-blue-100","dark:b-bg-blue-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_100 { get; set; } = new("bg-blue-100","dark:bg-blue-900"); </v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_100 { get; set; } = new("b-border-blue-100","dark:b-border-blue-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_100 { get; set; } = new("border-blue-100","dark:border-blue-900"); </v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_100 { get; set; } = new("b-divide-blue-100","dark:b-divide-blue-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_100 { get; set; } = new("divide-blue-100","dark:divide-blue-900"); </v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_100 { get; set; } = new("b-outline-blue-100","dark:b-outline-blue-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_100 { get; set; } = new("outline-blue-100","dark:outline-blue-900"); </v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_100 { get; set; } = new("b-ring-blue-100","dark:b-ring-blue-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_100 { get; set; } = new("ring-blue-100","dark:ring-blue-900"); </v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_100 { get; set; } = new("b-accent-blue-100","dark:b-accent-blue-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_100 { get; set; } = new("accent-blue-100","dark:accent-blue-900"); </v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_100 { get; set; } = new("b-caret-blue-100","dark:b-caret-blue-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_100 { get; set; } = new("caret-blue-100","dark:caret-blue-900"); </v>
       </c>
       <c r="I116">
         <f t="shared" ref="I116:J116" si="125">I107</f>
@@ -8251,35 +8252,35 @@
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_200 { get; set; } = new("b-text-blue-200","dark:b-text-blue-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_200 { get; set; } = new("text-blue-200","dark:text-blue-800"); </v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_200 { get; set; } = new("b-bg-blue-200","dark:b-bg-blue-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_200 { get; set; } = new("bg-blue-200","dark:bg-blue-800"); </v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_200 { get; set; } = new("b-border-blue-200","dark:b-border-blue-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_200 { get; set; } = new("border-blue-200","dark:border-blue-800"); </v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_200 { get; set; } = new("b-divide-blue-200","dark:b-divide-blue-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_200 { get; set; } = new("divide-blue-200","dark:divide-blue-800"); </v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_200 { get; set; } = new("b-outline-blue-200","dark:b-outline-blue-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_200 { get; set; } = new("outline-blue-200","dark:outline-blue-800"); </v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_200 { get; set; } = new("b-ring-blue-200","dark:b-ring-blue-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_200 { get; set; } = new("ring-blue-200","dark:ring-blue-800"); </v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_200 { get; set; } = new("b-accent-blue-200","dark:b-accent-blue-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_200 { get; set; } = new("accent-blue-200","dark:accent-blue-800"); </v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_200 { get; set; } = new("b-caret-blue-200","dark:b-caret-blue-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_200 { get; set; } = new("caret-blue-200","dark:caret-blue-800"); </v>
       </c>
       <c r="I117">
         <f t="shared" ref="I117:J117" si="126">I108</f>
@@ -8320,35 +8321,35 @@
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_300 { get; set; } = new("b-text-blue-300","dark:b-text-blue-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_300 { get; set; } = new("text-blue-300","dark:text-blue-700"); </v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_300 { get; set; } = new("b-bg-blue-300","dark:b-bg-blue-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_300 { get; set; } = new("bg-blue-300","dark:bg-blue-700"); </v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_300 { get; set; } = new("b-border-blue-300","dark:b-border-blue-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_300 { get; set; } = new("border-blue-300","dark:border-blue-700"); </v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_300 { get; set; } = new("b-divide-blue-300","dark:b-divide-blue-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_300 { get; set; } = new("divide-blue-300","dark:divide-blue-700"); </v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_300 { get; set; } = new("b-outline-blue-300","dark:b-outline-blue-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_300 { get; set; } = new("outline-blue-300","dark:outline-blue-700"); </v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_300 { get; set; } = new("b-ring-blue-300","dark:b-ring-blue-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_300 { get; set; } = new("ring-blue-300","dark:ring-blue-700"); </v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_300 { get; set; } = new("b-accent-blue-300","dark:b-accent-blue-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_300 { get; set; } = new("accent-blue-300","dark:accent-blue-700"); </v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_300 { get; set; } = new("b-caret-blue-300","dark:b-caret-blue-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_300 { get; set; } = new("caret-blue-300","dark:caret-blue-700"); </v>
       </c>
       <c r="I118">
         <f t="shared" ref="I118:J118" si="127">I109</f>
@@ -8389,35 +8390,35 @@
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_400 { get; set; } = new("b-text-blue-400","dark:b-text-blue-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_400 { get; set; } = new("text-blue-400","dark:text-blue-600"); </v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_400 { get; set; } = new("b-bg-blue-400","dark:b-bg-blue-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_400 { get; set; } = new("bg-blue-400","dark:bg-blue-600"); </v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_400 { get; set; } = new("b-border-blue-400","dark:b-border-blue-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_400 { get; set; } = new("border-blue-400","dark:border-blue-600"); </v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_400 { get; set; } = new("b-divide-blue-400","dark:b-divide-blue-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_400 { get; set; } = new("divide-blue-400","dark:divide-blue-600"); </v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_400 { get; set; } = new("b-outline-blue-400","dark:b-outline-blue-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_400 { get; set; } = new("outline-blue-400","dark:outline-blue-600"); </v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_400 { get; set; } = new("b-ring-blue-400","dark:b-ring-blue-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_400 { get; set; } = new("ring-blue-400","dark:ring-blue-600"); </v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_400 { get; set; } = new("b-accent-blue-400","dark:b-accent-blue-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_400 { get; set; } = new("accent-blue-400","dark:accent-blue-600"); </v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_400 { get; set; } = new("b-caret-blue-400","dark:b-caret-blue-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_400 { get; set; } = new("caret-blue-400","dark:caret-blue-600"); </v>
       </c>
       <c r="I119">
         <f t="shared" ref="I119:J119" si="128">I110</f>
@@ -8458,35 +8459,35 @@
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_500 { get; set; } = new("b-text-blue-500","dark:b-text-blue-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_500 { get; set; } = new("text-blue-500","dark:text-blue-500"); </v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_500 { get; set; } = new("b-bg-blue-500","dark:b-bg-blue-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_500 { get; set; } = new("bg-blue-500","dark:bg-blue-500"); </v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_500 { get; set; } = new("b-border-blue-500","dark:b-border-blue-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_500 { get; set; } = new("border-blue-500","dark:border-blue-500"); </v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_500 { get; set; } = new("b-divide-blue-500","dark:b-divide-blue-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_500 { get; set; } = new("divide-blue-500","dark:divide-blue-500"); </v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_500 { get; set; } = new("b-outline-blue-500","dark:b-outline-blue-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_500 { get; set; } = new("outline-blue-500","dark:outline-blue-500"); </v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_500 { get; set; } = new("b-ring-blue-500","dark:b-ring-blue-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_500 { get; set; } = new("ring-blue-500","dark:ring-blue-500"); </v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_500 { get; set; } = new("b-accent-blue-500","dark:b-accent-blue-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_500 { get; set; } = new("accent-blue-500","dark:accent-blue-500"); </v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_500 { get; set; } = new("b-caret-blue-500","dark:b-caret-blue-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_500 { get; set; } = new("caret-blue-500","dark:caret-blue-500"); </v>
       </c>
       <c r="I120">
         <f t="shared" ref="I120:J120" si="129">I111</f>
@@ -8527,35 +8528,35 @@
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_600 { get; set; } = new("b-text-blue-600","dark:b-text-blue-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_600 { get; set; } = new("text-blue-600","dark:text-blue-400"); </v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_600 { get; set; } = new("b-bg-blue-600","dark:b-bg-blue-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_600 { get; set; } = new("bg-blue-600","dark:bg-blue-400"); </v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_600 { get; set; } = new("b-border-blue-600","dark:b-border-blue-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_600 { get; set; } = new("border-blue-600","dark:border-blue-400"); </v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_600 { get; set; } = new("b-divide-blue-600","dark:b-divide-blue-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_600 { get; set; } = new("divide-blue-600","dark:divide-blue-400"); </v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_600 { get; set; } = new("b-outline-blue-600","dark:b-outline-blue-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_600 { get; set; } = new("outline-blue-600","dark:outline-blue-400"); </v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_600 { get; set; } = new("b-ring-blue-600","dark:b-ring-blue-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_600 { get; set; } = new("ring-blue-600","dark:ring-blue-400"); </v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_600 { get; set; } = new("b-accent-blue-600","dark:b-accent-blue-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_600 { get; set; } = new("accent-blue-600","dark:accent-blue-400"); </v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_600 { get; set; } = new("b-caret-blue-600","dark:b-caret-blue-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_600 { get; set; } = new("caret-blue-600","dark:caret-blue-400"); </v>
       </c>
       <c r="I121">
         <f t="shared" ref="I121:J121" si="130">I112</f>
@@ -8596,35 +8597,35 @@
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_700 { get; set; } = new("b-text-blue-700","dark:b-text-blue-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_700 { get; set; } = new("text-blue-700","dark:text-blue-300"); </v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_700 { get; set; } = new("b-bg-blue-700","dark:b-bg-blue-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_700 { get; set; } = new("bg-blue-700","dark:bg-blue-300"); </v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_700 { get; set; } = new("b-border-blue-700","dark:b-border-blue-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_700 { get; set; } = new("border-blue-700","dark:border-blue-300"); </v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_700 { get; set; } = new("b-divide-blue-700","dark:b-divide-blue-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_700 { get; set; } = new("divide-blue-700","dark:divide-blue-300"); </v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_700 { get; set; } = new("b-outline-blue-700","dark:b-outline-blue-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_700 { get; set; } = new("outline-blue-700","dark:outline-blue-300"); </v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_700 { get; set; } = new("b-ring-blue-700","dark:b-ring-blue-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_700 { get; set; } = new("ring-blue-700","dark:ring-blue-300"); </v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_700 { get; set; } = new("b-accent-blue-700","dark:b-accent-blue-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_700 { get; set; } = new("accent-blue-700","dark:accent-blue-300"); </v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_700 { get; set; } = new("b-caret-blue-700","dark:b-caret-blue-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_700 { get; set; } = new("caret-blue-700","dark:caret-blue-300"); </v>
       </c>
       <c r="I122">
         <f t="shared" ref="I122:J122" si="131">I113</f>
@@ -8665,35 +8666,35 @@
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_800 { get; set; } = new("b-text-blue-800","dark:b-text-blue-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_800 { get; set; } = new("text-blue-800","dark:text-blue-200"); </v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_800 { get; set; } = new("b-bg-blue-800","dark:b-bg-blue-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_800 { get; set; } = new("bg-blue-800","dark:bg-blue-200"); </v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_800 { get; set; } = new("b-border-blue-800","dark:b-border-blue-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_800 { get; set; } = new("border-blue-800","dark:border-blue-200"); </v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_800 { get; set; } = new("b-divide-blue-800","dark:b-divide-blue-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_800 { get; set; } = new("divide-blue-800","dark:divide-blue-200"); </v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_800 { get; set; } = new("b-outline-blue-800","dark:b-outline-blue-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_800 { get; set; } = new("outline-blue-800","dark:outline-blue-200"); </v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_800 { get; set; } = new("b-ring-blue-800","dark:b-ring-blue-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_800 { get; set; } = new("ring-blue-800","dark:ring-blue-200"); </v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_800 { get; set; } = new("b-accent-blue-800","dark:b-accent-blue-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_800 { get; set; } = new("accent-blue-800","dark:accent-blue-200"); </v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_800 { get; set; } = new("b-caret-blue-800","dark:b-caret-blue-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_800 { get; set; } = new("caret-blue-800","dark:caret-blue-200"); </v>
       </c>
       <c r="I123">
         <f t="shared" ref="I123:J123" si="132">I114</f>
@@ -8734,35 +8735,35 @@
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Blue_900 { get; set; } = new("b-text-blue-900","dark:b-text-blue-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Blue_900 { get; set; } = new("text-blue-900","dark:text-blue-100"); </v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Blue_900 { get; set; } = new("b-bg-blue-900","dark:b-bg-blue-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Blue_900 { get; set; } = new("bg-blue-900","dark:bg-blue-100"); </v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Blue_900 { get; set; } = new("b-border-blue-900","dark:b-border-blue-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Blue_900 { get; set; } = new("border-blue-900","dark:border-blue-100"); </v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Blue_900 { get; set; } = new("b-divide-blue-900","dark:b-divide-blue-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Blue_900 { get; set; } = new("divide-blue-900","dark:divide-blue-100"); </v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Blue_900 { get; set; } = new("b-outline-blue-900","dark:b-outline-blue-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Blue_900 { get; set; } = new("outline-blue-900","dark:outline-blue-100"); </v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Blue_900 { get; set; } = new("b-ring-blue-900","dark:b-ring-blue-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Blue_900 { get; set; } = new("ring-blue-900","dark:ring-blue-100"); </v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Blue_900 { get; set; } = new("b-accent-blue-900","dark:b-accent-blue-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Blue_900 { get; set; } = new("accent-blue-900","dark:accent-blue-100"); </v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Blue_900 { get; set; } = new("b-caret-blue-900","dark:b-caret-blue-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Blue_900 { get; set; } = new("caret-blue-900","dark:caret-blue-100"); </v>
       </c>
       <c r="I124">
         <f t="shared" ref="I124:J124" si="133">I115</f>
@@ -8803,35 +8804,35 @@
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_100 { get; set; } = new("b-text-indigo-100","dark:b-text-indigo-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_100 { get; set; } = new("text-indigo-100","dark:text-indigo-900"); </v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_100 { get; set; } = new("b-bg-indigo-100","dark:b-bg-indigo-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_100 { get; set; } = new("bg-indigo-100","dark:bg-indigo-900"); </v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_100 { get; set; } = new("b-border-indigo-100","dark:b-border-indigo-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_100 { get; set; } = new("border-indigo-100","dark:border-indigo-900"); </v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_100 { get; set; } = new("b-divide-indigo-100","dark:b-divide-indigo-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_100 { get; set; } = new("divide-indigo-100","dark:divide-indigo-900"); </v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_100 { get; set; } = new("b-outline-indigo-100","dark:b-outline-indigo-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_100 { get; set; } = new("outline-indigo-100","dark:outline-indigo-900"); </v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_100 { get; set; } = new("b-ring-indigo-100","dark:b-ring-indigo-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_100 { get; set; } = new("ring-indigo-100","dark:ring-indigo-900"); </v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_100 { get; set; } = new("b-accent-indigo-100","dark:b-accent-indigo-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_100 { get; set; } = new("accent-indigo-100","dark:accent-indigo-900"); </v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_100 { get; set; } = new("b-caret-indigo-100","dark:b-caret-indigo-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_100 { get; set; } = new("caret-indigo-100","dark:caret-indigo-900"); </v>
       </c>
       <c r="I125">
         <f t="shared" ref="I125:J125" si="134">I116</f>
@@ -8872,35 +8873,35 @@
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_200 { get; set; } = new("b-text-indigo-200","dark:b-text-indigo-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_200 { get; set; } = new("text-indigo-200","dark:text-indigo-800"); </v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_200 { get; set; } = new("b-bg-indigo-200","dark:b-bg-indigo-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_200 { get; set; } = new("bg-indigo-200","dark:bg-indigo-800"); </v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_200 { get; set; } = new("b-border-indigo-200","dark:b-border-indigo-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_200 { get; set; } = new("border-indigo-200","dark:border-indigo-800"); </v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_200 { get; set; } = new("b-divide-indigo-200","dark:b-divide-indigo-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_200 { get; set; } = new("divide-indigo-200","dark:divide-indigo-800"); </v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_200 { get; set; } = new("b-outline-indigo-200","dark:b-outline-indigo-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_200 { get; set; } = new("outline-indigo-200","dark:outline-indigo-800"); </v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_200 { get; set; } = new("b-ring-indigo-200","dark:b-ring-indigo-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_200 { get; set; } = new("ring-indigo-200","dark:ring-indigo-800"); </v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_200 { get; set; } = new("b-accent-indigo-200","dark:b-accent-indigo-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_200 { get; set; } = new("accent-indigo-200","dark:accent-indigo-800"); </v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_200 { get; set; } = new("b-caret-indigo-200","dark:b-caret-indigo-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_200 { get; set; } = new("caret-indigo-200","dark:caret-indigo-800"); </v>
       </c>
       <c r="I126">
         <f t="shared" ref="I126:J126" si="135">I117</f>
@@ -8941,35 +8942,35 @@
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_300 { get; set; } = new("b-text-indigo-300","dark:b-text-indigo-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_300 { get; set; } = new("text-indigo-300","dark:text-indigo-700"); </v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_300 { get; set; } = new("b-bg-indigo-300","dark:b-bg-indigo-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_300 { get; set; } = new("bg-indigo-300","dark:bg-indigo-700"); </v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_300 { get; set; } = new("b-border-indigo-300","dark:b-border-indigo-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_300 { get; set; } = new("border-indigo-300","dark:border-indigo-700"); </v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_300 { get; set; } = new("b-divide-indigo-300","dark:b-divide-indigo-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_300 { get; set; } = new("divide-indigo-300","dark:divide-indigo-700"); </v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_300 { get; set; } = new("b-outline-indigo-300","dark:b-outline-indigo-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_300 { get; set; } = new("outline-indigo-300","dark:outline-indigo-700"); </v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_300 { get; set; } = new("b-ring-indigo-300","dark:b-ring-indigo-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_300 { get; set; } = new("ring-indigo-300","dark:ring-indigo-700"); </v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_300 { get; set; } = new("b-accent-indigo-300","dark:b-accent-indigo-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_300 { get; set; } = new("accent-indigo-300","dark:accent-indigo-700"); </v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_300 { get; set; } = new("b-caret-indigo-300","dark:b-caret-indigo-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_300 { get; set; } = new("caret-indigo-300","dark:caret-indigo-700"); </v>
       </c>
       <c r="I127">
         <f t="shared" ref="I127:J127" si="136">I118</f>
@@ -9010,35 +9011,35 @@
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_400 { get; set; } = new("b-text-indigo-400","dark:b-text-indigo-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_400 { get; set; } = new("text-indigo-400","dark:text-indigo-600"); </v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_400 { get; set; } = new("b-bg-indigo-400","dark:b-bg-indigo-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_400 { get; set; } = new("bg-indigo-400","dark:bg-indigo-600"); </v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_400 { get; set; } = new("b-border-indigo-400","dark:b-border-indigo-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_400 { get; set; } = new("border-indigo-400","dark:border-indigo-600"); </v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_400 { get; set; } = new("b-divide-indigo-400","dark:b-divide-indigo-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_400 { get; set; } = new("divide-indigo-400","dark:divide-indigo-600"); </v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_400 { get; set; } = new("b-outline-indigo-400","dark:b-outline-indigo-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_400 { get; set; } = new("outline-indigo-400","dark:outline-indigo-600"); </v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_400 { get; set; } = new("b-ring-indigo-400","dark:b-ring-indigo-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_400 { get; set; } = new("ring-indigo-400","dark:ring-indigo-600"); </v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_400 { get; set; } = new("b-accent-indigo-400","dark:b-accent-indigo-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_400 { get; set; } = new("accent-indigo-400","dark:accent-indigo-600"); </v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_400 { get; set; } = new("b-caret-indigo-400","dark:b-caret-indigo-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_400 { get; set; } = new("caret-indigo-400","dark:caret-indigo-600"); </v>
       </c>
       <c r="I128">
         <f t="shared" ref="I128:J128" si="137">I119</f>
@@ -9079,35 +9080,35 @@
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_500 { get; set; } = new("b-text-indigo-500","dark:b-text-indigo-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_500 { get; set; } = new("text-indigo-500","dark:text-indigo-500"); </v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_500 { get; set; } = new("b-bg-indigo-500","dark:b-bg-indigo-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_500 { get; set; } = new("bg-indigo-500","dark:bg-indigo-500"); </v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_500 { get; set; } = new("b-border-indigo-500","dark:b-border-indigo-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_500 { get; set; } = new("border-indigo-500","dark:border-indigo-500"); </v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_500 { get; set; } = new("b-divide-indigo-500","dark:b-divide-indigo-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_500 { get; set; } = new("divide-indigo-500","dark:divide-indigo-500"); </v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_500 { get; set; } = new("b-outline-indigo-500","dark:b-outline-indigo-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_500 { get; set; } = new("outline-indigo-500","dark:outline-indigo-500"); </v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_500 { get; set; } = new("b-ring-indigo-500","dark:b-ring-indigo-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_500 { get; set; } = new("ring-indigo-500","dark:ring-indigo-500"); </v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_500 { get; set; } = new("b-accent-indigo-500","dark:b-accent-indigo-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_500 { get; set; } = new("accent-indigo-500","dark:accent-indigo-500"); </v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_500 { get; set; } = new("b-caret-indigo-500","dark:b-caret-indigo-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_500 { get; set; } = new("caret-indigo-500","dark:caret-indigo-500"); </v>
       </c>
       <c r="I129">
         <f t="shared" ref="I129:J129" si="138">I120</f>
@@ -9148,35 +9149,35 @@
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_600 { get; set; } = new("b-text-indigo-600","dark:b-text-indigo-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_600 { get; set; } = new("text-indigo-600","dark:text-indigo-400"); </v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_600 { get; set; } = new("b-bg-indigo-600","dark:b-bg-indigo-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_600 { get; set; } = new("bg-indigo-600","dark:bg-indigo-400"); </v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_600 { get; set; } = new("b-border-indigo-600","dark:b-border-indigo-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_600 { get; set; } = new("border-indigo-600","dark:border-indigo-400"); </v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_600 { get; set; } = new("b-divide-indigo-600","dark:b-divide-indigo-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_600 { get; set; } = new("divide-indigo-600","dark:divide-indigo-400"); </v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_600 { get; set; } = new("b-outline-indigo-600","dark:b-outline-indigo-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_600 { get; set; } = new("outline-indigo-600","dark:outline-indigo-400"); </v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_600 { get; set; } = new("b-ring-indigo-600","dark:b-ring-indigo-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_600 { get; set; } = new("ring-indigo-600","dark:ring-indigo-400"); </v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_600 { get; set; } = new("b-accent-indigo-600","dark:b-accent-indigo-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_600 { get; set; } = new("accent-indigo-600","dark:accent-indigo-400"); </v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_600 { get; set; } = new("b-caret-indigo-600","dark:b-caret-indigo-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_600 { get; set; } = new("caret-indigo-600","dark:caret-indigo-400"); </v>
       </c>
       <c r="I130">
         <f t="shared" ref="I130:J130" si="139">I121</f>
@@ -9217,35 +9218,35 @@
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_700 { get; set; } = new("b-text-indigo-700","dark:b-text-indigo-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_700 { get; set; } = new("text-indigo-700","dark:text-indigo-300"); </v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_700 { get; set; } = new("b-bg-indigo-700","dark:b-bg-indigo-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_700 { get; set; } = new("bg-indigo-700","dark:bg-indigo-300"); </v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_700 { get; set; } = new("b-border-indigo-700","dark:b-border-indigo-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_700 { get; set; } = new("border-indigo-700","dark:border-indigo-300"); </v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_700 { get; set; } = new("b-divide-indigo-700","dark:b-divide-indigo-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_700 { get; set; } = new("divide-indigo-700","dark:divide-indigo-300"); </v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_700 { get; set; } = new("b-outline-indigo-700","dark:b-outline-indigo-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_700 { get; set; } = new("outline-indigo-700","dark:outline-indigo-300"); </v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_700 { get; set; } = new("b-ring-indigo-700","dark:b-ring-indigo-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_700 { get; set; } = new("ring-indigo-700","dark:ring-indigo-300"); </v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_700 { get; set; } = new("b-accent-indigo-700","dark:b-accent-indigo-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_700 { get; set; } = new("accent-indigo-700","dark:accent-indigo-300"); </v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_700 { get; set; } = new("b-caret-indigo-700","dark:b-caret-indigo-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_700 { get; set; } = new("caret-indigo-700","dark:caret-indigo-300"); </v>
       </c>
       <c r="I131">
         <f t="shared" ref="I131:J131" si="140">I122</f>
@@ -9286,35 +9287,35 @@
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_800 { get; set; } = new("b-text-indigo-800","dark:b-text-indigo-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_800 { get; set; } = new("text-indigo-800","dark:text-indigo-200"); </v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_800 { get; set; } = new("b-bg-indigo-800","dark:b-bg-indigo-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_800 { get; set; } = new("bg-indigo-800","dark:bg-indigo-200"); </v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_800 { get; set; } = new("b-border-indigo-800","dark:b-border-indigo-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_800 { get; set; } = new("border-indigo-800","dark:border-indigo-200"); </v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_800 { get; set; } = new("b-divide-indigo-800","dark:b-divide-indigo-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_800 { get; set; } = new("divide-indigo-800","dark:divide-indigo-200"); </v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_800 { get; set; } = new("b-outline-indigo-800","dark:b-outline-indigo-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_800 { get; set; } = new("outline-indigo-800","dark:outline-indigo-200"); </v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_800 { get; set; } = new("b-ring-indigo-800","dark:b-ring-indigo-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_800 { get; set; } = new("ring-indigo-800","dark:ring-indigo-200"); </v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_800 { get; set; } = new("b-accent-indigo-800","dark:b-accent-indigo-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_800 { get; set; } = new("accent-indigo-800","dark:accent-indigo-200"); </v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_800 { get; set; } = new("b-caret-indigo-800","dark:b-caret-indigo-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_800 { get; set; } = new("caret-indigo-800","dark:caret-indigo-200"); </v>
       </c>
       <c r="I132">
         <f t="shared" ref="I132:J132" si="141">I123</f>
@@ -9355,35 +9356,35 @@
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Indigo_900 { get; set; } = new("b-text-indigo-900","dark:b-text-indigo-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Indigo_900 { get; set; } = new("text-indigo-900","dark:text-indigo-100"); </v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Indigo_900 { get; set; } = new("b-bg-indigo-900","dark:b-bg-indigo-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Indigo_900 { get; set; } = new("bg-indigo-900","dark:bg-indigo-100"); </v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Indigo_900 { get; set; } = new("b-border-indigo-900","dark:b-border-indigo-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Indigo_900 { get; set; } = new("border-indigo-900","dark:border-indigo-100"); </v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Indigo_900 { get; set; } = new("b-divide-indigo-900","dark:b-divide-indigo-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Indigo_900 { get; set; } = new("divide-indigo-900","dark:divide-indigo-100"); </v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Indigo_900 { get; set; } = new("b-outline-indigo-900","dark:b-outline-indigo-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Indigo_900 { get; set; } = new("outline-indigo-900","dark:outline-indigo-100"); </v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Indigo_900 { get; set; } = new("b-ring-indigo-900","dark:b-ring-indigo-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Indigo_900 { get; set; } = new("ring-indigo-900","dark:ring-indigo-100"); </v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Indigo_900 { get; set; } = new("b-accent-indigo-900","dark:b-accent-indigo-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Indigo_900 { get; set; } = new("accent-indigo-900","dark:accent-indigo-100"); </v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Indigo_900 { get; set; } = new("b-caret-indigo-900","dark:b-caret-indigo-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Indigo_900 { get; set; } = new("caret-indigo-900","dark:caret-indigo-100"); </v>
       </c>
       <c r="I133">
         <f t="shared" ref="I133:J133" si="142">I124</f>
@@ -9424,35 +9425,35 @@
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Violet_100 { get; set; } = new("b-text-violet-100","dark:b-text-violet-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Violet_100 { get; set; } = new("text-violet-100","dark:text-violet-900"); </v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_100 { get; set; } = new("b-bg-violet-100","dark:b-bg-violet-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_100 { get; set; } = new("bg-violet-100","dark:bg-violet-900"); </v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Violet_100 { get; set; } = new("b-border-violet-100","dark:b-border-violet-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Violet_100 { get; set; } = new("border-violet-100","dark:border-violet-900"); </v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_100 { get; set; } = new("b-divide-violet-100","dark:b-divide-violet-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_100 { get; set; } = new("divide-violet-100","dark:divide-violet-900"); </v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_100 { get; set; } = new("b-outline-violet-100","dark:b-outline-violet-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_100 { get; set; } = new("outline-violet-100","dark:outline-violet-900"); </v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_100 { get; set; } = new("b-ring-violet-100","dark:b-ring-violet-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_100 { get; set; } = new("ring-violet-100","dark:ring-violet-900"); </v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_100 { get; set; } = new("b-accent-violet-100","dark:b-accent-violet-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_100 { get; set; } = new("accent-violet-100","dark:accent-violet-900"); </v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_100 { get; set; } = new("b-caret-violet-100","dark:b-caret-violet-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_100 { get; set; } = new("caret-violet-100","dark:caret-violet-900"); </v>
       </c>
       <c r="I134">
         <f t="shared" ref="I134:J134" si="143">I125</f>
@@ -9493,35 +9494,35 @@
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Violet_200 { get; set; } = new("b-text-violet-200","dark:b-text-violet-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Violet_200 { get; set; } = new("text-violet-200","dark:text-violet-800"); </v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_200 { get; set; } = new("b-bg-violet-200","dark:b-bg-violet-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_200 { get; set; } = new("bg-violet-200","dark:bg-violet-800"); </v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Violet_200 { get; set; } = new("b-border-violet-200","dark:b-border-violet-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Violet_200 { get; set; } = new("border-violet-200","dark:border-violet-800"); </v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_200 { get; set; } = new("b-divide-violet-200","dark:b-divide-violet-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_200 { get; set; } = new("divide-violet-200","dark:divide-violet-800"); </v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_200 { get; set; } = new("b-outline-violet-200","dark:b-outline-violet-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_200 { get; set; } = new("outline-violet-200","dark:outline-violet-800"); </v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_200 { get; set; } = new("b-ring-violet-200","dark:b-ring-violet-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_200 { get; set; } = new("ring-violet-200","dark:ring-violet-800"); </v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_200 { get; set; } = new("b-accent-violet-200","dark:b-accent-violet-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_200 { get; set; } = new("accent-violet-200","dark:accent-violet-800"); </v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_200 { get; set; } = new("b-caret-violet-200","dark:b-caret-violet-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_200 { get; set; } = new("caret-violet-200","dark:caret-violet-800"); </v>
       </c>
       <c r="I135">
         <f t="shared" ref="I135:J135" si="144">I126</f>
@@ -9562,35 +9563,35 @@
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">public static ColorPair Text_Violet_300 { get; set; } = new("b-text-violet-300","dark:b-text-violet-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Violet_300 { get; set; } = new("text-violet-300","dark:text-violet-700"); </v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_300 { get; set; } = new("b-bg-violet-300","dark:b-bg-violet-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_300 { get; set; } = new("bg-violet-300","dark:bg-violet-700"); </v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="76"/>
-        <v xml:space="preserve">public static ColorPair Border_Violet_300 { get; set; } = new("b-border-violet-300","dark:b-border-violet-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Violet_300 { get; set; } = new("border-violet-300","dark:border-violet-700"); </v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="77"/>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_300 { get; set; } = new("b-divide-violet-300","dark:b-divide-violet-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_300 { get; set; } = new("divide-violet-300","dark:divide-violet-700"); </v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="78"/>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_300 { get; set; } = new("b-outline-violet-300","dark:b-outline-violet-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_300 { get; set; } = new("outline-violet-300","dark:outline-violet-700"); </v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="79"/>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_300 { get; set; } = new("b-ring-violet-300","dark:b-ring-violet-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_300 { get; set; } = new("ring-violet-300","dark:ring-violet-700"); </v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="80"/>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_300 { get; set; } = new("b-accent-violet-300","dark:b-accent-violet-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_300 { get; set; } = new("accent-violet-300","dark:accent-violet-700"); </v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="81"/>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_300 { get; set; } = new("b-caret-violet-300","dark:b-caret-violet-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_300 { get; set; } = new("caret-violet-300","dark:caret-violet-700"); </v>
       </c>
       <c r="I136">
         <f t="shared" ref="I136:J136" si="145">I127</f>
@@ -9630,36 +9631,36 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f t="shared" ref="A137:A178" si="146">_xlfn.CONCAT("public static ColorPair ",PROPER(L137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""b-",L137,"-",$K137,"-",$I137,""",""dark:b-",L137,"-",$K137,"-",$J137,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Text_Violet_400 { get; set; } = new("b-text-violet-400","dark:b-text-violet-600"); </v>
+        <f t="shared" ref="A137:A178" si="146">_xlfn.CONCAT("public static ColorPair ",PROPER(L137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""",L137,"-",$K137,"-",$I137,""",""dark:",L137,"-",$K137,"-",$J137,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Text_Violet_400 { get; set; } = new("text-violet-400","dark:text-violet-600"); </v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" ref="B137:B178" si="147">_xlfn.CONCAT("public static ColorPair ",PROPER(M137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""b-",M137,"-",$K137,"-",$I137,""",""dark:b-",M137,"-",$K137,"-",$J137,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_400 { get; set; } = new("b-bg-violet-400","dark:b-bg-violet-600"); </v>
+        <f t="shared" ref="B137:B178" si="147">_xlfn.CONCAT("public static ColorPair ",PROPER(M137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""",M137,"-",$K137,"-",$I137,""",""dark:",M137,"-",$K137,"-",$J137,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_400 { get; set; } = new("bg-violet-400","dark:bg-violet-600"); </v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" ref="C137:C178" si="148">_xlfn.CONCAT("public static ColorPair ",PROPER(N137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""b-",N137,"-",$K137,"-",$I137,""",""dark:b-",N137,"-",$K137,"-",$J137,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Border_Violet_400 { get; set; } = new("b-border-violet-400","dark:b-border-violet-600"); </v>
+        <f t="shared" ref="C137:C178" si="148">_xlfn.CONCAT("public static ColorPair ",PROPER(N137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""",N137,"-",$K137,"-",$I137,""",""dark:",N137,"-",$K137,"-",$J137,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Border_Violet_400 { get; set; } = new("border-violet-400","dark:border-violet-600"); </v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" ref="D137:D178" si="149">_xlfn.CONCAT("public static ColorPair ",PROPER(O137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""b-",O137,"-",$K137,"-",$I137,""",""dark:b-",O137,"-",$K137,"-",$J137,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_400 { get; set; } = new("b-divide-violet-400","dark:b-divide-violet-600"); </v>
+        <f t="shared" ref="D137:D178" si="149">_xlfn.CONCAT("public static ColorPair ",PROPER(O137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""",O137,"-",$K137,"-",$I137,""",""dark:",O137,"-",$K137,"-",$J137,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_400 { get; set; } = new("divide-violet-400","dark:divide-violet-600"); </v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" ref="E137:E178" si="150">_xlfn.CONCAT("public static ColorPair ",PROPER(P137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""b-",P137,"-",$K137,"-",$I137,""",""dark:b-",P137,"-",$K137,"-",$J137,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_400 { get; set; } = new("b-outline-violet-400","dark:b-outline-violet-600"); </v>
+        <f t="shared" ref="E137:E178" si="150">_xlfn.CONCAT("public static ColorPair ",PROPER(P137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""",P137,"-",$K137,"-",$I137,""",""dark:",P137,"-",$K137,"-",$J137,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_400 { get; set; } = new("outline-violet-400","dark:outline-violet-600"); </v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" ref="F137:F178" si="151">_xlfn.CONCAT("public static ColorPair ",PROPER(Q137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""b-",Q137,"-",$K137,"-",$I137,""",""dark:b-",Q137,"-",$K137,"-",$J137,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_400 { get; set; } = new("b-ring-violet-400","dark:b-ring-violet-600"); </v>
+        <f t="shared" ref="F137:F178" si="151">_xlfn.CONCAT("public static ColorPair ",PROPER(Q137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""",Q137,"-",$K137,"-",$I137,""",""dark:",Q137,"-",$K137,"-",$J137,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_400 { get; set; } = new("ring-violet-400","dark:ring-violet-600"); </v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" ref="G137:G178" si="152">_xlfn.CONCAT("public static ColorPair ",PROPER(R137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""b-",R137,"-",$K137,"-",$I137,""",""dark:b-",R137,"-",$K137,"-",$J137,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_400 { get; set; } = new("b-accent-violet-400","dark:b-accent-violet-600"); </v>
+        <f t="shared" ref="G137:G178" si="152">_xlfn.CONCAT("public static ColorPair ",PROPER(R137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""",R137,"-",$K137,"-",$I137,""",""dark:",R137,"-",$K137,"-",$J137,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_400 { get; set; } = new("accent-violet-400","dark:accent-violet-600"); </v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" ref="H137:H178" si="153">_xlfn.CONCAT("public static ColorPair ",PROPER(S137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""b-",S137,"-",$K137,"-",$I137,""",""dark:b-",S137,"-",$K137,"-",$J137,"""); ")</f>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_400 { get; set; } = new("b-caret-violet-400","dark:b-caret-violet-600"); </v>
+        <f t="shared" ref="H137:H178" si="153">_xlfn.CONCAT("public static ColorPair ",PROPER(S137),"_",PROPER($K137),"_",$I137," { get; set; } = new(""",S137,"-",$K137,"-",$I137,""",""dark:",S137,"-",$K137,"-",$J137,"""); ")</f>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_400 { get; set; } = new("caret-violet-400","dark:caret-violet-600"); </v>
       </c>
       <c r="I137">
         <f t="shared" ref="I137:J137" si="154">I128</f>
@@ -9700,35 +9701,35 @@
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Violet_500 { get; set; } = new("b-text-violet-500","dark:b-text-violet-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Violet_500 { get; set; } = new("text-violet-500","dark:text-violet-500"); </v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_500 { get; set; } = new("b-bg-violet-500","dark:b-bg-violet-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_500 { get; set; } = new("bg-violet-500","dark:bg-violet-500"); </v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Violet_500 { get; set; } = new("b-border-violet-500","dark:b-border-violet-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Violet_500 { get; set; } = new("border-violet-500","dark:border-violet-500"); </v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_500 { get; set; } = new("b-divide-violet-500","dark:b-divide-violet-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_500 { get; set; } = new("divide-violet-500","dark:divide-violet-500"); </v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_500 { get; set; } = new("b-outline-violet-500","dark:b-outline-violet-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_500 { get; set; } = new("outline-violet-500","dark:outline-violet-500"); </v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_500 { get; set; } = new("b-ring-violet-500","dark:b-ring-violet-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_500 { get; set; } = new("ring-violet-500","dark:ring-violet-500"); </v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_500 { get; set; } = new("b-accent-violet-500","dark:b-accent-violet-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_500 { get; set; } = new("accent-violet-500","dark:accent-violet-500"); </v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_500 { get; set; } = new("b-caret-violet-500","dark:b-caret-violet-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_500 { get; set; } = new("caret-violet-500","dark:caret-violet-500"); </v>
       </c>
       <c r="I138">
         <f t="shared" ref="I138:J138" si="155">I129</f>
@@ -9769,35 +9770,35 @@
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Violet_600 { get; set; } = new("b-text-violet-600","dark:b-text-violet-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Violet_600 { get; set; } = new("text-violet-600","dark:text-violet-400"); </v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_600 { get; set; } = new("b-bg-violet-600","dark:b-bg-violet-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_600 { get; set; } = new("bg-violet-600","dark:bg-violet-400"); </v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Violet_600 { get; set; } = new("b-border-violet-600","dark:b-border-violet-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Violet_600 { get; set; } = new("border-violet-600","dark:border-violet-400"); </v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_600 { get; set; } = new("b-divide-violet-600","dark:b-divide-violet-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_600 { get; set; } = new("divide-violet-600","dark:divide-violet-400"); </v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_600 { get; set; } = new("b-outline-violet-600","dark:b-outline-violet-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_600 { get; set; } = new("outline-violet-600","dark:outline-violet-400"); </v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_600 { get; set; } = new("b-ring-violet-600","dark:b-ring-violet-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_600 { get; set; } = new("ring-violet-600","dark:ring-violet-400"); </v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_600 { get; set; } = new("b-accent-violet-600","dark:b-accent-violet-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_600 { get; set; } = new("accent-violet-600","dark:accent-violet-400"); </v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_600 { get; set; } = new("b-caret-violet-600","dark:b-caret-violet-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_600 { get; set; } = new("caret-violet-600","dark:caret-violet-400"); </v>
       </c>
       <c r="I139">
         <f t="shared" ref="I139:J139" si="156">I130</f>
@@ -9838,35 +9839,35 @@
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Violet_700 { get; set; } = new("b-text-violet-700","dark:b-text-violet-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Violet_700 { get; set; } = new("text-violet-700","dark:text-violet-300"); </v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_700 { get; set; } = new("b-bg-violet-700","dark:b-bg-violet-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_700 { get; set; } = new("bg-violet-700","dark:bg-violet-300"); </v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Violet_700 { get; set; } = new("b-border-violet-700","dark:b-border-violet-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Violet_700 { get; set; } = new("border-violet-700","dark:border-violet-300"); </v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_700 { get; set; } = new("b-divide-violet-700","dark:b-divide-violet-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_700 { get; set; } = new("divide-violet-700","dark:divide-violet-300"); </v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_700 { get; set; } = new("b-outline-violet-700","dark:b-outline-violet-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_700 { get; set; } = new("outline-violet-700","dark:outline-violet-300"); </v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_700 { get; set; } = new("b-ring-violet-700","dark:b-ring-violet-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_700 { get; set; } = new("ring-violet-700","dark:ring-violet-300"); </v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_700 { get; set; } = new("b-accent-violet-700","dark:b-accent-violet-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_700 { get; set; } = new("accent-violet-700","dark:accent-violet-300"); </v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_700 { get; set; } = new("b-caret-violet-700","dark:b-caret-violet-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_700 { get; set; } = new("caret-violet-700","dark:caret-violet-300"); </v>
       </c>
       <c r="I140">
         <f t="shared" ref="I140:J140" si="157">I131</f>
@@ -9907,35 +9908,35 @@
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Violet_800 { get; set; } = new("b-text-violet-800","dark:b-text-violet-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Violet_800 { get; set; } = new("text-violet-800","dark:text-violet-200"); </v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_800 { get; set; } = new("b-bg-violet-800","dark:b-bg-violet-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_800 { get; set; } = new("bg-violet-800","dark:bg-violet-200"); </v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Violet_800 { get; set; } = new("b-border-violet-800","dark:b-border-violet-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Violet_800 { get; set; } = new("border-violet-800","dark:border-violet-200"); </v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_800 { get; set; } = new("b-divide-violet-800","dark:b-divide-violet-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_800 { get; set; } = new("divide-violet-800","dark:divide-violet-200"); </v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_800 { get; set; } = new("b-outline-violet-800","dark:b-outline-violet-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_800 { get; set; } = new("outline-violet-800","dark:outline-violet-200"); </v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_800 { get; set; } = new("b-ring-violet-800","dark:b-ring-violet-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_800 { get; set; } = new("ring-violet-800","dark:ring-violet-200"); </v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_800 { get; set; } = new("b-accent-violet-800","dark:b-accent-violet-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_800 { get; set; } = new("accent-violet-800","dark:accent-violet-200"); </v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_800 { get; set; } = new("b-caret-violet-800","dark:b-caret-violet-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_800 { get; set; } = new("caret-violet-800","dark:caret-violet-200"); </v>
       </c>
       <c r="I141">
         <f t="shared" ref="I141:J141" si="158">I132</f>
@@ -9976,35 +9977,35 @@
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Violet_900 { get; set; } = new("b-text-violet-900","dark:b-text-violet-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Violet_900 { get; set; } = new("text-violet-900","dark:text-violet-100"); </v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Violet_900 { get; set; } = new("b-bg-violet-900","dark:b-bg-violet-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Violet_900 { get; set; } = new("bg-violet-900","dark:bg-violet-100"); </v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Violet_900 { get; set; } = new("b-border-violet-900","dark:b-border-violet-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Violet_900 { get; set; } = new("border-violet-900","dark:border-violet-100"); </v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Violet_900 { get; set; } = new("b-divide-violet-900","dark:b-divide-violet-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Violet_900 { get; set; } = new("divide-violet-900","dark:divide-violet-100"); </v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Violet_900 { get; set; } = new("b-outline-violet-900","dark:b-outline-violet-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Violet_900 { get; set; } = new("outline-violet-900","dark:outline-violet-100"); </v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Violet_900 { get; set; } = new("b-ring-violet-900","dark:b-ring-violet-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Violet_900 { get; set; } = new("ring-violet-900","dark:ring-violet-100"); </v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Violet_900 { get; set; } = new("b-accent-violet-900","dark:b-accent-violet-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Violet_900 { get; set; } = new("accent-violet-900","dark:accent-violet-100"); </v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Violet_900 { get; set; } = new("b-caret-violet-900","dark:b-caret-violet-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Violet_900 { get; set; } = new("caret-violet-900","dark:caret-violet-100"); </v>
       </c>
       <c r="I142">
         <f t="shared" ref="I142:J142" si="159">I133</f>
@@ -10045,35 +10046,35 @@
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_100 { get; set; } = new("b-text-purple-100","dark:b-text-purple-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_100 { get; set; } = new("text-purple-100","dark:text-purple-900"); </v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_100 { get; set; } = new("b-bg-purple-100","dark:b-bg-purple-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_100 { get; set; } = new("bg-purple-100","dark:bg-purple-900"); </v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_100 { get; set; } = new("b-border-purple-100","dark:b-border-purple-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_100 { get; set; } = new("border-purple-100","dark:border-purple-900"); </v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_100 { get; set; } = new("b-divide-purple-100","dark:b-divide-purple-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_100 { get; set; } = new("divide-purple-100","dark:divide-purple-900"); </v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_100 { get; set; } = new("b-outline-purple-100","dark:b-outline-purple-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_100 { get; set; } = new("outline-purple-100","dark:outline-purple-900"); </v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_100 { get; set; } = new("b-ring-purple-100","dark:b-ring-purple-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_100 { get; set; } = new("ring-purple-100","dark:ring-purple-900"); </v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_100 { get; set; } = new("b-accent-purple-100","dark:b-accent-purple-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_100 { get; set; } = new("accent-purple-100","dark:accent-purple-900"); </v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_100 { get; set; } = new("b-caret-purple-100","dark:b-caret-purple-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_100 { get; set; } = new("caret-purple-100","dark:caret-purple-900"); </v>
       </c>
       <c r="I143">
         <f t="shared" ref="I143:J143" si="160">I134</f>
@@ -10114,35 +10115,35 @@
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_200 { get; set; } = new("b-text-purple-200","dark:b-text-purple-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_200 { get; set; } = new("text-purple-200","dark:text-purple-800"); </v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_200 { get; set; } = new("b-bg-purple-200","dark:b-bg-purple-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_200 { get; set; } = new("bg-purple-200","dark:bg-purple-800"); </v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_200 { get; set; } = new("b-border-purple-200","dark:b-border-purple-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_200 { get; set; } = new("border-purple-200","dark:border-purple-800"); </v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_200 { get; set; } = new("b-divide-purple-200","dark:b-divide-purple-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_200 { get; set; } = new("divide-purple-200","dark:divide-purple-800"); </v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_200 { get; set; } = new("b-outline-purple-200","dark:b-outline-purple-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_200 { get; set; } = new("outline-purple-200","dark:outline-purple-800"); </v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_200 { get; set; } = new("b-ring-purple-200","dark:b-ring-purple-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_200 { get; set; } = new("ring-purple-200","dark:ring-purple-800"); </v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_200 { get; set; } = new("b-accent-purple-200","dark:b-accent-purple-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_200 { get; set; } = new("accent-purple-200","dark:accent-purple-800"); </v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_200 { get; set; } = new("b-caret-purple-200","dark:b-caret-purple-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_200 { get; set; } = new("caret-purple-200","dark:caret-purple-800"); </v>
       </c>
       <c r="I144">
         <f t="shared" ref="I144:J144" si="161">I135</f>
@@ -10183,35 +10184,35 @@
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_300 { get; set; } = new("b-text-purple-300","dark:b-text-purple-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_300 { get; set; } = new("text-purple-300","dark:text-purple-700"); </v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_300 { get; set; } = new("b-bg-purple-300","dark:b-bg-purple-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_300 { get; set; } = new("bg-purple-300","dark:bg-purple-700"); </v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_300 { get; set; } = new("b-border-purple-300","dark:b-border-purple-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_300 { get; set; } = new("border-purple-300","dark:border-purple-700"); </v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_300 { get; set; } = new("b-divide-purple-300","dark:b-divide-purple-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_300 { get; set; } = new("divide-purple-300","dark:divide-purple-700"); </v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_300 { get; set; } = new("b-outline-purple-300","dark:b-outline-purple-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_300 { get; set; } = new("outline-purple-300","dark:outline-purple-700"); </v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_300 { get; set; } = new("b-ring-purple-300","dark:b-ring-purple-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_300 { get; set; } = new("ring-purple-300","dark:ring-purple-700"); </v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_300 { get; set; } = new("b-accent-purple-300","dark:b-accent-purple-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_300 { get; set; } = new("accent-purple-300","dark:accent-purple-700"); </v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_300 { get; set; } = new("b-caret-purple-300","dark:b-caret-purple-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_300 { get; set; } = new("caret-purple-300","dark:caret-purple-700"); </v>
       </c>
       <c r="I145">
         <f t="shared" ref="I145:J145" si="162">I136</f>
@@ -10252,35 +10253,35 @@
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_400 { get; set; } = new("b-text-purple-400","dark:b-text-purple-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_400 { get; set; } = new("text-purple-400","dark:text-purple-600"); </v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_400 { get; set; } = new("b-bg-purple-400","dark:b-bg-purple-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_400 { get; set; } = new("bg-purple-400","dark:bg-purple-600"); </v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_400 { get; set; } = new("b-border-purple-400","dark:b-border-purple-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_400 { get; set; } = new("border-purple-400","dark:border-purple-600"); </v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_400 { get; set; } = new("b-divide-purple-400","dark:b-divide-purple-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_400 { get; set; } = new("divide-purple-400","dark:divide-purple-600"); </v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_400 { get; set; } = new("b-outline-purple-400","dark:b-outline-purple-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_400 { get; set; } = new("outline-purple-400","dark:outline-purple-600"); </v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_400 { get; set; } = new("b-ring-purple-400","dark:b-ring-purple-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_400 { get; set; } = new("ring-purple-400","dark:ring-purple-600"); </v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_400 { get; set; } = new("b-accent-purple-400","dark:b-accent-purple-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_400 { get; set; } = new("accent-purple-400","dark:accent-purple-600"); </v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_400 { get; set; } = new("b-caret-purple-400","dark:b-caret-purple-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_400 { get; set; } = new("caret-purple-400","dark:caret-purple-600"); </v>
       </c>
       <c r="I146">
         <f t="shared" ref="I146:J146" si="163">I137</f>
@@ -10321,35 +10322,35 @@
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_500 { get; set; } = new("b-text-purple-500","dark:b-text-purple-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_500 { get; set; } = new("text-purple-500","dark:text-purple-500"); </v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_500 { get; set; } = new("b-bg-purple-500","dark:b-bg-purple-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_500 { get; set; } = new("bg-purple-500","dark:bg-purple-500"); </v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_500 { get; set; } = new("b-border-purple-500","dark:b-border-purple-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_500 { get; set; } = new("border-purple-500","dark:border-purple-500"); </v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_500 { get; set; } = new("b-divide-purple-500","dark:b-divide-purple-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_500 { get; set; } = new("divide-purple-500","dark:divide-purple-500"); </v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_500 { get; set; } = new("b-outline-purple-500","dark:b-outline-purple-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_500 { get; set; } = new("outline-purple-500","dark:outline-purple-500"); </v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_500 { get; set; } = new("b-ring-purple-500","dark:b-ring-purple-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_500 { get; set; } = new("ring-purple-500","dark:ring-purple-500"); </v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_500 { get; set; } = new("b-accent-purple-500","dark:b-accent-purple-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_500 { get; set; } = new("accent-purple-500","dark:accent-purple-500"); </v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_500 { get; set; } = new("b-caret-purple-500","dark:b-caret-purple-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_500 { get; set; } = new("caret-purple-500","dark:caret-purple-500"); </v>
       </c>
       <c r="I147">
         <f t="shared" ref="I147:J147" si="164">I138</f>
@@ -10390,35 +10391,35 @@
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_600 { get; set; } = new("b-text-purple-600","dark:b-text-purple-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_600 { get; set; } = new("text-purple-600","dark:text-purple-400"); </v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_600 { get; set; } = new("b-bg-purple-600","dark:b-bg-purple-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_600 { get; set; } = new("bg-purple-600","dark:bg-purple-400"); </v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_600 { get; set; } = new("b-border-purple-600","dark:b-border-purple-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_600 { get; set; } = new("border-purple-600","dark:border-purple-400"); </v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_600 { get; set; } = new("b-divide-purple-600","dark:b-divide-purple-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_600 { get; set; } = new("divide-purple-600","dark:divide-purple-400"); </v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_600 { get; set; } = new("b-outline-purple-600","dark:b-outline-purple-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_600 { get; set; } = new("outline-purple-600","dark:outline-purple-400"); </v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_600 { get; set; } = new("b-ring-purple-600","dark:b-ring-purple-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_600 { get; set; } = new("ring-purple-600","dark:ring-purple-400"); </v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_600 { get; set; } = new("b-accent-purple-600","dark:b-accent-purple-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_600 { get; set; } = new("accent-purple-600","dark:accent-purple-400"); </v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_600 { get; set; } = new("b-caret-purple-600","dark:b-caret-purple-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_600 { get; set; } = new("caret-purple-600","dark:caret-purple-400"); </v>
       </c>
       <c r="I148">
         <f t="shared" ref="I148:J148" si="165">I139</f>
@@ -10459,35 +10460,35 @@
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_700 { get; set; } = new("b-text-purple-700","dark:b-text-purple-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_700 { get; set; } = new("text-purple-700","dark:text-purple-300"); </v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_700 { get; set; } = new("b-bg-purple-700","dark:b-bg-purple-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_700 { get; set; } = new("bg-purple-700","dark:bg-purple-300"); </v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_700 { get; set; } = new("b-border-purple-700","dark:b-border-purple-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_700 { get; set; } = new("border-purple-700","dark:border-purple-300"); </v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_700 { get; set; } = new("b-divide-purple-700","dark:b-divide-purple-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_700 { get; set; } = new("divide-purple-700","dark:divide-purple-300"); </v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_700 { get; set; } = new("b-outline-purple-700","dark:b-outline-purple-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_700 { get; set; } = new("outline-purple-700","dark:outline-purple-300"); </v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_700 { get; set; } = new("b-ring-purple-700","dark:b-ring-purple-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_700 { get; set; } = new("ring-purple-700","dark:ring-purple-300"); </v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_700 { get; set; } = new("b-accent-purple-700","dark:b-accent-purple-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_700 { get; set; } = new("accent-purple-700","dark:accent-purple-300"); </v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_700 { get; set; } = new("b-caret-purple-700","dark:b-caret-purple-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_700 { get; set; } = new("caret-purple-700","dark:caret-purple-300"); </v>
       </c>
       <c r="I149">
         <f t="shared" ref="I149:J149" si="166">I140</f>
@@ -10528,35 +10529,35 @@
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_800 { get; set; } = new("b-text-purple-800","dark:b-text-purple-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_800 { get; set; } = new("text-purple-800","dark:text-purple-200"); </v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_800 { get; set; } = new("b-bg-purple-800","dark:b-bg-purple-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_800 { get; set; } = new("bg-purple-800","dark:bg-purple-200"); </v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_800 { get; set; } = new("b-border-purple-800","dark:b-border-purple-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_800 { get; set; } = new("border-purple-800","dark:border-purple-200"); </v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_800 { get; set; } = new("b-divide-purple-800","dark:b-divide-purple-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_800 { get; set; } = new("divide-purple-800","dark:divide-purple-200"); </v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_800 { get; set; } = new("b-outline-purple-800","dark:b-outline-purple-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_800 { get; set; } = new("outline-purple-800","dark:outline-purple-200"); </v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_800 { get; set; } = new("b-ring-purple-800","dark:b-ring-purple-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_800 { get; set; } = new("ring-purple-800","dark:ring-purple-200"); </v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_800 { get; set; } = new("b-accent-purple-800","dark:b-accent-purple-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_800 { get; set; } = new("accent-purple-800","dark:accent-purple-200"); </v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_800 { get; set; } = new("b-caret-purple-800","dark:b-caret-purple-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_800 { get; set; } = new("caret-purple-800","dark:caret-purple-200"); </v>
       </c>
       <c r="I150">
         <f t="shared" ref="I150:J150" si="167">I141</f>
@@ -10597,35 +10598,35 @@
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Purple_900 { get; set; } = new("b-text-purple-900","dark:b-text-purple-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Purple_900 { get; set; } = new("text-purple-900","dark:text-purple-100"); </v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Purple_900 { get; set; } = new("b-bg-purple-900","dark:b-bg-purple-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Purple_900 { get; set; } = new("bg-purple-900","dark:bg-purple-100"); </v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Purple_900 { get; set; } = new("b-border-purple-900","dark:b-border-purple-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Purple_900 { get; set; } = new("border-purple-900","dark:border-purple-100"); </v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Purple_900 { get; set; } = new("b-divide-purple-900","dark:b-divide-purple-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Purple_900 { get; set; } = new("divide-purple-900","dark:divide-purple-100"); </v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Purple_900 { get; set; } = new("b-outline-purple-900","dark:b-outline-purple-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Purple_900 { get; set; } = new("outline-purple-900","dark:outline-purple-100"); </v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Purple_900 { get; set; } = new("b-ring-purple-900","dark:b-ring-purple-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Purple_900 { get; set; } = new("ring-purple-900","dark:ring-purple-100"); </v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Purple_900 { get; set; } = new("b-accent-purple-900","dark:b-accent-purple-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Purple_900 { get; set; } = new("accent-purple-900","dark:accent-purple-100"); </v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Purple_900 { get; set; } = new("b-caret-purple-900","dark:b-caret-purple-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Purple_900 { get; set; } = new("caret-purple-900","dark:caret-purple-100"); </v>
       </c>
       <c r="I151">
         <f t="shared" ref="I151:J151" si="168">I142</f>
@@ -10666,35 +10667,35 @@
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_100 { get; set; } = new("b-text-fuchsia-100","dark:b-text-fuchsia-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_100 { get; set; } = new("text-fuchsia-100","dark:text-fuchsia-900"); </v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_100 { get; set; } = new("b-bg-fuchsia-100","dark:b-bg-fuchsia-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_100 { get; set; } = new("bg-fuchsia-100","dark:bg-fuchsia-900"); </v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_100 { get; set; } = new("b-border-fuchsia-100","dark:b-border-fuchsia-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_100 { get; set; } = new("border-fuchsia-100","dark:border-fuchsia-900"); </v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_100 { get; set; } = new("b-divide-fuchsia-100","dark:b-divide-fuchsia-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_100 { get; set; } = new("divide-fuchsia-100","dark:divide-fuchsia-900"); </v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_100 { get; set; } = new("b-outline-fuchsia-100","dark:b-outline-fuchsia-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_100 { get; set; } = new("outline-fuchsia-100","dark:outline-fuchsia-900"); </v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_100 { get; set; } = new("b-ring-fuchsia-100","dark:b-ring-fuchsia-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_100 { get; set; } = new("ring-fuchsia-100","dark:ring-fuchsia-900"); </v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_100 { get; set; } = new("b-accent-fuchsia-100","dark:b-accent-fuchsia-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_100 { get; set; } = new("accent-fuchsia-100","dark:accent-fuchsia-900"); </v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_100 { get; set; } = new("b-caret-fuchsia-100","dark:b-caret-fuchsia-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_100 { get; set; } = new("caret-fuchsia-100","dark:caret-fuchsia-900"); </v>
       </c>
       <c r="I152">
         <f t="shared" ref="I152:J152" si="169">I143</f>
@@ -10735,35 +10736,35 @@
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_200 { get; set; } = new("b-text-fuchsia-200","dark:b-text-fuchsia-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_200 { get; set; } = new("text-fuchsia-200","dark:text-fuchsia-800"); </v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_200 { get; set; } = new("b-bg-fuchsia-200","dark:b-bg-fuchsia-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_200 { get; set; } = new("bg-fuchsia-200","dark:bg-fuchsia-800"); </v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_200 { get; set; } = new("b-border-fuchsia-200","dark:b-border-fuchsia-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_200 { get; set; } = new("border-fuchsia-200","dark:border-fuchsia-800"); </v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_200 { get; set; } = new("b-divide-fuchsia-200","dark:b-divide-fuchsia-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_200 { get; set; } = new("divide-fuchsia-200","dark:divide-fuchsia-800"); </v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_200 { get; set; } = new("b-outline-fuchsia-200","dark:b-outline-fuchsia-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_200 { get; set; } = new("outline-fuchsia-200","dark:outline-fuchsia-800"); </v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_200 { get; set; } = new("b-ring-fuchsia-200","dark:b-ring-fuchsia-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_200 { get; set; } = new("ring-fuchsia-200","dark:ring-fuchsia-800"); </v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_200 { get; set; } = new("b-accent-fuchsia-200","dark:b-accent-fuchsia-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_200 { get; set; } = new("accent-fuchsia-200","dark:accent-fuchsia-800"); </v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_200 { get; set; } = new("b-caret-fuchsia-200","dark:b-caret-fuchsia-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_200 { get; set; } = new("caret-fuchsia-200","dark:caret-fuchsia-800"); </v>
       </c>
       <c r="I153">
         <f t="shared" ref="I153:J153" si="170">I144</f>
@@ -10804,35 +10805,35 @@
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_300 { get; set; } = new("b-text-fuchsia-300","dark:b-text-fuchsia-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_300 { get; set; } = new("text-fuchsia-300","dark:text-fuchsia-700"); </v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_300 { get; set; } = new("b-bg-fuchsia-300","dark:b-bg-fuchsia-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_300 { get; set; } = new("bg-fuchsia-300","dark:bg-fuchsia-700"); </v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_300 { get; set; } = new("b-border-fuchsia-300","dark:b-border-fuchsia-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_300 { get; set; } = new("border-fuchsia-300","dark:border-fuchsia-700"); </v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_300 { get; set; } = new("b-divide-fuchsia-300","dark:b-divide-fuchsia-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_300 { get; set; } = new("divide-fuchsia-300","dark:divide-fuchsia-700"); </v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_300 { get; set; } = new("b-outline-fuchsia-300","dark:b-outline-fuchsia-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_300 { get; set; } = new("outline-fuchsia-300","dark:outline-fuchsia-700"); </v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_300 { get; set; } = new("b-ring-fuchsia-300","dark:b-ring-fuchsia-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_300 { get; set; } = new("ring-fuchsia-300","dark:ring-fuchsia-700"); </v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_300 { get; set; } = new("b-accent-fuchsia-300","dark:b-accent-fuchsia-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_300 { get; set; } = new("accent-fuchsia-300","dark:accent-fuchsia-700"); </v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_300 { get; set; } = new("b-caret-fuchsia-300","dark:b-caret-fuchsia-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_300 { get; set; } = new("caret-fuchsia-300","dark:caret-fuchsia-700"); </v>
       </c>
       <c r="I154">
         <f t="shared" ref="I154:J154" si="171">I145</f>
@@ -10873,35 +10874,35 @@
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_400 { get; set; } = new("b-text-fuchsia-400","dark:b-text-fuchsia-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_400 { get; set; } = new("text-fuchsia-400","dark:text-fuchsia-600"); </v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_400 { get; set; } = new("b-bg-fuchsia-400","dark:b-bg-fuchsia-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_400 { get; set; } = new("bg-fuchsia-400","dark:bg-fuchsia-600"); </v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_400 { get; set; } = new("b-border-fuchsia-400","dark:b-border-fuchsia-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_400 { get; set; } = new("border-fuchsia-400","dark:border-fuchsia-600"); </v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_400 { get; set; } = new("b-divide-fuchsia-400","dark:b-divide-fuchsia-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_400 { get; set; } = new("divide-fuchsia-400","dark:divide-fuchsia-600"); </v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_400 { get; set; } = new("b-outline-fuchsia-400","dark:b-outline-fuchsia-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_400 { get; set; } = new("outline-fuchsia-400","dark:outline-fuchsia-600"); </v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_400 { get; set; } = new("b-ring-fuchsia-400","dark:b-ring-fuchsia-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_400 { get; set; } = new("ring-fuchsia-400","dark:ring-fuchsia-600"); </v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_400 { get; set; } = new("b-accent-fuchsia-400","dark:b-accent-fuchsia-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_400 { get; set; } = new("accent-fuchsia-400","dark:accent-fuchsia-600"); </v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_400 { get; set; } = new("b-caret-fuchsia-400","dark:b-caret-fuchsia-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_400 { get; set; } = new("caret-fuchsia-400","dark:caret-fuchsia-600"); </v>
       </c>
       <c r="I155">
         <f t="shared" ref="I155:J155" si="172">I146</f>
@@ -10942,35 +10943,35 @@
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_500 { get; set; } = new("b-text-fuchsia-500","dark:b-text-fuchsia-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_500 { get; set; } = new("text-fuchsia-500","dark:text-fuchsia-500"); </v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_500 { get; set; } = new("b-bg-fuchsia-500","dark:b-bg-fuchsia-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_500 { get; set; } = new("bg-fuchsia-500","dark:bg-fuchsia-500"); </v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_500 { get; set; } = new("b-border-fuchsia-500","dark:b-border-fuchsia-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_500 { get; set; } = new("border-fuchsia-500","dark:border-fuchsia-500"); </v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_500 { get; set; } = new("b-divide-fuchsia-500","dark:b-divide-fuchsia-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_500 { get; set; } = new("divide-fuchsia-500","dark:divide-fuchsia-500"); </v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_500 { get; set; } = new("b-outline-fuchsia-500","dark:b-outline-fuchsia-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_500 { get; set; } = new("outline-fuchsia-500","dark:outline-fuchsia-500"); </v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_500 { get; set; } = new("b-ring-fuchsia-500","dark:b-ring-fuchsia-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_500 { get; set; } = new("ring-fuchsia-500","dark:ring-fuchsia-500"); </v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_500 { get; set; } = new("b-accent-fuchsia-500","dark:b-accent-fuchsia-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_500 { get; set; } = new("accent-fuchsia-500","dark:accent-fuchsia-500"); </v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_500 { get; set; } = new("b-caret-fuchsia-500","dark:b-caret-fuchsia-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_500 { get; set; } = new("caret-fuchsia-500","dark:caret-fuchsia-500"); </v>
       </c>
       <c r="I156">
         <f t="shared" ref="I156:J156" si="173">I147</f>
@@ -11011,35 +11012,35 @@
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_600 { get; set; } = new("b-text-fuchsia-600","dark:b-text-fuchsia-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_600 { get; set; } = new("text-fuchsia-600","dark:text-fuchsia-400"); </v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_600 { get; set; } = new("b-bg-fuchsia-600","dark:b-bg-fuchsia-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_600 { get; set; } = new("bg-fuchsia-600","dark:bg-fuchsia-400"); </v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_600 { get; set; } = new("b-border-fuchsia-600","dark:b-border-fuchsia-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_600 { get; set; } = new("border-fuchsia-600","dark:border-fuchsia-400"); </v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_600 { get; set; } = new("b-divide-fuchsia-600","dark:b-divide-fuchsia-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_600 { get; set; } = new("divide-fuchsia-600","dark:divide-fuchsia-400"); </v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_600 { get; set; } = new("b-outline-fuchsia-600","dark:b-outline-fuchsia-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_600 { get; set; } = new("outline-fuchsia-600","dark:outline-fuchsia-400"); </v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_600 { get; set; } = new("b-ring-fuchsia-600","dark:b-ring-fuchsia-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_600 { get; set; } = new("ring-fuchsia-600","dark:ring-fuchsia-400"); </v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_600 { get; set; } = new("b-accent-fuchsia-600","dark:b-accent-fuchsia-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_600 { get; set; } = new("accent-fuchsia-600","dark:accent-fuchsia-400"); </v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_600 { get; set; } = new("b-caret-fuchsia-600","dark:b-caret-fuchsia-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_600 { get; set; } = new("caret-fuchsia-600","dark:caret-fuchsia-400"); </v>
       </c>
       <c r="I157">
         <f t="shared" ref="I157:J157" si="174">I148</f>
@@ -11080,35 +11081,35 @@
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_700 { get; set; } = new("b-text-fuchsia-700","dark:b-text-fuchsia-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_700 { get; set; } = new("text-fuchsia-700","dark:text-fuchsia-300"); </v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_700 { get; set; } = new("b-bg-fuchsia-700","dark:b-bg-fuchsia-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_700 { get; set; } = new("bg-fuchsia-700","dark:bg-fuchsia-300"); </v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_700 { get; set; } = new("b-border-fuchsia-700","dark:b-border-fuchsia-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_700 { get; set; } = new("border-fuchsia-700","dark:border-fuchsia-300"); </v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_700 { get; set; } = new("b-divide-fuchsia-700","dark:b-divide-fuchsia-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_700 { get; set; } = new("divide-fuchsia-700","dark:divide-fuchsia-300"); </v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_700 { get; set; } = new("b-outline-fuchsia-700","dark:b-outline-fuchsia-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_700 { get; set; } = new("outline-fuchsia-700","dark:outline-fuchsia-300"); </v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_700 { get; set; } = new("b-ring-fuchsia-700","dark:b-ring-fuchsia-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_700 { get; set; } = new("ring-fuchsia-700","dark:ring-fuchsia-300"); </v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_700 { get; set; } = new("b-accent-fuchsia-700","dark:b-accent-fuchsia-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_700 { get; set; } = new("accent-fuchsia-700","dark:accent-fuchsia-300"); </v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_700 { get; set; } = new("b-caret-fuchsia-700","dark:b-caret-fuchsia-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_700 { get; set; } = new("caret-fuchsia-700","dark:caret-fuchsia-300"); </v>
       </c>
       <c r="I158">
         <f t="shared" ref="I158:J158" si="175">I149</f>
@@ -11149,35 +11150,35 @@
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_800 { get; set; } = new("b-text-fuchsia-800","dark:b-text-fuchsia-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_800 { get; set; } = new("text-fuchsia-800","dark:text-fuchsia-200"); </v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_800 { get; set; } = new("b-bg-fuchsia-800","dark:b-bg-fuchsia-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_800 { get; set; } = new("bg-fuchsia-800","dark:bg-fuchsia-200"); </v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_800 { get; set; } = new("b-border-fuchsia-800","dark:b-border-fuchsia-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_800 { get; set; } = new("border-fuchsia-800","dark:border-fuchsia-200"); </v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_800 { get; set; } = new("b-divide-fuchsia-800","dark:b-divide-fuchsia-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_800 { get; set; } = new("divide-fuchsia-800","dark:divide-fuchsia-200"); </v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_800 { get; set; } = new("b-outline-fuchsia-800","dark:b-outline-fuchsia-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_800 { get; set; } = new("outline-fuchsia-800","dark:outline-fuchsia-200"); </v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_800 { get; set; } = new("b-ring-fuchsia-800","dark:b-ring-fuchsia-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_800 { get; set; } = new("ring-fuchsia-800","dark:ring-fuchsia-200"); </v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_800 { get; set; } = new("b-accent-fuchsia-800","dark:b-accent-fuchsia-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_800 { get; set; } = new("accent-fuchsia-800","dark:accent-fuchsia-200"); </v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_800 { get; set; } = new("b-caret-fuchsia-800","dark:b-caret-fuchsia-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_800 { get; set; } = new("caret-fuchsia-800","dark:caret-fuchsia-200"); </v>
       </c>
       <c r="I159">
         <f t="shared" ref="I159:J159" si="176">I150</f>
@@ -11218,35 +11219,35 @@
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Fuchsia_900 { get; set; } = new("b-text-fuchsia-900","dark:b-text-fuchsia-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Fuchsia_900 { get; set; } = new("text-fuchsia-900","dark:text-fuchsia-100"); </v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_900 { get; set; } = new("b-bg-fuchsia-900","dark:b-bg-fuchsia-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Fuchsia_900 { get; set; } = new("bg-fuchsia-900","dark:bg-fuchsia-100"); </v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Fuchsia_900 { get; set; } = new("b-border-fuchsia-900","dark:b-border-fuchsia-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Fuchsia_900 { get; set; } = new("border-fuchsia-900","dark:border-fuchsia-100"); </v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_900 { get; set; } = new("b-divide-fuchsia-900","dark:b-divide-fuchsia-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Fuchsia_900 { get; set; } = new("divide-fuchsia-900","dark:divide-fuchsia-100"); </v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_900 { get; set; } = new("b-outline-fuchsia-900","dark:b-outline-fuchsia-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Fuchsia_900 { get; set; } = new("outline-fuchsia-900","dark:outline-fuchsia-100"); </v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_900 { get; set; } = new("b-ring-fuchsia-900","dark:b-ring-fuchsia-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Fuchsia_900 { get; set; } = new("ring-fuchsia-900","dark:ring-fuchsia-100"); </v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_900 { get; set; } = new("b-accent-fuchsia-900","dark:b-accent-fuchsia-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Fuchsia_900 { get; set; } = new("accent-fuchsia-900","dark:accent-fuchsia-100"); </v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_900 { get; set; } = new("b-caret-fuchsia-900","dark:b-caret-fuchsia-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Fuchsia_900 { get; set; } = new("caret-fuchsia-900","dark:caret-fuchsia-100"); </v>
       </c>
       <c r="I160">
         <f t="shared" ref="I160:J160" si="177">I151</f>
@@ -11287,35 +11288,35 @@
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_100 { get; set; } = new("b-text-pink-100","dark:b-text-pink-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_100 { get; set; } = new("text-pink-100","dark:text-pink-900"); </v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_100 { get; set; } = new("b-bg-pink-100","dark:b-bg-pink-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_100 { get; set; } = new("bg-pink-100","dark:bg-pink-900"); </v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_100 { get; set; } = new("b-border-pink-100","dark:b-border-pink-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_100 { get; set; } = new("border-pink-100","dark:border-pink-900"); </v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_100 { get; set; } = new("b-divide-pink-100","dark:b-divide-pink-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_100 { get; set; } = new("divide-pink-100","dark:divide-pink-900"); </v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_100 { get; set; } = new("b-outline-pink-100","dark:b-outline-pink-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_100 { get; set; } = new("outline-pink-100","dark:outline-pink-900"); </v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_100 { get; set; } = new("b-ring-pink-100","dark:b-ring-pink-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_100 { get; set; } = new("ring-pink-100","dark:ring-pink-900"); </v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_100 { get; set; } = new("b-accent-pink-100","dark:b-accent-pink-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_100 { get; set; } = new("accent-pink-100","dark:accent-pink-900"); </v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_100 { get; set; } = new("b-caret-pink-100","dark:b-caret-pink-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_100 { get; set; } = new("caret-pink-100","dark:caret-pink-900"); </v>
       </c>
       <c r="I161">
         <f t="shared" ref="I161:J161" si="178">I152</f>
@@ -11356,35 +11357,35 @@
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_200 { get; set; } = new("b-text-pink-200","dark:b-text-pink-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_200 { get; set; } = new("text-pink-200","dark:text-pink-800"); </v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_200 { get; set; } = new("b-bg-pink-200","dark:b-bg-pink-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_200 { get; set; } = new("bg-pink-200","dark:bg-pink-800"); </v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_200 { get; set; } = new("b-border-pink-200","dark:b-border-pink-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_200 { get; set; } = new("border-pink-200","dark:border-pink-800"); </v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_200 { get; set; } = new("b-divide-pink-200","dark:b-divide-pink-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_200 { get; set; } = new("divide-pink-200","dark:divide-pink-800"); </v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_200 { get; set; } = new("b-outline-pink-200","dark:b-outline-pink-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_200 { get; set; } = new("outline-pink-200","dark:outline-pink-800"); </v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_200 { get; set; } = new("b-ring-pink-200","dark:b-ring-pink-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_200 { get; set; } = new("ring-pink-200","dark:ring-pink-800"); </v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_200 { get; set; } = new("b-accent-pink-200","dark:b-accent-pink-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_200 { get; set; } = new("accent-pink-200","dark:accent-pink-800"); </v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_200 { get; set; } = new("b-caret-pink-200","dark:b-caret-pink-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_200 { get; set; } = new("caret-pink-200","dark:caret-pink-800"); </v>
       </c>
       <c r="I162">
         <f t="shared" ref="I162:J162" si="179">I153</f>
@@ -11425,35 +11426,35 @@
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_300 { get; set; } = new("b-text-pink-300","dark:b-text-pink-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_300 { get; set; } = new("text-pink-300","dark:text-pink-700"); </v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_300 { get; set; } = new("b-bg-pink-300","dark:b-bg-pink-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_300 { get; set; } = new("bg-pink-300","dark:bg-pink-700"); </v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_300 { get; set; } = new("b-border-pink-300","dark:b-border-pink-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_300 { get; set; } = new("border-pink-300","dark:border-pink-700"); </v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_300 { get; set; } = new("b-divide-pink-300","dark:b-divide-pink-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_300 { get; set; } = new("divide-pink-300","dark:divide-pink-700"); </v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_300 { get; set; } = new("b-outline-pink-300","dark:b-outline-pink-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_300 { get; set; } = new("outline-pink-300","dark:outline-pink-700"); </v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_300 { get; set; } = new("b-ring-pink-300","dark:b-ring-pink-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_300 { get; set; } = new("ring-pink-300","dark:ring-pink-700"); </v>
       </c>
       <c r="G163" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_300 { get; set; } = new("b-accent-pink-300","dark:b-accent-pink-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_300 { get; set; } = new("accent-pink-300","dark:accent-pink-700"); </v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_300 { get; set; } = new("b-caret-pink-300","dark:b-caret-pink-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_300 { get; set; } = new("caret-pink-300","dark:caret-pink-700"); </v>
       </c>
       <c r="I163">
         <f t="shared" ref="I163:J163" si="180">I154</f>
@@ -11494,35 +11495,35 @@
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_400 { get; set; } = new("b-text-pink-400","dark:b-text-pink-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_400 { get; set; } = new("text-pink-400","dark:text-pink-600"); </v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_400 { get; set; } = new("b-bg-pink-400","dark:b-bg-pink-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_400 { get; set; } = new("bg-pink-400","dark:bg-pink-600"); </v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_400 { get; set; } = new("b-border-pink-400","dark:b-border-pink-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_400 { get; set; } = new("border-pink-400","dark:border-pink-600"); </v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_400 { get; set; } = new("b-divide-pink-400","dark:b-divide-pink-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_400 { get; set; } = new("divide-pink-400","dark:divide-pink-600"); </v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_400 { get; set; } = new("b-outline-pink-400","dark:b-outline-pink-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_400 { get; set; } = new("outline-pink-400","dark:outline-pink-600"); </v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_400 { get; set; } = new("b-ring-pink-400","dark:b-ring-pink-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_400 { get; set; } = new("ring-pink-400","dark:ring-pink-600"); </v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_400 { get; set; } = new("b-accent-pink-400","dark:b-accent-pink-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_400 { get; set; } = new("accent-pink-400","dark:accent-pink-600"); </v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_400 { get; set; } = new("b-caret-pink-400","dark:b-caret-pink-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_400 { get; set; } = new("caret-pink-400","dark:caret-pink-600"); </v>
       </c>
       <c r="I164">
         <f t="shared" ref="I164:J164" si="181">I155</f>
@@ -11563,35 +11564,35 @@
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_500 { get; set; } = new("b-text-pink-500","dark:b-text-pink-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_500 { get; set; } = new("text-pink-500","dark:text-pink-500"); </v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_500 { get; set; } = new("b-bg-pink-500","dark:b-bg-pink-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_500 { get; set; } = new("bg-pink-500","dark:bg-pink-500"); </v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_500 { get; set; } = new("b-border-pink-500","dark:b-border-pink-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_500 { get; set; } = new("border-pink-500","dark:border-pink-500"); </v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_500 { get; set; } = new("b-divide-pink-500","dark:b-divide-pink-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_500 { get; set; } = new("divide-pink-500","dark:divide-pink-500"); </v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_500 { get; set; } = new("b-outline-pink-500","dark:b-outline-pink-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_500 { get; set; } = new("outline-pink-500","dark:outline-pink-500"); </v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_500 { get; set; } = new("b-ring-pink-500","dark:b-ring-pink-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_500 { get; set; } = new("ring-pink-500","dark:ring-pink-500"); </v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_500 { get; set; } = new("b-accent-pink-500","dark:b-accent-pink-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_500 { get; set; } = new("accent-pink-500","dark:accent-pink-500"); </v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_500 { get; set; } = new("b-caret-pink-500","dark:b-caret-pink-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_500 { get; set; } = new("caret-pink-500","dark:caret-pink-500"); </v>
       </c>
       <c r="I165">
         <f t="shared" ref="I165:J165" si="182">I156</f>
@@ -11632,35 +11633,35 @@
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_600 { get; set; } = new("b-text-pink-600","dark:b-text-pink-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_600 { get; set; } = new("text-pink-600","dark:text-pink-400"); </v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_600 { get; set; } = new("b-bg-pink-600","dark:b-bg-pink-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_600 { get; set; } = new("bg-pink-600","dark:bg-pink-400"); </v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_600 { get; set; } = new("b-border-pink-600","dark:b-border-pink-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_600 { get; set; } = new("border-pink-600","dark:border-pink-400"); </v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_600 { get; set; } = new("b-divide-pink-600","dark:b-divide-pink-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_600 { get; set; } = new("divide-pink-600","dark:divide-pink-400"); </v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_600 { get; set; } = new("b-outline-pink-600","dark:b-outline-pink-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_600 { get; set; } = new("outline-pink-600","dark:outline-pink-400"); </v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_600 { get; set; } = new("b-ring-pink-600","dark:b-ring-pink-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_600 { get; set; } = new("ring-pink-600","dark:ring-pink-400"); </v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_600 { get; set; } = new("b-accent-pink-600","dark:b-accent-pink-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_600 { get; set; } = new("accent-pink-600","dark:accent-pink-400"); </v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_600 { get; set; } = new("b-caret-pink-600","dark:b-caret-pink-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_600 { get; set; } = new("caret-pink-600","dark:caret-pink-400"); </v>
       </c>
       <c r="I166">
         <f t="shared" ref="I166:J166" si="183">I157</f>
@@ -11701,35 +11702,35 @@
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_700 { get; set; } = new("b-text-pink-700","dark:b-text-pink-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_700 { get; set; } = new("text-pink-700","dark:text-pink-300"); </v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_700 { get; set; } = new("b-bg-pink-700","dark:b-bg-pink-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_700 { get; set; } = new("bg-pink-700","dark:bg-pink-300"); </v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_700 { get; set; } = new("b-border-pink-700","dark:b-border-pink-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_700 { get; set; } = new("border-pink-700","dark:border-pink-300"); </v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_700 { get; set; } = new("b-divide-pink-700","dark:b-divide-pink-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_700 { get; set; } = new("divide-pink-700","dark:divide-pink-300"); </v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_700 { get; set; } = new("b-outline-pink-700","dark:b-outline-pink-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_700 { get; set; } = new("outline-pink-700","dark:outline-pink-300"); </v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_700 { get; set; } = new("b-ring-pink-700","dark:b-ring-pink-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_700 { get; set; } = new("ring-pink-700","dark:ring-pink-300"); </v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_700 { get; set; } = new("b-accent-pink-700","dark:b-accent-pink-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_700 { get; set; } = new("accent-pink-700","dark:accent-pink-300"); </v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_700 { get; set; } = new("b-caret-pink-700","dark:b-caret-pink-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_700 { get; set; } = new("caret-pink-700","dark:caret-pink-300"); </v>
       </c>
       <c r="I167">
         <f t="shared" ref="I167:J167" si="184">I158</f>
@@ -11770,35 +11771,35 @@
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_800 { get; set; } = new("b-text-pink-800","dark:b-text-pink-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_800 { get; set; } = new("text-pink-800","dark:text-pink-200"); </v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_800 { get; set; } = new("b-bg-pink-800","dark:b-bg-pink-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_800 { get; set; } = new("bg-pink-800","dark:bg-pink-200"); </v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_800 { get; set; } = new("b-border-pink-800","dark:b-border-pink-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_800 { get; set; } = new("border-pink-800","dark:border-pink-200"); </v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_800 { get; set; } = new("b-divide-pink-800","dark:b-divide-pink-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_800 { get; set; } = new("divide-pink-800","dark:divide-pink-200"); </v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_800 { get; set; } = new("b-outline-pink-800","dark:b-outline-pink-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_800 { get; set; } = new("outline-pink-800","dark:outline-pink-200"); </v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_800 { get; set; } = new("b-ring-pink-800","dark:b-ring-pink-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_800 { get; set; } = new("ring-pink-800","dark:ring-pink-200"); </v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_800 { get; set; } = new("b-accent-pink-800","dark:b-accent-pink-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_800 { get; set; } = new("accent-pink-800","dark:accent-pink-200"); </v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_800 { get; set; } = new("b-caret-pink-800","dark:b-caret-pink-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_800 { get; set; } = new("caret-pink-800","dark:caret-pink-200"); </v>
       </c>
       <c r="I168">
         <f t="shared" ref="I168:J168" si="185">I159</f>
@@ -11839,35 +11840,35 @@
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Pink_900 { get; set; } = new("b-text-pink-900","dark:b-text-pink-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Pink_900 { get; set; } = new("text-pink-900","dark:text-pink-100"); </v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Pink_900 { get; set; } = new("b-bg-pink-900","dark:b-bg-pink-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Pink_900 { get; set; } = new("bg-pink-900","dark:bg-pink-100"); </v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Pink_900 { get; set; } = new("b-border-pink-900","dark:b-border-pink-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Pink_900 { get; set; } = new("border-pink-900","dark:border-pink-100"); </v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Pink_900 { get; set; } = new("b-divide-pink-900","dark:b-divide-pink-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Pink_900 { get; set; } = new("divide-pink-900","dark:divide-pink-100"); </v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Pink_900 { get; set; } = new("b-outline-pink-900","dark:b-outline-pink-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Pink_900 { get; set; } = new("outline-pink-900","dark:outline-pink-100"); </v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Pink_900 { get; set; } = new("b-ring-pink-900","dark:b-ring-pink-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Pink_900 { get; set; } = new("ring-pink-900","dark:ring-pink-100"); </v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Pink_900 { get; set; } = new("b-accent-pink-900","dark:b-accent-pink-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Pink_900 { get; set; } = new("accent-pink-900","dark:accent-pink-100"); </v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Pink_900 { get; set; } = new("b-caret-pink-900","dark:b-caret-pink-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Pink_900 { get; set; } = new("caret-pink-900","dark:caret-pink-100"); </v>
       </c>
       <c r="I169">
         <f t="shared" ref="I169:J169" si="186">I160</f>
@@ -11908,35 +11909,35 @@
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_100 { get; set; } = new("b-text-rose-100","dark:b-text-rose-900"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_100 { get; set; } = new("text-rose-100","dark:text-rose-900"); </v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_100 { get; set; } = new("b-bg-rose-100","dark:b-bg-rose-900"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_100 { get; set; } = new("bg-rose-100","dark:bg-rose-900"); </v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_100 { get; set; } = new("b-border-rose-100","dark:b-border-rose-900"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_100 { get; set; } = new("border-rose-100","dark:border-rose-900"); </v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_100 { get; set; } = new("b-divide-rose-100","dark:b-divide-rose-900"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_100 { get; set; } = new("divide-rose-100","dark:divide-rose-900"); </v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_100 { get; set; } = new("b-outline-rose-100","dark:b-outline-rose-900"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_100 { get; set; } = new("outline-rose-100","dark:outline-rose-900"); </v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_100 { get; set; } = new("b-ring-rose-100","dark:b-ring-rose-900"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_100 { get; set; } = new("ring-rose-100","dark:ring-rose-900"); </v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_100 { get; set; } = new("b-accent-rose-100","dark:b-accent-rose-900"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_100 { get; set; } = new("accent-rose-100","dark:accent-rose-900"); </v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_100 { get; set; } = new("b-caret-rose-100","dark:b-caret-rose-900"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_100 { get; set; } = new("caret-rose-100","dark:caret-rose-900"); </v>
       </c>
       <c r="I170">
         <f t="shared" ref="I170:J170" si="187">I161</f>
@@ -11977,35 +11978,35 @@
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_200 { get; set; } = new("b-text-rose-200","dark:b-text-rose-800"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_200 { get; set; } = new("text-rose-200","dark:text-rose-800"); </v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_200 { get; set; } = new("b-bg-rose-200","dark:b-bg-rose-800"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_200 { get; set; } = new("bg-rose-200","dark:bg-rose-800"); </v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_200 { get; set; } = new("b-border-rose-200","dark:b-border-rose-800"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_200 { get; set; } = new("border-rose-200","dark:border-rose-800"); </v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_200 { get; set; } = new("b-divide-rose-200","dark:b-divide-rose-800"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_200 { get; set; } = new("divide-rose-200","dark:divide-rose-800"); </v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_200 { get; set; } = new("b-outline-rose-200","dark:b-outline-rose-800"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_200 { get; set; } = new("outline-rose-200","dark:outline-rose-800"); </v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_200 { get; set; } = new("b-ring-rose-200","dark:b-ring-rose-800"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_200 { get; set; } = new("ring-rose-200","dark:ring-rose-800"); </v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_200 { get; set; } = new("b-accent-rose-200","dark:b-accent-rose-800"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_200 { get; set; } = new("accent-rose-200","dark:accent-rose-800"); </v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_200 { get; set; } = new("b-caret-rose-200","dark:b-caret-rose-800"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_200 { get; set; } = new("caret-rose-200","dark:caret-rose-800"); </v>
       </c>
       <c r="I171">
         <f t="shared" ref="I171:J171" si="188">I162</f>
@@ -12046,35 +12047,35 @@
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_300 { get; set; } = new("b-text-rose-300","dark:b-text-rose-700"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_300 { get; set; } = new("text-rose-300","dark:text-rose-700"); </v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_300 { get; set; } = new("b-bg-rose-300","dark:b-bg-rose-700"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_300 { get; set; } = new("bg-rose-300","dark:bg-rose-700"); </v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_300 { get; set; } = new("b-border-rose-300","dark:b-border-rose-700"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_300 { get; set; } = new("border-rose-300","dark:border-rose-700"); </v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_300 { get; set; } = new("b-divide-rose-300","dark:b-divide-rose-700"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_300 { get; set; } = new("divide-rose-300","dark:divide-rose-700"); </v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_300 { get; set; } = new("b-outline-rose-300","dark:b-outline-rose-700"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_300 { get; set; } = new("outline-rose-300","dark:outline-rose-700"); </v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_300 { get; set; } = new("b-ring-rose-300","dark:b-ring-rose-700"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_300 { get; set; } = new("ring-rose-300","dark:ring-rose-700"); </v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_300 { get; set; } = new("b-accent-rose-300","dark:b-accent-rose-700"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_300 { get; set; } = new("accent-rose-300","dark:accent-rose-700"); </v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_300 { get; set; } = new("b-caret-rose-300","dark:b-caret-rose-700"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_300 { get; set; } = new("caret-rose-300","dark:caret-rose-700"); </v>
       </c>
       <c r="I172">
         <f t="shared" ref="I172:J172" si="189">I163</f>
@@ -12115,35 +12116,35 @@
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_400 { get; set; } = new("b-text-rose-400","dark:b-text-rose-600"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_400 { get; set; } = new("text-rose-400","dark:text-rose-600"); </v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_400 { get; set; } = new("b-bg-rose-400","dark:b-bg-rose-600"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_400 { get; set; } = new("bg-rose-400","dark:bg-rose-600"); </v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_400 { get; set; } = new("b-border-rose-400","dark:b-border-rose-600"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_400 { get; set; } = new("border-rose-400","dark:border-rose-600"); </v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_400 { get; set; } = new("b-divide-rose-400","dark:b-divide-rose-600"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_400 { get; set; } = new("divide-rose-400","dark:divide-rose-600"); </v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_400 { get; set; } = new("b-outline-rose-400","dark:b-outline-rose-600"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_400 { get; set; } = new("outline-rose-400","dark:outline-rose-600"); </v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_400 { get; set; } = new("b-ring-rose-400","dark:b-ring-rose-600"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_400 { get; set; } = new("ring-rose-400","dark:ring-rose-600"); </v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_400 { get; set; } = new("b-accent-rose-400","dark:b-accent-rose-600"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_400 { get; set; } = new("accent-rose-400","dark:accent-rose-600"); </v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_400 { get; set; } = new("b-caret-rose-400","dark:b-caret-rose-600"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_400 { get; set; } = new("caret-rose-400","dark:caret-rose-600"); </v>
       </c>
       <c r="I173">
         <f t="shared" ref="I173:J173" si="190">I164</f>
@@ -12184,35 +12185,35 @@
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_500 { get; set; } = new("b-text-rose-500","dark:b-text-rose-500"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_500 { get; set; } = new("text-rose-500","dark:text-rose-500"); </v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_500 { get; set; } = new("b-bg-rose-500","dark:b-bg-rose-500"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_500 { get; set; } = new("bg-rose-500","dark:bg-rose-500"); </v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_500 { get; set; } = new("b-border-rose-500","dark:b-border-rose-500"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_500 { get; set; } = new("border-rose-500","dark:border-rose-500"); </v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_500 { get; set; } = new("b-divide-rose-500","dark:b-divide-rose-500"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_500 { get; set; } = new("divide-rose-500","dark:divide-rose-500"); </v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_500 { get; set; } = new("b-outline-rose-500","dark:b-outline-rose-500"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_500 { get; set; } = new("outline-rose-500","dark:outline-rose-500"); </v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_500 { get; set; } = new("b-ring-rose-500","dark:b-ring-rose-500"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_500 { get; set; } = new("ring-rose-500","dark:ring-rose-500"); </v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_500 { get; set; } = new("b-accent-rose-500","dark:b-accent-rose-500"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_500 { get; set; } = new("accent-rose-500","dark:accent-rose-500"); </v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_500 { get; set; } = new("b-caret-rose-500","dark:b-caret-rose-500"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_500 { get; set; } = new("caret-rose-500","dark:caret-rose-500"); </v>
       </c>
       <c r="I174">
         <f t="shared" ref="I174:J174" si="191">I165</f>
@@ -12253,35 +12254,35 @@
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_600 { get; set; } = new("b-text-rose-600","dark:b-text-rose-400"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_600 { get; set; } = new("text-rose-600","dark:text-rose-400"); </v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_600 { get; set; } = new("b-bg-rose-600","dark:b-bg-rose-400"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_600 { get; set; } = new("bg-rose-600","dark:bg-rose-400"); </v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_600 { get; set; } = new("b-border-rose-600","dark:b-border-rose-400"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_600 { get; set; } = new("border-rose-600","dark:border-rose-400"); </v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_600 { get; set; } = new("b-divide-rose-600","dark:b-divide-rose-400"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_600 { get; set; } = new("divide-rose-600","dark:divide-rose-400"); </v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_600 { get; set; } = new("b-outline-rose-600","dark:b-outline-rose-400"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_600 { get; set; } = new("outline-rose-600","dark:outline-rose-400"); </v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_600 { get; set; } = new("b-ring-rose-600","dark:b-ring-rose-400"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_600 { get; set; } = new("ring-rose-600","dark:ring-rose-400"); </v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_600 { get; set; } = new("b-accent-rose-600","dark:b-accent-rose-400"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_600 { get; set; } = new("accent-rose-600","dark:accent-rose-400"); </v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_600 { get; set; } = new("b-caret-rose-600","dark:b-caret-rose-400"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_600 { get; set; } = new("caret-rose-600","dark:caret-rose-400"); </v>
       </c>
       <c r="I175">
         <f t="shared" ref="I175:J175" si="192">I166</f>
@@ -12322,35 +12323,35 @@
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_700 { get; set; } = new("b-text-rose-700","dark:b-text-rose-300"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_700 { get; set; } = new("text-rose-700","dark:text-rose-300"); </v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_700 { get; set; } = new("b-bg-rose-700","dark:b-bg-rose-300"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_700 { get; set; } = new("bg-rose-700","dark:bg-rose-300"); </v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_700 { get; set; } = new("b-border-rose-700","dark:b-border-rose-300"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_700 { get; set; } = new("border-rose-700","dark:border-rose-300"); </v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_700 { get; set; } = new("b-divide-rose-700","dark:b-divide-rose-300"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_700 { get; set; } = new("divide-rose-700","dark:divide-rose-300"); </v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_700 { get; set; } = new("b-outline-rose-700","dark:b-outline-rose-300"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_700 { get; set; } = new("outline-rose-700","dark:outline-rose-300"); </v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_700 { get; set; } = new("b-ring-rose-700","dark:b-ring-rose-300"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_700 { get; set; } = new("ring-rose-700","dark:ring-rose-300"); </v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_700 { get; set; } = new("b-accent-rose-700","dark:b-accent-rose-300"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_700 { get; set; } = new("accent-rose-700","dark:accent-rose-300"); </v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_700 { get; set; } = new("b-caret-rose-700","dark:b-caret-rose-300"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_700 { get; set; } = new("caret-rose-700","dark:caret-rose-300"); </v>
       </c>
       <c r="I176">
         <f t="shared" ref="I176:J176" si="193">I167</f>
@@ -12391,35 +12392,35 @@
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_800 { get; set; } = new("b-text-rose-800","dark:b-text-rose-200"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_800 { get; set; } = new("text-rose-800","dark:text-rose-200"); </v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_800 { get; set; } = new("b-bg-rose-800","dark:b-bg-rose-200"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_800 { get; set; } = new("bg-rose-800","dark:bg-rose-200"); </v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_800 { get; set; } = new("b-border-rose-800","dark:b-border-rose-200"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_800 { get; set; } = new("border-rose-800","dark:border-rose-200"); </v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_800 { get; set; } = new("b-divide-rose-800","dark:b-divide-rose-200"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_800 { get; set; } = new("divide-rose-800","dark:divide-rose-200"); </v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_800 { get; set; } = new("b-outline-rose-800","dark:b-outline-rose-200"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_800 { get; set; } = new("outline-rose-800","dark:outline-rose-200"); </v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_800 { get; set; } = new("b-ring-rose-800","dark:b-ring-rose-200"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_800 { get; set; } = new("ring-rose-800","dark:ring-rose-200"); </v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_800 { get; set; } = new("b-accent-rose-800","dark:b-accent-rose-200"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_800 { get; set; } = new("accent-rose-800","dark:accent-rose-200"); </v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_800 { get; set; } = new("b-caret-rose-800","dark:b-caret-rose-200"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_800 { get; set; } = new("caret-rose-800","dark:caret-rose-200"); </v>
       </c>
       <c r="I177">
         <f t="shared" ref="I177:J177" si="194">I168</f>
@@ -12460,35 +12461,35 @@
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="146"/>
-        <v xml:space="preserve">public static ColorPair Text_Rose_900 { get; set; } = new("b-text-rose-900","dark:b-text-rose-100"); </v>
+        <v xml:space="preserve">public static ColorPair Text_Rose_900 { get; set; } = new("text-rose-900","dark:text-rose-100"); </v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">public static ColorPair Bg_Rose_900 { get; set; } = new("b-bg-rose-900","dark:b-bg-rose-100"); </v>
+        <v xml:space="preserve">public static ColorPair Bg_Rose_900 { get; set; } = new("bg-rose-900","dark:bg-rose-100"); </v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="148"/>
-        <v xml:space="preserve">public static ColorPair Border_Rose_900 { get; set; } = new("b-border-rose-900","dark:b-border-rose-100"); </v>
+        <v xml:space="preserve">public static ColorPair Border_Rose_900 { get; set; } = new("border-rose-900","dark:border-rose-100"); </v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="149"/>
-        <v xml:space="preserve">public static ColorPair Divide_Rose_900 { get; set; } = new("b-divide-rose-900","dark:b-divide-rose-100"); </v>
+        <v xml:space="preserve">public static ColorPair Divide_Rose_900 { get; set; } = new("divide-rose-900","dark:divide-rose-100"); </v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="150"/>
-        <v xml:space="preserve">public static ColorPair Outline_Rose_900 { get; set; } = new("b-outline-rose-900","dark:b-outline-rose-100"); </v>
+        <v xml:space="preserve">public static ColorPair Outline_Rose_900 { get; set; } = new("outline-rose-900","dark:outline-rose-100"); </v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="151"/>
-        <v xml:space="preserve">public static ColorPair Ring_Rose_900 { get; set; } = new("b-ring-rose-900","dark:b-ring-rose-100"); </v>
+        <v xml:space="preserve">public static ColorPair Ring_Rose_900 { get; set; } = new("ring-rose-900","dark:ring-rose-100"); </v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="152"/>
-        <v xml:space="preserve">public static ColorPair Accent_Rose_900 { get; set; } = new("b-accent-rose-900","dark:b-accent-rose-100"); </v>
+        <v xml:space="preserve">public static ColorPair Accent_Rose_900 { get; set; } = new("accent-rose-900","dark:accent-rose-100"); </v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="153"/>
-        <v xml:space="preserve">public static ColorPair Caret_Rose_900 { get; set; } = new("b-caret-rose-900","dark:b-caret-rose-100"); </v>
+        <v xml:space="preserve">public static ColorPair Caret_Rose_900 { get; set; } = new("caret-rose-900","dark:caret-rose-100"); </v>
       </c>
       <c r="I178">
         <f t="shared" ref="I178:J178" si="195">I169</f>
